--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -802,10 +802,10 @@
     <t>['55', '72']</t>
   </si>
   <si>
-    <t>['16', '61']</t>
+    <t>['10', '64']</t>
   </si>
   <si>
-    <t>['10', '64']</t>
+    <t>['16', '61']</t>
   </si>
   <si>
     <t>['12', '49', '65']</t>
@@ -838,13 +838,13 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['38', '90+7']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['38', '90+7']</t>
   </si>
   <si>
     <t>['44', '69', '83']</t>
@@ -859,10 +859,10 @@
     <t>['6', '89']</t>
   </si>
   <si>
-    <t>['43', '81']</t>
+    <t>['49', '60']</t>
   </si>
   <si>
-    <t>['49', '60']</t>
+    <t>['43', '81']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1210,10 +1210,10 @@
     <t>['17', '90+2']</t>
   </si>
   <si>
-    <t>['23', '30', '43']</t>
+    <t>['55', '69', '85']</t>
   </si>
   <si>
-    <t>['55', '69', '85']</t>
+    <t>['23', '30', '43']</t>
   </si>
   <si>
     <t>['38', '46']</t>
@@ -1225,10 +1225,10 @@
     <t>['27', '40']</t>
   </si>
   <si>
-    <t>['24', '44']</t>
+    <t>['50', '90+5']</t>
   </si>
   <si>
-    <t>['50', '90+5']</t>
+    <t>['24', '44']</t>
   </si>
   <si>
     <t>['27', '50']</t>
@@ -17732,7 +17732,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -57284,7 +57284,7 @@
         <v>165</v>
       </c>
       <c r="P271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q271">
         <v>2.65</v>
@@ -61774,7 +61774,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>7509879</v>
+        <v>7509882</v>
       </c>
       <c r="C293" t="s">
         <v>68</v>
@@ -61789,160 +61789,160 @@
         <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H293" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293">
         <v>0</v>
       </c>
       <c r="K293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O293" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="Q293">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R293">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S293">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T293">
+        <v>1.57</v>
+      </c>
+      <c r="U293">
+        <v>2.25</v>
+      </c>
+      <c r="V293">
+        <v>3.75</v>
+      </c>
+      <c r="W293">
+        <v>1.25</v>
+      </c>
+      <c r="X293">
+        <v>13</v>
+      </c>
+      <c r="Y293">
+        <v>1.04</v>
+      </c>
+      <c r="Z293">
+        <v>2.7</v>
+      </c>
+      <c r="AA293">
+        <v>2.84</v>
+      </c>
+      <c r="AB293">
+        <v>3.2</v>
+      </c>
+      <c r="AC293">
+        <v>1.09</v>
+      </c>
+      <c r="AD293">
+        <v>6</v>
+      </c>
+      <c r="AE293">
+        <v>1.48</v>
+      </c>
+      <c r="AF293">
+        <v>2.37</v>
+      </c>
+      <c r="AG293">
+        <v>2.5</v>
+      </c>
+      <c r="AH293">
+        <v>1.47</v>
+      </c>
+      <c r="AI293">
+        <v>2.05</v>
+      </c>
+      <c r="AJ293">
+        <v>1.7</v>
+      </c>
+      <c r="AK293">
+        <v>1.36</v>
+      </c>
+      <c r="AL293">
+        <v>1.38</v>
+      </c>
+      <c r="AM293">
         <v>1.5</v>
       </c>
-      <c r="U293">
-        <v>2.5</v>
-      </c>
-      <c r="V293">
-        <v>3.5</v>
-      </c>
-      <c r="W293">
-        <v>1.29</v>
-      </c>
-      <c r="X293">
-        <v>11</v>
-      </c>
-      <c r="Y293">
-        <v>1.05</v>
-      </c>
-      <c r="Z293">
-        <v>3.72</v>
-      </c>
-      <c r="AA293">
-        <v>3.13</v>
-      </c>
-      <c r="AB293">
-        <v>2.24</v>
-      </c>
-      <c r="AC293">
-        <v>1.07</v>
-      </c>
-      <c r="AD293">
-        <v>7</v>
-      </c>
-      <c r="AE293">
-        <v>1.42</v>
-      </c>
-      <c r="AF293">
-        <v>2.62</v>
-      </c>
-      <c r="AG293">
-        <v>2.05</v>
-      </c>
-      <c r="AH293">
-        <v>1.61</v>
-      </c>
-      <c r="AI293">
-        <v>1.95</v>
-      </c>
-      <c r="AJ293">
-        <v>1.8</v>
-      </c>
-      <c r="AK293">
-        <v>1.7</v>
-      </c>
-      <c r="AL293">
-        <v>1.4</v>
-      </c>
-      <c r="AM293">
+      <c r="AN293">
+        <v>1.71</v>
+      </c>
+      <c r="AO293">
+        <v>0.87</v>
+      </c>
+      <c r="AP293">
+        <v>1.88</v>
+      </c>
+      <c r="AQ293">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR293">
+        <v>1.27</v>
+      </c>
+      <c r="AS293">
         <v>1.25</v>
       </c>
-      <c r="AN293">
-        <v>1.86</v>
-      </c>
-      <c r="AO293">
-        <v>1.53</v>
-      </c>
-      <c r="AP293">
-        <v>1.65</v>
-      </c>
-      <c r="AQ293">
-        <v>1.47</v>
-      </c>
-      <c r="AR293">
-        <v>1.45</v>
-      </c>
-      <c r="AS293">
-        <v>1.51</v>
-      </c>
       <c r="AT293">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="AU293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV293">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW293">
         <v>9</v>
       </c>
       <c r="AX293">
+        <v>8</v>
+      </c>
+      <c r="AY293">
+        <v>16</v>
+      </c>
+      <c r="AZ293">
         <v>12</v>
       </c>
-      <c r="AY293">
-        <v>18</v>
-      </c>
-      <c r="AZ293">
-        <v>20</v>
-      </c>
       <c r="BA293">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB293">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC293">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD293">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="BE293">
         <v>8</v>
       </c>
       <c r="BF293">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="BG293">
         <v>1.37</v>
@@ -61951,16 +61951,16 @@
         <v>2.75</v>
       </c>
       <c r="BI293">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="BJ293">
         <v>2.05</v>
       </c>
       <c r="BK293">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="BL293">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BM293">
         <v>2.88</v>
@@ -61980,7 +61980,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>7509880</v>
+        <v>7509881</v>
       </c>
       <c r="C294" t="s">
         <v>68</v>
@@ -61995,190 +61995,190 @@
         <v>30</v>
       </c>
       <c r="G294" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H294" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294">
         <v>1</v>
       </c>
       <c r="K294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N294">
         <v>3</v>
       </c>
       <c r="O294" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="P294" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="Q294">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R294">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T294">
+        <v>1.53</v>
+      </c>
+      <c r="U294">
+        <v>2.38</v>
+      </c>
+      <c r="V294">
+        <v>3.5</v>
+      </c>
+      <c r="W294">
+        <v>1.29</v>
+      </c>
+      <c r="X294">
+        <v>11</v>
+      </c>
+      <c r="Y294">
+        <v>1.05</v>
+      </c>
+      <c r="Z294">
+        <v>2.53</v>
+      </c>
+      <c r="AA294">
+        <v>2.61</v>
+      </c>
+      <c r="AB294">
+        <v>3.9</v>
+      </c>
+      <c r="AC294">
+        <v>1.08</v>
+      </c>
+      <c r="AD294">
+        <v>6.5</v>
+      </c>
+      <c r="AE294">
         <v>1.4</v>
       </c>
-      <c r="U294">
-        <v>2.75</v>
-      </c>
-      <c r="V294">
-        <v>3</v>
-      </c>
-      <c r="W294">
+      <c r="AF294">
+        <v>2.7</v>
+      </c>
+      <c r="AG294">
+        <v>2.1</v>
+      </c>
+      <c r="AH294">
+        <v>1.61</v>
+      </c>
+      <c r="AI294">
+        <v>1.91</v>
+      </c>
+      <c r="AJ294">
+        <v>1.91</v>
+      </c>
+      <c r="AK294">
+        <v>1.29</v>
+      </c>
+      <c r="AL294">
         <v>1.36</v>
       </c>
-      <c r="X294">
-        <v>8</v>
-      </c>
-      <c r="Y294">
-        <v>1.08</v>
-      </c>
-      <c r="Z294">
-        <v>4.3</v>
-      </c>
-      <c r="AA294">
-        <v>3.47</v>
-      </c>
-      <c r="AB294">
-        <v>1.95</v>
-      </c>
-      <c r="AC294">
-        <v>1.03</v>
-      </c>
-      <c r="AD294">
-        <v>9</v>
-      </c>
-      <c r="AE294">
-        <v>1.3</v>
-      </c>
-      <c r="AF294">
-        <v>3.2</v>
-      </c>
-      <c r="AG294">
-        <v>1.92</v>
-      </c>
-      <c r="AH294">
-        <v>1.83</v>
-      </c>
-      <c r="AI294">
-        <v>1.8</v>
-      </c>
-      <c r="AJ294">
-        <v>1.95</v>
-      </c>
-      <c r="AK294">
-        <v>1.88</v>
-      </c>
-      <c r="AL294">
-        <v>1.29</v>
-      </c>
       <c r="AM294">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="AN294">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AO294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP294">
-        <v>0.8100000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="AQ294">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AR294">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS294">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT294">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU294">
         <v>5</v>
       </c>
       <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
         <v>9</v>
-      </c>
-      <c r="AW294">
-        <v>7</v>
       </c>
       <c r="AX294">
         <v>10</v>
       </c>
       <c r="AY294">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ294">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA294">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB294">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BC294">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD294">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="BE294">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF294">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="BG294">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="BH294">
-        <v>2.71</v>
+        <v>3.14</v>
       </c>
       <c r="BI294">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="BJ294">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="BK294">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="BL294">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="BM294">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="BN294">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="BO294">
-        <v>4.1</v>
+        <v>3.34</v>
       </c>
       <c r="BP294">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="295" spans="1:68">
@@ -62186,7 +62186,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>7509881</v>
+        <v>7509880</v>
       </c>
       <c r="C295" t="s">
         <v>68</v>
@@ -62201,190 +62201,190 @@
         <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H295" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295">
         <v>1</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N295">
         <v>3</v>
       </c>
       <c r="O295" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>221</v>
+        <v>395</v>
       </c>
       <c r="Q295">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S295">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T295">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U295">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V295">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W295">
+        <v>1.36</v>
+      </c>
+      <c r="X295">
+        <v>8</v>
+      </c>
+      <c r="Y295">
+        <v>1.08</v>
+      </c>
+      <c r="Z295">
+        <v>4.3</v>
+      </c>
+      <c r="AA295">
+        <v>3.47</v>
+      </c>
+      <c r="AB295">
+        <v>1.95</v>
+      </c>
+      <c r="AC295">
+        <v>1.03</v>
+      </c>
+      <c r="AD295">
+        <v>9</v>
+      </c>
+      <c r="AE295">
+        <v>1.3</v>
+      </c>
+      <c r="AF295">
+        <v>3.2</v>
+      </c>
+      <c r="AG295">
+        <v>1.92</v>
+      </c>
+      <c r="AH295">
+        <v>1.83</v>
+      </c>
+      <c r="AI295">
+        <v>1.8</v>
+      </c>
+      <c r="AJ295">
+        <v>1.95</v>
+      </c>
+      <c r="AK295">
+        <v>1.88</v>
+      </c>
+      <c r="AL295">
         <v>1.29</v>
       </c>
-      <c r="X295">
-        <v>11</v>
-      </c>
-      <c r="Y295">
-        <v>1.05</v>
-      </c>
-      <c r="Z295">
-        <v>2.53</v>
-      </c>
-      <c r="AA295">
-        <v>2.61</v>
-      </c>
-      <c r="AB295">
-        <v>3.9</v>
-      </c>
-      <c r="AC295">
-        <v>1.08</v>
-      </c>
-      <c r="AD295">
-        <v>6.5</v>
-      </c>
-      <c r="AE295">
-        <v>1.4</v>
-      </c>
-      <c r="AF295">
-        <v>2.7</v>
-      </c>
-      <c r="AG295">
-        <v>2.1</v>
-      </c>
-      <c r="AH295">
-        <v>1.61</v>
-      </c>
-      <c r="AI295">
-        <v>1.91</v>
-      </c>
-      <c r="AJ295">
-        <v>1.91</v>
-      </c>
-      <c r="AK295">
-        <v>1.29</v>
-      </c>
-      <c r="AL295">
-        <v>1.36</v>
-      </c>
       <c r="AM295">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="AN295">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AO295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP295">
-        <v>1.18</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ295">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="AR295">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AS295">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT295">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU295">
         <v>5</v>
       </c>
       <c r="AV295">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW295">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX295">
         <v>10</v>
       </c>
       <c r="AY295">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ295">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA295">
+        <v>3</v>
+      </c>
+      <c r="BB295">
         <v>5</v>
       </c>
-      <c r="BB295">
-        <v>11</v>
-      </c>
       <c r="BC295">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD295">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="BE295">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF295">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="BG295">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="BH295">
-        <v>3.14</v>
+        <v>2.71</v>
       </c>
       <c r="BI295">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="BJ295">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="BK295">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="BL295">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="BM295">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="BN295">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="BO295">
-        <v>3.34</v>
+        <v>4.1</v>
       </c>
       <c r="BP295">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="296" spans="1:68">
@@ -62392,7 +62392,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>7509882</v>
+        <v>7509879</v>
       </c>
       <c r="C296" t="s">
         <v>68</v>
@@ -62407,160 +62407,160 @@
         <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H296" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
       <c r="K296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O296" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="P296" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="Q296">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R296">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S296">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T296">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U296">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V296">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W296">
+        <v>1.29</v>
+      </c>
+      <c r="X296">
+        <v>11</v>
+      </c>
+      <c r="Y296">
+        <v>1.05</v>
+      </c>
+      <c r="Z296">
+        <v>3.72</v>
+      </c>
+      <c r="AA296">
+        <v>3.13</v>
+      </c>
+      <c r="AB296">
+        <v>2.24</v>
+      </c>
+      <c r="AC296">
+        <v>1.07</v>
+      </c>
+      <c r="AD296">
+        <v>7</v>
+      </c>
+      <c r="AE296">
+        <v>1.42</v>
+      </c>
+      <c r="AF296">
+        <v>2.62</v>
+      </c>
+      <c r="AG296">
+        <v>2.05</v>
+      </c>
+      <c r="AH296">
+        <v>1.61</v>
+      </c>
+      <c r="AI296">
+        <v>1.95</v>
+      </c>
+      <c r="AJ296">
+        <v>1.8</v>
+      </c>
+      <c r="AK296">
+        <v>1.7</v>
+      </c>
+      <c r="AL296">
+        <v>1.4</v>
+      </c>
+      <c r="AM296">
         <v>1.25</v>
       </c>
-      <c r="X296">
-        <v>13</v>
-      </c>
-      <c r="Y296">
-        <v>1.04</v>
-      </c>
-      <c r="Z296">
-        <v>2.7</v>
-      </c>
-      <c r="AA296">
-        <v>2.84</v>
-      </c>
-      <c r="AB296">
-        <v>3.2</v>
-      </c>
-      <c r="AC296">
-        <v>1.09</v>
-      </c>
-      <c r="AD296">
-        <v>6</v>
-      </c>
-      <c r="AE296">
-        <v>1.48</v>
-      </c>
-      <c r="AF296">
-        <v>2.37</v>
-      </c>
-      <c r="AG296">
-        <v>2.5</v>
-      </c>
-      <c r="AH296">
+      <c r="AN296">
+        <v>1.86</v>
+      </c>
+      <c r="AO296">
+        <v>1.53</v>
+      </c>
+      <c r="AP296">
+        <v>1.65</v>
+      </c>
+      <c r="AQ296">
         <v>1.47</v>
       </c>
-      <c r="AI296">
-        <v>2.05</v>
-      </c>
-      <c r="AJ296">
-        <v>1.7</v>
-      </c>
-      <c r="AK296">
-        <v>1.36</v>
-      </c>
-      <c r="AL296">
-        <v>1.38</v>
-      </c>
-      <c r="AM296">
-        <v>1.5</v>
-      </c>
-      <c r="AN296">
-        <v>1.71</v>
-      </c>
-      <c r="AO296">
-        <v>0.87</v>
-      </c>
-      <c r="AP296">
-        <v>1.88</v>
-      </c>
-      <c r="AQ296">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AR296">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS296">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="AT296">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="AU296">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV296">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW296">
         <v>9</v>
       </c>
       <c r="AX296">
+        <v>12</v>
+      </c>
+      <c r="AY296">
+        <v>18</v>
+      </c>
+      <c r="AZ296">
+        <v>20</v>
+      </c>
+      <c r="BA296">
         <v>8</v>
       </c>
-      <c r="AY296">
-        <v>16</v>
-      </c>
-      <c r="AZ296">
-        <v>12</v>
-      </c>
-      <c r="BA296">
+      <c r="BB296">
         <v>7</v>
       </c>
-      <c r="BB296">
-        <v>5</v>
-      </c>
       <c r="BC296">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD296">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="BE296">
         <v>8</v>
       </c>
       <c r="BF296">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="BG296">
         <v>1.37</v>
@@ -62569,16 +62569,16 @@
         <v>2.75</v>
       </c>
       <c r="BI296">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="BJ296">
         <v>2.05</v>
       </c>
       <c r="BK296">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="BL296">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="BM296">
         <v>2.88</v>
@@ -63834,7 +63834,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>7509889</v>
+        <v>7509894</v>
       </c>
       <c r="C303" t="s">
         <v>68</v>
@@ -63849,19 +63849,19 @@
         <v>31</v>
       </c>
       <c r="G303" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H303" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I303">
         <v>0</v>
       </c>
       <c r="J303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L303">
         <v>0</v>
@@ -63879,13 +63879,13 @@
         <v>398</v>
       </c>
       <c r="Q303">
+        <v>2.88</v>
+      </c>
+      <c r="R303">
+        <v>2</v>
+      </c>
+      <c r="S303">
         <v>4.33</v>
-      </c>
-      <c r="R303">
-        <v>2</v>
-      </c>
-      <c r="S303">
-        <v>2.88</v>
       </c>
       <c r="T303">
         <v>1.5</v>
@@ -63906,13 +63906,13 @@
         <v>1.06</v>
       </c>
       <c r="Z303">
-        <v>3.36</v>
+        <v>2.1</v>
       </c>
       <c r="AA303">
-        <v>3.41</v>
+        <v>3.29</v>
       </c>
       <c r="AB303">
-        <v>2.25</v>
+        <v>3.93</v>
       </c>
       <c r="AC303">
         <v>0</v>
@@ -63921,10 +63921,10 @@
         <v>0</v>
       </c>
       <c r="AE303">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF303">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AG303">
         <v>2.15</v>
@@ -63951,49 +63951,49 @@
         <v>1.2</v>
       </c>
       <c r="AO303">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AP303">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AQ303">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="AR303">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS303">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT303">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV303">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW303">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX303">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AY303">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AZ303">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="BA303">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB303">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC303">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD303">
         <v>0</v>
@@ -64452,7 +64452,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>7509894</v>
+        <v>7509889</v>
       </c>
       <c r="C306" t="s">
         <v>68</v>
@@ -64467,19 +64467,19 @@
         <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H306" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -64497,13 +64497,13 @@
         <v>399</v>
       </c>
       <c r="Q306">
+        <v>4.33</v>
+      </c>
+      <c r="R306">
+        <v>2</v>
+      </c>
+      <c r="S306">
         <v>2.88</v>
-      </c>
-      <c r="R306">
-        <v>2</v>
-      </c>
-      <c r="S306">
-        <v>4.33</v>
       </c>
       <c r="T306">
         <v>1.5</v>
@@ -64524,13 +64524,13 @@
         <v>1.06</v>
       </c>
       <c r="Z306">
-        <v>2.1</v>
+        <v>3.36</v>
       </c>
       <c r="AA306">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="AB306">
-        <v>3.93</v>
+        <v>2.25</v>
       </c>
       <c r="AC306">
         <v>0</v>
@@ -64539,10 +64539,10 @@
         <v>0</v>
       </c>
       <c r="AE306">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF306">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG306">
         <v>2.15</v>
@@ -64569,49 +64569,49 @@
         <v>1.2</v>
       </c>
       <c r="AO306">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AP306">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AQ306">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="AR306">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS306">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT306">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU306">
+        <v>0</v>
+      </c>
+      <c r="AV306">
+        <v>4</v>
+      </c>
+      <c r="AW306">
         <v>3</v>
       </c>
-      <c r="AV306">
-        <v>8</v>
-      </c>
-      <c r="AW306">
+      <c r="AX306">
         <v>9</v>
       </c>
-      <c r="AX306">
+      <c r="AY306">
+        <v>3</v>
+      </c>
+      <c r="AZ306">
         <v>16</v>
       </c>
-      <c r="AY306">
-        <v>16</v>
-      </c>
-      <c r="AZ306">
-        <v>32</v>
-      </c>
       <c r="BA306">
+        <v>0</v>
+      </c>
+      <c r="BB306">
         <v>5</v>
       </c>
-      <c r="BB306">
-        <v>6</v>
-      </c>
       <c r="BC306">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BD306">
         <v>0</v>
@@ -65894,7 +65894,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>7509899</v>
+        <v>7509906</v>
       </c>
       <c r="C313" t="s">
         <v>68</v>
@@ -65909,43 +65909,43 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H313" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313">
         <v>0</v>
       </c>
       <c r="K313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N313">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O313" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="P313" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q313">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R313">
         <v>1.95</v>
       </c>
       <c r="S313">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T313">
         <v>1.53</v>
@@ -65954,10 +65954,10 @@
         <v>2.38</v>
       </c>
       <c r="V313">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W313">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X313">
         <v>11</v>
@@ -65966,133 +65966,133 @@
         <v>1.05</v>
       </c>
       <c r="Z313">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="AA313">
+        <v>2.98</v>
+      </c>
+      <c r="AB313">
         <v>3.03</v>
-      </c>
-      <c r="AB313">
-        <v>2.84</v>
       </c>
       <c r="AC313">
         <v>1.11</v>
       </c>
       <c r="AD313">
-        <v>7.49</v>
+        <v>7.16</v>
       </c>
       <c r="AE313">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AF313">
-        <v>3.14</v>
+        <v>2.45</v>
       </c>
       <c r="AG313">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AH313">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AI313">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AJ313">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK313">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AL313">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AM313">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AN313">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="AO313">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AP313">
-        <v>0.8100000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="AQ313">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR313">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AS313">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AT313">
-        <v>2.57</v>
+        <v>2.79</v>
       </c>
       <c r="AU313">
+        <v>2</v>
+      </c>
+      <c r="AV313">
         <v>3</v>
       </c>
-      <c r="AV313">
-        <v>2</v>
-      </c>
       <c r="AW313">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX313">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY313">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ313">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB313">
         <v>5</v>
       </c>
       <c r="BC313">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD313">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BE313">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="BF313">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BG313">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BH313">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="BI313">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BJ313">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="BK313">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="BL313">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BM313">
-        <v>2.67</v>
+        <v>2.83</v>
       </c>
       <c r="BN313">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="BO313">
-        <v>3.68</v>
+        <v>4.05</v>
       </c>
       <c r="BP313">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="314" spans="1:68">
@@ -66100,7 +66100,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>7509900</v>
+        <v>7509897</v>
       </c>
       <c r="C314" t="s">
         <v>68</v>
@@ -66115,190 +66115,190 @@
         <v>32</v>
       </c>
       <c r="G314" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H314" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I314">
         <v>1</v>
       </c>
       <c r="J314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>2</v>
+      </c>
+      <c r="N314">
         <v>3</v>
       </c>
-      <c r="L314">
-        <v>2</v>
-      </c>
-      <c r="M314">
-        <v>2</v>
-      </c>
-      <c r="N314">
-        <v>4</v>
-      </c>
       <c r="O314" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P314" t="s">
         <v>403</v>
       </c>
       <c r="Q314">
+        <v>2.88</v>
+      </c>
+      <c r="R314">
+        <v>2.1</v>
+      </c>
+      <c r="S314">
+        <v>4</v>
+      </c>
+      <c r="T314">
+        <v>1.44</v>
+      </c>
+      <c r="U314">
         <v>2.63</v>
       </c>
-      <c r="R314">
-        <v>2</v>
-      </c>
-      <c r="S314">
-        <v>5</v>
-      </c>
-      <c r="T314">
-        <v>1.5</v>
-      </c>
-      <c r="U314">
-        <v>2.5</v>
-      </c>
       <c r="V314">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W314">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X314">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y314">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z314">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="AA314">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="AB314">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="AC314">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AD314">
-        <v>7.34</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE314">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AF314">
-        <v>2.76</v>
+        <v>3.86</v>
       </c>
       <c r="AG314">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AH314">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AI314">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AJ314">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AK314">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AL314">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AM314">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="AN314">
+        <v>1.13</v>
+      </c>
+      <c r="AO314">
+        <v>0.63</v>
+      </c>
+      <c r="AP314">
+        <v>1.06</v>
+      </c>
+      <c r="AQ314">
+        <v>0.76</v>
+      </c>
+      <c r="AR314">
+        <v>1.68</v>
+      </c>
+      <c r="AS314">
+        <v>1.28</v>
+      </c>
+      <c r="AT314">
+        <v>2.96</v>
+      </c>
+      <c r="AU314">
+        <v>8</v>
+      </c>
+      <c r="AV314">
+        <v>9</v>
+      </c>
+      <c r="AW314">
+        <v>7</v>
+      </c>
+      <c r="AX314">
+        <v>10</v>
+      </c>
+      <c r="AY314">
+        <v>15</v>
+      </c>
+      <c r="AZ314">
+        <v>20</v>
+      </c>
+      <c r="BA314">
+        <v>1</v>
+      </c>
+      <c r="BB314">
+        <v>3</v>
+      </c>
+      <c r="BC314">
+        <v>4</v>
+      </c>
+      <c r="BD314">
+        <v>1.71</v>
+      </c>
+      <c r="BE314">
+        <v>6.5</v>
+      </c>
+      <c r="BF314">
+        <v>2.82</v>
+      </c>
+      <c r="BG314">
+        <v>1.32</v>
+      </c>
+      <c r="BH314">
+        <v>2.88</v>
+      </c>
+      <c r="BI314">
+        <v>1.67</v>
+      </c>
+      <c r="BJ314">
+        <v>2.14</v>
+      </c>
+      <c r="BK314">
+        <v>2.14</v>
+      </c>
+      <c r="BL314">
+        <v>1.67</v>
+      </c>
+      <c r="BM314">
+        <v>2.52</v>
+      </c>
+      <c r="BN314">
+        <v>1.49</v>
+      </c>
+      <c r="BO314">
+        <v>3.74</v>
+      </c>
+      <c r="BP314">
         <v>1.19</v>
-      </c>
-      <c r="AO314">
-        <v>0.73</v>
-      </c>
-      <c r="AP314">
-        <v>1.18</v>
-      </c>
-      <c r="AQ314">
-        <v>0.75</v>
-      </c>
-      <c r="AR314">
-        <v>1.44</v>
-      </c>
-      <c r="AS314">
-        <v>1.39</v>
-      </c>
-      <c r="AT314">
-        <v>2.83</v>
-      </c>
-      <c r="AU314">
-        <v>6</v>
-      </c>
-      <c r="AV314">
-        <v>4</v>
-      </c>
-      <c r="AW314">
-        <v>9</v>
-      </c>
-      <c r="AX314">
-        <v>3</v>
-      </c>
-      <c r="AY314">
-        <v>21</v>
-      </c>
-      <c r="AZ314">
-        <v>7</v>
-      </c>
-      <c r="BA314">
-        <v>6</v>
-      </c>
-      <c r="BB314">
-        <v>0</v>
-      </c>
-      <c r="BC314">
-        <v>6</v>
-      </c>
-      <c r="BD314">
-        <v>1.61</v>
-      </c>
-      <c r="BE314">
-        <v>6.75</v>
-      </c>
-      <c r="BF314">
-        <v>3.08</v>
-      </c>
-      <c r="BG314">
-        <v>1.24</v>
-      </c>
-      <c r="BH314">
-        <v>3.34</v>
-      </c>
-      <c r="BI314">
-        <v>1.52</v>
-      </c>
-      <c r="BJ314">
-        <v>2.4</v>
-      </c>
-      <c r="BK314">
-        <v>1.91</v>
-      </c>
-      <c r="BL314">
-        <v>1.89</v>
-      </c>
-      <c r="BM314">
-        <v>2.38</v>
-      </c>
-      <c r="BN314">
-        <v>1.53</v>
-      </c>
-      <c r="BO314">
-        <v>3.14</v>
-      </c>
-      <c r="BP314">
-        <v>1.27</v>
       </c>
     </row>
     <row r="315" spans="1:68">
@@ -66306,7 +66306,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>7509906</v>
+        <v>7509899</v>
       </c>
       <c r="C315" t="s">
         <v>68</v>
@@ -66321,43 +66321,43 @@
         <v>32</v>
       </c>
       <c r="G315" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H315" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315">
         <v>0</v>
       </c>
       <c r="K315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O315" t="s">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="P315" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q315">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R315">
         <v>1.95</v>
       </c>
       <c r="S315">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T315">
         <v>1.53</v>
@@ -66366,10 +66366,10 @@
         <v>2.38</v>
       </c>
       <c r="V315">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W315">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X315">
         <v>11</v>
@@ -66378,133 +66378,133 @@
         <v>1.05</v>
       </c>
       <c r="Z315">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="AA315">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AB315">
-        <v>3.03</v>
+        <v>2.84</v>
       </c>
       <c r="AC315">
         <v>1.11</v>
       </c>
       <c r="AD315">
-        <v>7.16</v>
+        <v>7.49</v>
       </c>
       <c r="AE315">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AF315">
-        <v>2.45</v>
+        <v>3.14</v>
       </c>
       <c r="AG315">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AH315">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AI315">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AJ315">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AK315">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AL315">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AM315">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AN315">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="AO315">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AP315">
-        <v>1.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ315">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR315">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AS315">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AT315">
-        <v>2.79</v>
+        <v>2.57</v>
       </c>
       <c r="AU315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV315">
+        <v>2</v>
+      </c>
+      <c r="AW315">
+        <v>6</v>
+      </c>
+      <c r="AX315">
+        <v>6</v>
+      </c>
+      <c r="AY315">
+        <v>10</v>
+      </c>
+      <c r="AZ315">
+        <v>9</v>
+      </c>
+      <c r="BA315">
         <v>3</v>
-      </c>
-      <c r="AW315">
-        <v>3</v>
-      </c>
-      <c r="AX315">
-        <v>2</v>
-      </c>
-      <c r="AY315">
-        <v>7</v>
-      </c>
-      <c r="AZ315">
-        <v>8</v>
-      </c>
-      <c r="BA315">
-        <v>2</v>
       </c>
       <c r="BB315">
         <v>5</v>
       </c>
       <c r="BC315">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD315">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="BE315">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="BF315">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BG315">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="BH315">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="BI315">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BJ315">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="BK315">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="BL315">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="BM315">
-        <v>2.83</v>
+        <v>2.67</v>
       </c>
       <c r="BN315">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="BO315">
-        <v>4.05</v>
+        <v>3.68</v>
       </c>
       <c r="BP315">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="316" spans="1:68">
@@ -66512,7 +66512,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>7509897</v>
+        <v>7509900</v>
       </c>
       <c r="C316" t="s">
         <v>68</v>
@@ -66527,28 +66527,28 @@
         <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H316" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I316">
         <v>1</v>
       </c>
       <c r="J316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M316">
         <v>2</v>
       </c>
       <c r="N316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O316" t="s">
         <v>276</v>
@@ -66557,160 +66557,160 @@
         <v>404</v>
       </c>
       <c r="Q316">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="R316">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S316">
+        <v>5</v>
+      </c>
+      <c r="T316">
+        <v>1.5</v>
+      </c>
+      <c r="U316">
+        <v>2.5</v>
+      </c>
+      <c r="V316">
+        <v>3.5</v>
+      </c>
+      <c r="W316">
+        <v>1.29</v>
+      </c>
+      <c r="X316">
+        <v>11</v>
+      </c>
+      <c r="Y316">
+        <v>1.05</v>
+      </c>
+      <c r="Z316">
+        <v>2.02</v>
+      </c>
+      <c r="AA316">
+        <v>3.31</v>
+      </c>
+      <c r="AB316">
+        <v>4.2</v>
+      </c>
+      <c r="AC316">
+        <v>1.11</v>
+      </c>
+      <c r="AD316">
+        <v>7.34</v>
+      </c>
+      <c r="AE316">
+        <v>1.48</v>
+      </c>
+      <c r="AF316">
+        <v>2.76</v>
+      </c>
+      <c r="AG316">
+        <v>2.2</v>
+      </c>
+      <c r="AH316">
+        <v>1.55</v>
+      </c>
+      <c r="AI316">
+        <v>2.05</v>
+      </c>
+      <c r="AJ316">
+        <v>1.7</v>
+      </c>
+      <c r="AK316">
+        <v>1.21</v>
+      </c>
+      <c r="AL316">
+        <v>1.34</v>
+      </c>
+      <c r="AM316">
+        <v>2.03</v>
+      </c>
+      <c r="AN316">
+        <v>1.19</v>
+      </c>
+      <c r="AO316">
+        <v>0.73</v>
+      </c>
+      <c r="AP316">
+        <v>1.18</v>
+      </c>
+      <c r="AQ316">
+        <v>0.75</v>
+      </c>
+      <c r="AR316">
+        <v>1.44</v>
+      </c>
+      <c r="AS316">
+        <v>1.39</v>
+      </c>
+      <c r="AT316">
+        <v>2.83</v>
+      </c>
+      <c r="AU316">
+        <v>6</v>
+      </c>
+      <c r="AV316">
         <v>4</v>
       </c>
-      <c r="T316">
-        <v>1.44</v>
-      </c>
-      <c r="U316">
-        <v>2.63</v>
-      </c>
-      <c r="V316">
-        <v>3.25</v>
-      </c>
-      <c r="W316">
-        <v>1.33</v>
-      </c>
-      <c r="X316">
+      <c r="AW316">
         <v>9</v>
       </c>
-      <c r="Y316">
-        <v>1.07</v>
-      </c>
-      <c r="Z316">
-        <v>2.18</v>
-      </c>
-      <c r="AA316">
-        <v>3.38</v>
-      </c>
-      <c r="AB316">
-        <v>3.58</v>
-      </c>
-      <c r="AC316">
-        <v>1</v>
-      </c>
-      <c r="AD316">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AE316">
-        <v>1.28</v>
-      </c>
-      <c r="AF316">
-        <v>3.86</v>
-      </c>
-      <c r="AG316">
-        <v>1.95</v>
-      </c>
-      <c r="AH316">
-        <v>1.7</v>
-      </c>
-      <c r="AI316">
-        <v>1.8</v>
-      </c>
-      <c r="AJ316">
-        <v>1.95</v>
-      </c>
-      <c r="AK316">
-        <v>1.31</v>
-      </c>
-      <c r="AL316">
-        <v>1.36</v>
-      </c>
-      <c r="AM316">
-        <v>1.74</v>
-      </c>
-      <c r="AN316">
-        <v>1.13</v>
-      </c>
-      <c r="AO316">
-        <v>0.63</v>
-      </c>
-      <c r="AP316">
-        <v>1.06</v>
-      </c>
-      <c r="AQ316">
-        <v>0.76</v>
-      </c>
-      <c r="AR316">
-        <v>1.68</v>
-      </c>
-      <c r="AS316">
-        <v>1.28</v>
-      </c>
-      <c r="AT316">
-        <v>2.96</v>
-      </c>
-      <c r="AU316">
-        <v>8</v>
-      </c>
-      <c r="AV316">
-        <v>9</v>
-      </c>
-      <c r="AW316">
+      <c r="AX316">
+        <v>3</v>
+      </c>
+      <c r="AY316">
+        <v>21</v>
+      </c>
+      <c r="AZ316">
         <v>7</v>
       </c>
-      <c r="AX316">
-        <v>10</v>
-      </c>
-      <c r="AY316">
-        <v>15</v>
-      </c>
-      <c r="AZ316">
-        <v>20</v>
-      </c>
       <c r="BA316">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB316">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC316">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD316">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="BE316">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF316">
-        <v>2.82</v>
+        <v>3.08</v>
       </c>
       <c r="BG316">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="BH316">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="BI316">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="BJ316">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BK316">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="BL316">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="BM316">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="BN316">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BO316">
-        <v>3.74</v>
+        <v>3.14</v>
       </c>
       <c r="BP316">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="317" spans="1:68">
@@ -67954,7 +67954,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>7509908</v>
+        <v>7509915</v>
       </c>
       <c r="C323" t="s">
         <v>68</v>
@@ -67969,55 +67969,55 @@
         <v>33</v>
       </c>
       <c r="G323" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H323" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323">
         <v>0</v>
       </c>
       <c r="K323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L323">
         <v>2</v>
       </c>
       <c r="M323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N323">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O323" t="s">
         <v>281</v>
       </c>
       <c r="P323" t="s">
-        <v>408</v>
+        <v>165</v>
       </c>
       <c r="Q323">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R323">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S323">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="T323">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U323">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V323">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W323">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X323">
         <v>10</v>
@@ -68026,25 +68026,25 @@
         <v>1.06</v>
       </c>
       <c r="Z323">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AA323">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AB323">
-        <v>3.17</v>
+        <v>3.87</v>
       </c>
       <c r="AC323">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD323">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE323">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AF323">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AG323">
         <v>2.15</v>
@@ -68053,106 +68053,106 @@
         <v>1.57</v>
       </c>
       <c r="AI323">
+        <v>1.95</v>
+      </c>
+      <c r="AJ323">
         <v>1.8</v>
       </c>
-      <c r="AJ323">
-        <v>1.95</v>
-      </c>
       <c r="AK323">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AL323">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AM323">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AN323">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO323">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AP323">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AQ323">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AR323">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AS323">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AT323">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="AU323">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV323">
         <v>5</v>
       </c>
       <c r="AW323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY323">
         <v>14</v>
       </c>
       <c r="AZ323">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA323">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BB323">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC323">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD323">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="BE323">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="BF323">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="BG323">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BH323">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BI323">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="BJ323">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="BK323">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="BL323">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BM323">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BN323">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BO323">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BP323">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="324" spans="1:68">
@@ -68160,7 +68160,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>7509910</v>
+        <v>7509908</v>
       </c>
       <c r="C324" t="s">
         <v>68</v>
@@ -68175,55 +68175,55 @@
         <v>33</v>
       </c>
       <c r="G324" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H324" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324">
         <v>1</v>
       </c>
       <c r="L324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N324">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O324" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="P324" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="Q324">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R324">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S324">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T324">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U324">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V324">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W324">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X324">
         <v>10</v>
@@ -68232,13 +68232,13 @@
         <v>1.06</v>
       </c>
       <c r="Z324">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="AA324">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AB324">
-        <v>2.89</v>
+        <v>3.17</v>
       </c>
       <c r="AC324">
         <v>1.07</v>
@@ -68247,118 +68247,118 @@
         <v>8</v>
       </c>
       <c r="AE324">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF324">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG324">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH324">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AI324">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ324">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK324">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AL324">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AM324">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AN324">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO324">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AP324">
-        <v>1.12</v>
+        <v>1.71</v>
       </c>
       <c r="AQ324">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AR324">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AS324">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AT324">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="AU324">
         <v>5</v>
       </c>
       <c r="AV324">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW324">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX324">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY324">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AZ324">
         <v>11</v>
       </c>
       <c r="BA324">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB324">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC324">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD324">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="BE324">
-        <v>6.75</v>
+        <v>6.1</v>
       </c>
       <c r="BF324">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BG324">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="BH324">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BI324">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="BJ324">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="BK324">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="BL324">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="BM324">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="BN324">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="BO324">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP324">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="325" spans="1:68">
@@ -68366,7 +68366,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>7509915</v>
+        <v>7509910</v>
       </c>
       <c r="C325" t="s">
         <v>68</v>
@@ -68381,43 +68381,43 @@
         <v>33</v>
       </c>
       <c r="G325" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H325" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I325">
         <v>0</v>
       </c>
       <c r="J325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M325">
         <v>1</v>
       </c>
       <c r="N325">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O325" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="P325" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="Q325">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R325">
         <v>2</v>
       </c>
       <c r="S325">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T325">
         <v>1.5</v>
@@ -68438,133 +68438,133 @@
         <v>1.06</v>
       </c>
       <c r="Z325">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="AA325">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="AB325">
-        <v>3.87</v>
+        <v>2.89</v>
       </c>
       <c r="AC325">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD325">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE325">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AF325">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AG325">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH325">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AI325">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ325">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK325">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AL325">
         <v>1.34</v>
       </c>
       <c r="AM325">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AN325">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AO325">
         <v>1.06</v>
       </c>
       <c r="AP325">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AQ325">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AR325">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="AS325">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT325">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="AU325">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV325">
+        <v>0</v>
+      </c>
+      <c r="AW325">
+        <v>9</v>
+      </c>
+      <c r="AX325">
         <v>5</v>
       </c>
-      <c r="AW325">
-        <v>5</v>
-      </c>
-      <c r="AX325">
-        <v>1</v>
-      </c>
       <c r="AY325">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ325">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA325">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB325">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC325">
         <v>14</v>
       </c>
       <c r="BD325">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BE325">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF325">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="BG325">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="BH325">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="BI325">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="BJ325">
-        <v>1.79</v>
+        <v>2.45</v>
       </c>
       <c r="BK325">
-        <v>2.43</v>
+        <v>1.77</v>
       </c>
       <c r="BL325">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="BM325">
-        <v>3.2</v>
+        <v>2.18</v>
       </c>
       <c r="BN325">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="BO325">
-        <v>4.35</v>
+        <v>2.8</v>
       </c>
       <c r="BP325">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="326" spans="1:68">
@@ -69190,7 +69190,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>7509909</v>
+        <v>7509911</v>
       </c>
       <c r="C329" t="s">
         <v>68</v>
@@ -69205,19 +69205,19 @@
         <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H329" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329">
         <v>0</v>
       </c>
       <c r="K329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L329">
         <v>1</v>
@@ -69229,166 +69229,166 @@
         <v>2</v>
       </c>
       <c r="O329" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="Q329">
+        <v>2.38</v>
+      </c>
+      <c r="R329">
+        <v>2.2</v>
+      </c>
+      <c r="S329">
+        <v>5</v>
+      </c>
+      <c r="T329">
+        <v>1.4</v>
+      </c>
+      <c r="U329">
+        <v>2.75</v>
+      </c>
+      <c r="V329">
         <v>3</v>
       </c>
-      <c r="R329">
+      <c r="W329">
+        <v>1.36</v>
+      </c>
+      <c r="X329">
+        <v>8</v>
+      </c>
+      <c r="Y329">
+        <v>1.08</v>
+      </c>
+      <c r="Z329">
+        <v>1.7</v>
+      </c>
+      <c r="AA329">
+        <v>3.91</v>
+      </c>
+      <c r="AB329">
+        <v>5.2</v>
+      </c>
+      <c r="AC329">
+        <v>1.05</v>
+      </c>
+      <c r="AD329">
+        <v>9</v>
+      </c>
+      <c r="AE329">
+        <v>1.33</v>
+      </c>
+      <c r="AF329">
+        <v>3.3</v>
+      </c>
+      <c r="AG329">
+        <v>1.98</v>
+      </c>
+      <c r="AH329">
+        <v>1.83</v>
+      </c>
+      <c r="AI329">
         <v>1.95</v>
       </c>
-      <c r="S329">
-        <v>4.33</v>
-      </c>
-      <c r="T329">
-        <v>1.53</v>
-      </c>
-      <c r="U329">
-        <v>2.38</v>
-      </c>
-      <c r="V329">
-        <v>3.75</v>
-      </c>
-      <c r="W329">
-        <v>1.25</v>
-      </c>
-      <c r="X329">
-        <v>11</v>
-      </c>
-      <c r="Y329">
-        <v>1.05</v>
-      </c>
-      <c r="Z329">
-        <v>2.24</v>
-      </c>
-      <c r="AA329">
-        <v>3.17</v>
-      </c>
-      <c r="AB329">
-        <v>3.66</v>
-      </c>
-      <c r="AC329">
-        <v>1.1</v>
-      </c>
-      <c r="AD329">
-        <v>6.5</v>
-      </c>
-      <c r="AE329">
-        <v>1.48</v>
-      </c>
-      <c r="AF329">
-        <v>2.65</v>
-      </c>
-      <c r="AG329">
-        <v>2.3</v>
-      </c>
-      <c r="AH329">
+      <c r="AJ329">
+        <v>1.8</v>
+      </c>
+      <c r="AK329">
+        <v>1.18</v>
+      </c>
+      <c r="AL329">
+        <v>1.26</v>
+      </c>
+      <c r="AM329">
+        <v>2.1</v>
+      </c>
+      <c r="AN329">
         <v>1.5</v>
       </c>
-      <c r="AI329">
-        <v>2.05</v>
-      </c>
-      <c r="AJ329">
-        <v>1.7</v>
-      </c>
-      <c r="AK329">
-        <v>1.28</v>
-      </c>
-      <c r="AL329">
-        <v>1.35</v>
-      </c>
-      <c r="AM329">
-        <v>1.65</v>
-      </c>
-      <c r="AN329">
-        <v>1.69</v>
-      </c>
       <c r="AO329">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AP329">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AQ329">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AR329">
-        <v>1.41</v>
+        <v>1.87</v>
       </c>
       <c r="AS329">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT329">
-        <v>2.72</v>
+        <v>2.99</v>
       </c>
       <c r="AU329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW329">
+        <v>10</v>
+      </c>
+      <c r="AX329">
+        <v>1</v>
+      </c>
+      <c r="AY329">
+        <v>17</v>
+      </c>
+      <c r="AZ329">
+        <v>5</v>
+      </c>
+      <c r="BA329">
         <v>7</v>
       </c>
-      <c r="AX329">
-        <v>8</v>
-      </c>
-      <c r="AY329">
+      <c r="BB329">
+        <v>3</v>
+      </c>
+      <c r="BC329">
         <v>10</v>
       </c>
-      <c r="AZ329">
-        <v>11</v>
-      </c>
-      <c r="BA329">
-        <v>6</v>
-      </c>
-      <c r="BB329">
-        <v>5</v>
-      </c>
-      <c r="BC329">
-        <v>11</v>
-      </c>
       <c r="BD329">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="BE329">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF329">
-        <v>2.33</v>
+        <v>3.15</v>
       </c>
       <c r="BG329">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="BH329">
+        <v>2.95</v>
+      </c>
+      <c r="BI329">
+        <v>1.56</v>
+      </c>
+      <c r="BJ329">
         <v>2.23</v>
       </c>
-      <c r="BI329">
-        <v>1.97</v>
-      </c>
-      <c r="BJ329">
-        <v>1.74</v>
-      </c>
       <c r="BK329">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="BL329">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="BM329">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="BN329">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="BO329">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="BP329">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="330" spans="1:68">
@@ -69396,7 +69396,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>7509911</v>
+        <v>7509909</v>
       </c>
       <c r="C330" t="s">
         <v>68</v>
@@ -69411,19 +69411,19 @@
         <v>33</v>
       </c>
       <c r="G330" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H330" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330">
         <v>0</v>
       </c>
       <c r="K330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L330">
         <v>1</v>
@@ -69435,166 +69435,166 @@
         <v>2</v>
       </c>
       <c r="O330" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="P330" t="s">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="Q330">
+        <v>3</v>
+      </c>
+      <c r="R330">
+        <v>1.95</v>
+      </c>
+      <c r="S330">
+        <v>4.33</v>
+      </c>
+      <c r="T330">
+        <v>1.53</v>
+      </c>
+      <c r="U330">
         <v>2.38</v>
       </c>
-      <c r="R330">
-        <v>2.2</v>
-      </c>
-      <c r="S330">
+      <c r="V330">
+        <v>3.75</v>
+      </c>
+      <c r="W330">
+        <v>1.25</v>
+      </c>
+      <c r="X330">
+        <v>11</v>
+      </c>
+      <c r="Y330">
+        <v>1.05</v>
+      </c>
+      <c r="Z330">
+        <v>2.24</v>
+      </c>
+      <c r="AA330">
+        <v>3.17</v>
+      </c>
+      <c r="AB330">
+        <v>3.66</v>
+      </c>
+      <c r="AC330">
+        <v>1.1</v>
+      </c>
+      <c r="AD330">
+        <v>6.5</v>
+      </c>
+      <c r="AE330">
+        <v>1.48</v>
+      </c>
+      <c r="AF330">
+        <v>2.65</v>
+      </c>
+      <c r="AG330">
+        <v>2.3</v>
+      </c>
+      <c r="AH330">
+        <v>1.5</v>
+      </c>
+      <c r="AI330">
+        <v>2.05</v>
+      </c>
+      <c r="AJ330">
+        <v>1.7</v>
+      </c>
+      <c r="AK330">
+        <v>1.28</v>
+      </c>
+      <c r="AL330">
+        <v>1.35</v>
+      </c>
+      <c r="AM330">
+        <v>1.65</v>
+      </c>
+      <c r="AN330">
+        <v>1.69</v>
+      </c>
+      <c r="AO330">
+        <v>1.13</v>
+      </c>
+      <c r="AP330">
+        <v>1.65</v>
+      </c>
+      <c r="AQ330">
+        <v>1.13</v>
+      </c>
+      <c r="AR330">
+        <v>1.41</v>
+      </c>
+      <c r="AS330">
+        <v>1.31</v>
+      </c>
+      <c r="AT330">
+        <v>2.72</v>
+      </c>
+      <c r="AU330">
+        <v>2</v>
+      </c>
+      <c r="AV330">
+        <v>2</v>
+      </c>
+      <c r="AW330">
+        <v>7</v>
+      </c>
+      <c r="AX330">
+        <v>8</v>
+      </c>
+      <c r="AY330">
+        <v>10</v>
+      </c>
+      <c r="AZ330">
+        <v>11</v>
+      </c>
+      <c r="BA330">
+        <v>6</v>
+      </c>
+      <c r="BB330">
         <v>5</v>
       </c>
-      <c r="T330">
-        <v>1.4</v>
-      </c>
-      <c r="U330">
-        <v>2.75</v>
-      </c>
-      <c r="V330">
-        <v>3</v>
-      </c>
-      <c r="W330">
-        <v>1.36</v>
-      </c>
-      <c r="X330">
-        <v>8</v>
-      </c>
-      <c r="Y330">
-        <v>1.08</v>
-      </c>
-      <c r="Z330">
-        <v>1.7</v>
-      </c>
-      <c r="AA330">
-        <v>3.91</v>
-      </c>
-      <c r="AB330">
-        <v>5.2</v>
-      </c>
-      <c r="AC330">
-        <v>1.05</v>
-      </c>
-      <c r="AD330">
-        <v>9</v>
-      </c>
-      <c r="AE330">
-        <v>1.33</v>
-      </c>
-      <c r="AF330">
-        <v>3.3</v>
-      </c>
-      <c r="AG330">
-        <v>1.98</v>
-      </c>
-      <c r="AH330">
-        <v>1.83</v>
-      </c>
-      <c r="AI330">
-        <v>1.95</v>
-      </c>
-      <c r="AJ330">
-        <v>1.8</v>
-      </c>
-      <c r="AK330">
-        <v>1.18</v>
-      </c>
-      <c r="AL330">
-        <v>1.26</v>
-      </c>
-      <c r="AM330">
-        <v>2.1</v>
-      </c>
-      <c r="AN330">
-        <v>1.5</v>
-      </c>
-      <c r="AO330">
-        <v>1.19</v>
-      </c>
-      <c r="AP330">
-        <v>1.47</v>
-      </c>
-      <c r="AQ330">
-        <v>1.18</v>
-      </c>
-      <c r="AR330">
-        <v>1.87</v>
-      </c>
-      <c r="AS330">
-        <v>1.12</v>
-      </c>
-      <c r="AT330">
-        <v>2.99</v>
-      </c>
-      <c r="AU330">
-        <v>4</v>
-      </c>
-      <c r="AV330">
-        <v>3</v>
-      </c>
-      <c r="AW330">
-        <v>10</v>
-      </c>
-      <c r="AX330">
-        <v>1</v>
-      </c>
-      <c r="AY330">
-        <v>17</v>
-      </c>
-      <c r="AZ330">
-        <v>5</v>
-      </c>
-      <c r="BA330">
-        <v>7</v>
-      </c>
-      <c r="BB330">
-        <v>3</v>
-      </c>
       <c r="BC330">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD330">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="BE330">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF330">
-        <v>3.15</v>
+        <v>2.33</v>
       </c>
       <c r="BG330">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="BH330">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="BI330">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="BJ330">
-        <v>2.23</v>
+        <v>1.74</v>
       </c>
       <c r="BK330">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="BL330">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="BM330">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="BN330">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="BO330">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="BP330">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="331" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -71209,31 +71209,31 @@
         <v>3.18</v>
       </c>
       <c r="AU338">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV338">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW338">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX338">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY338">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ338">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA338">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB338">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC338">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD338">
         <v>0</v>
@@ -71415,31 +71415,31 @@
         <v>2.87</v>
       </c>
       <c r="AU339">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV339">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW339">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX339">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY339">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ339">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA339">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB339">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC339">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD339">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="424">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,9 @@
     <t>['25', '47', '53', '73']</t>
   </si>
   <si>
+    <t>['18', '78']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -1281,6 +1284,9 @@
   <si>
     <t>['24', '57']</t>
   </si>
+  <si>
+    <t>['9', '26', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1641,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP339"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1981,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2106,7 +2112,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2187,7 +2193,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2390,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ4">
         <v>1.06</v>
@@ -2518,7 +2524,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2930,7 +2936,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3342,7 +3348,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3548,7 +3554,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3626,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ10">
         <v>2.06</v>
@@ -3960,7 +3966,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4166,7 +4172,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -4244,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -4372,7 +4378,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4990,7 +4996,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5277,7 +5283,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -5608,7 +5614,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5892,10 +5898,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ21">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -6020,7 +6026,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6432,7 +6438,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -7050,7 +7056,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7131,7 +7137,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>1.54</v>
@@ -8286,7 +8292,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8698,7 +8704,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8904,7 +8910,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ36">
         <v>1.06</v>
@@ -9191,7 +9197,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -9728,7 +9734,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9934,7 +9940,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10012,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
         <v>0.5600000000000001</v>
@@ -10140,7 +10146,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10964,7 +10970,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -11045,7 +11051,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR46">
         <v>0.96</v>
@@ -11376,7 +11382,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11582,7 +11588,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11994,7 +12000,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12200,7 +12206,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12278,7 +12284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -13517,7 +13523,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.74</v>
@@ -13642,7 +13648,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14054,7 +14060,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14260,7 +14266,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -15084,7 +15090,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15496,7 +15502,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15908,7 +15914,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15986,10 +15992,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -16114,7 +16120,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16320,7 +16326,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16401,7 +16407,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>0.97</v>
@@ -16732,7 +16738,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -17144,7 +17150,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -17350,7 +17356,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17556,7 +17562,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17968,7 +17974,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18046,7 +18052,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ80">
         <v>1.06</v>
@@ -18586,7 +18592,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18664,7 +18670,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ83">
         <v>1.72</v>
@@ -18792,7 +18798,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19204,7 +19210,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19285,7 +19291,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19410,7 +19416,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19616,7 +19622,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -20234,7 +20240,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20933,7 +20939,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ94">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -21960,7 +21966,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -22912,7 +22918,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -23118,7 +23124,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23814,7 +23820,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -24229,7 +24235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24766,7 +24772,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25053,7 +25059,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ114">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -25256,7 +25262,7 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -25796,7 +25802,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -26620,7 +26626,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26701,7 +26707,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ122">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26904,7 +26910,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ123">
         <v>2.06</v>
@@ -27444,7 +27450,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27856,7 +27862,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -28062,7 +28068,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -28268,7 +28274,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28474,7 +28480,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28680,7 +28686,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29504,7 +29510,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29582,7 +29588,7 @@
         <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ136">
         <v>0.72</v>
@@ -29916,7 +29922,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30534,7 +30540,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30740,7 +30746,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30946,7 +30952,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -31152,7 +31158,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31230,7 +31236,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ144">
         <v>1.75</v>
@@ -31564,7 +31570,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31645,7 +31651,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ146">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
         <v>1.34</v>
@@ -32182,7 +32188,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -32388,7 +32394,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32800,7 +32806,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -33293,7 +33299,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ154">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33418,7 +33424,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33830,7 +33836,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34114,7 +34120,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34242,7 +34248,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34654,7 +34660,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -35066,7 +35072,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35144,7 +35150,7 @@
         <v>0.38</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ163">
         <v>0.72</v>
@@ -35478,7 +35484,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -36096,7 +36102,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36714,7 +36720,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36795,7 +36801,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR171">
         <v>1.73</v>
@@ -37207,7 +37213,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ173">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -38156,7 +38162,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38362,7 +38368,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38440,7 +38446,7 @@
         <v>1.33</v>
       </c>
       <c r="AP179">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ179">
         <v>1.44</v>
@@ -39267,7 +39273,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ183">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR183">
         <v>1.3</v>
@@ -39392,7 +39398,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39598,7 +39604,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39676,7 +39682,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ185">
         <v>1.28</v>
@@ -40216,7 +40222,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40834,7 +40840,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41040,7 +41046,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -42070,7 +42076,7 @@
         <v>102</v>
       </c>
       <c r="P197" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -42357,7 +42363,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ198">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
         <v>1.28</v>
@@ -42560,7 +42566,7 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ199">
         <v>0.5</v>
@@ -42688,7 +42694,7 @@
         <v>149</v>
       </c>
       <c r="P200" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q200">
         <v>2.63</v>
@@ -43100,7 +43106,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43512,7 +43518,7 @@
         <v>216</v>
       </c>
       <c r="P204" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43590,7 +43596,7 @@
         <v>1.11</v>
       </c>
       <c r="AP204">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>1.19</v>
@@ -44005,7 +44011,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ206">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR206">
         <v>1.74</v>
@@ -44130,7 +44136,7 @@
         <v>218</v>
       </c>
       <c r="P207" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44336,7 +44342,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -45160,7 +45166,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45366,7 +45372,7 @@
         <v>112</v>
       </c>
       <c r="P213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q213">
         <v>2.7</v>
@@ -45984,7 +45990,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q216">
         <v>2.87</v>
@@ -46190,7 +46196,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46474,7 +46480,7 @@
         <v>1.7</v>
       </c>
       <c r="AP218">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ218">
         <v>1.72</v>
@@ -46683,7 +46689,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ219">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR219">
         <v>1.84</v>
@@ -46808,7 +46814,7 @@
         <v>224</v>
       </c>
       <c r="P220" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q220">
         <v>2.05</v>
@@ -47014,7 +47020,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47220,7 +47226,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47632,7 +47638,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -48044,7 +48050,7 @@
         <v>102</v>
       </c>
       <c r="P226" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q226">
         <v>2.95</v>
@@ -48250,7 +48256,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48456,7 +48462,7 @@
         <v>111</v>
       </c>
       <c r="P228" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q228">
         <v>2.9</v>
@@ -48949,7 +48955,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ230">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR230">
         <v>1.34</v>
@@ -49074,7 +49080,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49280,7 +49286,7 @@
         <v>112</v>
       </c>
       <c r="P232" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49773,7 +49779,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ234">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR234">
         <v>1.78</v>
@@ -49898,7 +49904,7 @@
         <v>102</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>4.75</v>
@@ -50104,7 +50110,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50182,7 +50188,7 @@
         <v>0.73</v>
       </c>
       <c r="AP236">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -50722,7 +50728,7 @@
         <v>235</v>
       </c>
       <c r="P239" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -51006,7 +51012,7 @@
         <v>1.09</v>
       </c>
       <c r="AP240">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ240">
         <v>0.88</v>
@@ -51134,7 +51140,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51752,7 +51758,7 @@
         <v>102</v>
       </c>
       <c r="P244" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q244">
         <v>4.75</v>
@@ -52988,7 +52994,7 @@
         <v>240</v>
       </c>
       <c r="P250" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q250">
         <v>2.6</v>
@@ -53069,7 +53075,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ250">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR250">
         <v>1.79</v>
@@ -53478,7 +53484,7 @@
         <v>1.46</v>
       </c>
       <c r="AP252">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ252">
         <v>1.28</v>
@@ -53606,7 +53612,7 @@
         <v>242</v>
       </c>
       <c r="P253" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q253">
         <v>3.4</v>
@@ -53684,7 +53690,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ253">
         <v>0.82</v>
@@ -55048,7 +55054,7 @@
         <v>247</v>
       </c>
       <c r="P260" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55666,7 +55672,7 @@
         <v>102</v>
       </c>
       <c r="P263" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q263">
         <v>3.5</v>
@@ -56159,7 +56165,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ265">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR265">
         <v>1.48</v>
@@ -56284,7 +56290,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56490,7 +56496,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -56696,7 +56702,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56777,7 +56783,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ268">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR268">
         <v>1.56</v>
@@ -57598,7 +57604,7 @@
         <v>1.57</v>
       </c>
       <c r="AP272">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ272">
         <v>1.44</v>
@@ -57726,7 +57732,7 @@
         <v>253</v>
       </c>
       <c r="P273" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q273">
         <v>4.2</v>
@@ -58138,7 +58144,7 @@
         <v>255</v>
       </c>
       <c r="P275" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q275">
         <v>2.7</v>
@@ -58962,7 +58968,7 @@
         <v>235</v>
       </c>
       <c r="P279" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q279">
         <v>2.8</v>
@@ -59040,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="AP279">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ279">
         <v>0.88</v>
@@ -59374,7 +59380,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -60073,7 +60079,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ284">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR284">
         <v>1.3</v>
@@ -60691,7 +60697,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ287">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR287">
         <v>1.39</v>
@@ -60816,7 +60822,7 @@
         <v>231</v>
       </c>
       <c r="P288" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -61228,7 +61234,7 @@
         <v>260</v>
       </c>
       <c r="P290" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61434,7 +61440,7 @@
         <v>245</v>
       </c>
       <c r="P291" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61640,7 +61646,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -62258,7 +62264,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q295">
         <v>4.5</v>
@@ -63082,7 +63088,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63288,7 +63294,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63366,7 +63372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP300">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ300">
         <v>0.5600000000000001</v>
@@ -63572,7 +63578,7 @@
         <v>0.79</v>
       </c>
       <c r="AP301">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ301">
         <v>0.71</v>
@@ -63700,7 +63706,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -63906,7 +63912,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q303">
         <v>2.88</v>
@@ -64318,7 +64324,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64524,7 +64530,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64730,7 +64736,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -64936,7 +64942,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65142,7 +65148,7 @@
         <v>200</v>
       </c>
       <c r="P309" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q309">
         <v>3.25</v>
@@ -65223,7 +65229,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ309">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR309">
         <v>1.44</v>
@@ -65554,7 +65560,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65635,7 +65641,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ311">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR311">
         <v>1.72</v>
@@ -65760,7 +65766,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66044,7 +66050,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ313">
         <v>1</v>
@@ -66172,7 +66178,7 @@
         <v>275</v>
       </c>
       <c r="P314" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q314">
         <v>2.88</v>
@@ -66584,7 +66590,7 @@
         <v>276</v>
       </c>
       <c r="P316" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q316">
         <v>2.63</v>
@@ -66790,7 +66796,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -67202,7 +67208,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -67280,7 +67286,7 @@
         <v>1.07</v>
       </c>
       <c r="AP319">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ319">
         <v>1.06</v>
@@ -67408,7 +67414,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q320">
         <v>3.25</v>
@@ -67820,7 +67826,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -67901,7 +67907,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ322">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR322">
         <v>1.36</v>
@@ -68232,7 +68238,7 @@
         <v>282</v>
       </c>
       <c r="P324" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q324">
         <v>3.1</v>
@@ -68644,7 +68650,7 @@
         <v>102</v>
       </c>
       <c r="P326" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q326">
         <v>4.33</v>
@@ -69056,7 +69062,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69262,7 +69268,7 @@
         <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q329">
         <v>2.38</v>
@@ -69343,7 +69349,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ329">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR329">
         <v>1.87</v>
@@ -69674,7 +69680,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69880,7 +69886,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70498,7 +70504,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q335">
         <v>4.33</v>
@@ -70704,7 +70710,7 @@
         <v>221</v>
       </c>
       <c r="P336" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q336">
         <v>3.25</v>
@@ -70910,7 +70916,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q337">
         <v>2.75</v>
@@ -71116,7 +71122,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71322,7 +71328,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71478,6 +71484,418 @@
         <v>0</v>
       </c>
       <c r="BP339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7509936</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F340">
+        <v>35</v>
+      </c>
+      <c r="G340" t="s">
+        <v>72</v>
+      </c>
+      <c r="H340" t="s">
+        <v>88</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340" t="s">
+        <v>290</v>
+      </c>
+      <c r="P340" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q340">
+        <v>3.4</v>
+      </c>
+      <c r="R340">
+        <v>1.91</v>
+      </c>
+      <c r="S340">
+        <v>3.75</v>
+      </c>
+      <c r="T340">
+        <v>1.57</v>
+      </c>
+      <c r="U340">
+        <v>2.25</v>
+      </c>
+      <c r="V340">
+        <v>3.75</v>
+      </c>
+      <c r="W340">
+        <v>1.25</v>
+      </c>
+      <c r="X340">
+        <v>13</v>
+      </c>
+      <c r="Y340">
+        <v>1.04</v>
+      </c>
+      <c r="Z340">
+        <v>2.63</v>
+      </c>
+      <c r="AA340">
+        <v>3.35</v>
+      </c>
+      <c r="AB340">
+        <v>2.81</v>
+      </c>
+      <c r="AC340">
+        <v>0</v>
+      </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
+      <c r="AE340">
+        <v>1.55</v>
+      </c>
+      <c r="AF340">
+        <v>2.45</v>
+      </c>
+      <c r="AG340">
+        <v>2.17</v>
+      </c>
+      <c r="AH340">
+        <v>1.67</v>
+      </c>
+      <c r="AI340">
+        <v>2.05</v>
+      </c>
+      <c r="AJ340">
+        <v>1.7</v>
+      </c>
+      <c r="AK340">
+        <v>0</v>
+      </c>
+      <c r="AL340">
+        <v>0</v>
+      </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
+      <c r="AN340">
+        <v>1.13</v>
+      </c>
+      <c r="AO340">
+        <v>1.18</v>
+      </c>
+      <c r="AP340">
+        <v>1.24</v>
+      </c>
+      <c r="AQ340">
+        <v>1.11</v>
+      </c>
+      <c r="AR340">
+        <v>1.42</v>
+      </c>
+      <c r="AS340">
+        <v>1.1</v>
+      </c>
+      <c r="AT340">
+        <v>2.52</v>
+      </c>
+      <c r="AU340">
+        <v>4</v>
+      </c>
+      <c r="AV340">
+        <v>4</v>
+      </c>
+      <c r="AW340">
+        <v>7</v>
+      </c>
+      <c r="AX340">
+        <v>11</v>
+      </c>
+      <c r="AY340">
+        <v>13</v>
+      </c>
+      <c r="AZ340">
+        <v>16</v>
+      </c>
+      <c r="BA340">
+        <v>4</v>
+      </c>
+      <c r="BB340">
+        <v>6</v>
+      </c>
+      <c r="BC340">
+        <v>10</v>
+      </c>
+      <c r="BD340">
+        <v>0</v>
+      </c>
+      <c r="BE340">
+        <v>0</v>
+      </c>
+      <c r="BF340">
+        <v>0</v>
+      </c>
+      <c r="BG340">
+        <v>0</v>
+      </c>
+      <c r="BH340">
+        <v>0</v>
+      </c>
+      <c r="BI340">
+        <v>0</v>
+      </c>
+      <c r="BJ340">
+        <v>0</v>
+      </c>
+      <c r="BK340">
+        <v>0</v>
+      </c>
+      <c r="BL340">
+        <v>0</v>
+      </c>
+      <c r="BM340">
+        <v>0</v>
+      </c>
+      <c r="BN340">
+        <v>0</v>
+      </c>
+      <c r="BO340">
+        <v>0</v>
+      </c>
+      <c r="BP340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7509930</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F341">
+        <v>35</v>
+      </c>
+      <c r="G341" t="s">
+        <v>78</v>
+      </c>
+      <c r="H341" t="s">
+        <v>89</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>2</v>
+      </c>
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341">
+        <v>3</v>
+      </c>
+      <c r="N341">
+        <v>4</v>
+      </c>
+      <c r="O341" t="s">
+        <v>228</v>
+      </c>
+      <c r="P341" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q341">
+        <v>3.25</v>
+      </c>
+      <c r="R341">
+        <v>2.2</v>
+      </c>
+      <c r="S341">
+        <v>3.25</v>
+      </c>
+      <c r="T341">
+        <v>1.4</v>
+      </c>
+      <c r="U341">
+        <v>2.75</v>
+      </c>
+      <c r="V341">
+        <v>2.75</v>
+      </c>
+      <c r="W341">
+        <v>1.4</v>
+      </c>
+      <c r="X341">
+        <v>8</v>
+      </c>
+      <c r="Y341">
+        <v>1.08</v>
+      </c>
+      <c r="Z341">
+        <v>2.58</v>
+      </c>
+      <c r="AA341">
+        <v>3.52</v>
+      </c>
+      <c r="AB341">
+        <v>2.75</v>
+      </c>
+      <c r="AC341">
+        <v>0</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>0</v>
+      </c>
+      <c r="AF341">
+        <v>0</v>
+      </c>
+      <c r="AG341">
+        <v>1.83</v>
+      </c>
+      <c r="AH341">
+        <v>1.8</v>
+      </c>
+      <c r="AI341">
+        <v>1.7</v>
+      </c>
+      <c r="AJ341">
+        <v>2.05</v>
+      </c>
+      <c r="AK341">
+        <v>0</v>
+      </c>
+      <c r="AL341">
+        <v>0</v>
+      </c>
+      <c r="AM341">
+        <v>0</v>
+      </c>
+      <c r="AN341">
+        <v>1.71</v>
+      </c>
+      <c r="AO341">
+        <v>1.18</v>
+      </c>
+      <c r="AP341">
+        <v>1.61</v>
+      </c>
+      <c r="AQ341">
+        <v>1.28</v>
+      </c>
+      <c r="AR341">
+        <v>1.39</v>
+      </c>
+      <c r="AS341">
+        <v>1.32</v>
+      </c>
+      <c r="AT341">
+        <v>2.71</v>
+      </c>
+      <c r="AU341">
+        <v>6</v>
+      </c>
+      <c r="AV341">
+        <v>8</v>
+      </c>
+      <c r="AW341">
+        <v>9</v>
+      </c>
+      <c r="AX341">
+        <v>4</v>
+      </c>
+      <c r="AY341">
+        <v>17</v>
+      </c>
+      <c r="AZ341">
+        <v>14</v>
+      </c>
+      <c r="BA341">
+        <v>3</v>
+      </c>
+      <c r="BB341">
+        <v>2</v>
+      </c>
+      <c r="BC341">
+        <v>5</v>
+      </c>
+      <c r="BD341">
+        <v>0</v>
+      </c>
+      <c r="BE341">
+        <v>0</v>
+      </c>
+      <c r="BF341">
+        <v>0</v>
+      </c>
+      <c r="BG341">
+        <v>0</v>
+      </c>
+      <c r="BH341">
+        <v>0</v>
+      </c>
+      <c r="BI341">
+        <v>0</v>
+      </c>
+      <c r="BJ341">
+        <v>0</v>
+      </c>
+      <c r="BK341">
+        <v>0</v>
+      </c>
+      <c r="BL341">
+        <v>0</v>
+      </c>
+      <c r="BM341">
+        <v>0</v>
+      </c>
+      <c r="BN341">
+        <v>0</v>
+      </c>
+      <c r="BO341">
+        <v>0</v>
+      </c>
+      <c r="BP341">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="425">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -889,6 +889,9 @@
     <t>['18', '78']</t>
   </si>
   <si>
+    <t>['25', '41']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -1647,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2112,7 +2115,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2524,7 +2527,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2936,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3348,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3554,7 +3557,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3966,7 +3969,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4172,7 +4175,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -4378,7 +4381,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4996,7 +4999,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5614,7 +5617,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -6026,7 +6029,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6438,7 +6441,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -7056,7 +7059,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7549,7 +7552,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7958,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ31">
         <v>0.72</v>
@@ -8292,7 +8295,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8704,7 +8707,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8910,7 +8913,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9734,7 +9737,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9940,7 +9943,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10146,7 +10149,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10433,7 +10436,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ43">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR43">
         <v>1.15</v>
@@ -10970,7 +10973,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -11048,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ46">
         <v>1.28</v>
@@ -11382,7 +11385,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11588,7 +11591,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -12000,7 +12003,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12206,7 +12209,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -13648,7 +13651,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14060,7 +14063,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14266,7 +14269,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -15090,7 +15093,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15374,7 +15377,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ67">
         <v>1.72</v>
@@ -15502,7 +15505,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15789,7 +15792,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR69">
         <v>1.8</v>
@@ -15914,7 +15917,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16120,7 +16123,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16326,7 +16329,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16738,7 +16741,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -17150,7 +17153,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -17356,7 +17359,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17562,7 +17565,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17974,7 +17977,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18467,7 +18470,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR82">
         <v>1.28</v>
@@ -18592,7 +18595,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18798,7 +18801,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19210,7 +19213,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19416,7 +19419,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19622,7 +19625,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19700,7 +19703,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -20240,7 +20243,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -22918,7 +22921,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22996,7 +22999,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104">
         <v>2.06</v>
@@ -23124,7 +23127,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -24441,7 +24444,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ111">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR111">
         <v>1.35</v>
@@ -24772,7 +24775,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25802,7 +25805,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -26626,7 +26629,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -27450,7 +27453,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27862,7 +27865,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27940,7 +27943,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
         <v>1.44</v>
@@ -28068,7 +28071,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -28274,7 +28277,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28355,7 +28358,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR130">
         <v>1.24</v>
@@ -28480,7 +28483,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28686,7 +28689,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29176,7 +29179,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
         <v>1.06</v>
@@ -29510,7 +29513,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29922,7 +29925,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30540,7 +30543,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30746,7 +30749,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30952,7 +30955,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -31033,7 +31036,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ143">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -31158,7 +31161,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31570,7 +31573,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -32188,7 +32191,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -32394,7 +32397,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32806,7 +32809,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32884,7 +32887,7 @@
         <v>0.86</v>
       </c>
       <c r="AP152">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33424,7 +33427,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33836,7 +33839,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34248,7 +34251,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34660,7 +34663,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -35072,7 +35075,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35484,7 +35487,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -36102,7 +36105,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36183,7 +36186,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ168">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR168">
         <v>1.83</v>
@@ -36720,7 +36723,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -38162,7 +38165,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38368,7 +38371,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38652,7 +38655,7 @@
         <v>0.63</v>
       </c>
       <c r="AP180">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -39398,7 +39401,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39604,7 +39607,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39891,7 +39894,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ186">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR186">
         <v>1.56</v>
@@ -40222,7 +40225,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40840,7 +40843,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41046,7 +41049,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -42076,7 +42079,7 @@
         <v>102</v>
       </c>
       <c r="P197" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -42694,7 +42697,7 @@
         <v>149</v>
       </c>
       <c r="P200" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q200">
         <v>2.63</v>
@@ -42772,7 +42775,7 @@
         <v>0.89</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200">
         <v>1.13</v>
@@ -43106,7 +43109,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43518,7 +43521,7 @@
         <v>216</v>
       </c>
       <c r="P204" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43599,7 +43602,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ204">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR204">
         <v>1.39</v>
@@ -44136,7 +44139,7 @@
         <v>218</v>
       </c>
       <c r="P207" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44342,7 +44345,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -45166,7 +45169,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45372,7 +45375,7 @@
         <v>112</v>
       </c>
       <c r="P213" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q213">
         <v>2.7</v>
@@ -45990,7 +45993,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q216">
         <v>2.87</v>
@@ -46196,7 +46199,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46814,7 +46817,7 @@
         <v>224</v>
       </c>
       <c r="P220" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q220">
         <v>2.05</v>
@@ -47020,7 +47023,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47226,7 +47229,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47510,7 +47513,7 @@
         <v>0.55</v>
       </c>
       <c r="AP223">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ223">
         <v>0.5600000000000001</v>
@@ -47638,7 +47641,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -48050,7 +48053,7 @@
         <v>102</v>
       </c>
       <c r="P226" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q226">
         <v>2.95</v>
@@ -48256,7 +48259,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48462,7 +48465,7 @@
         <v>111</v>
       </c>
       <c r="P228" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q228">
         <v>2.9</v>
@@ -48543,7 +48546,7 @@
         <v>1</v>
       </c>
       <c r="AQ228">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR228">
         <v>1.63</v>
@@ -49080,7 +49083,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49286,7 +49289,7 @@
         <v>112</v>
       </c>
       <c r="P232" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49904,7 +49907,7 @@
         <v>102</v>
       </c>
       <c r="P235" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q235">
         <v>4.75</v>
@@ -50110,7 +50113,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50728,7 +50731,7 @@
         <v>235</v>
       </c>
       <c r="P239" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -51140,7 +51143,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51758,7 +51761,7 @@
         <v>102</v>
       </c>
       <c r="P244" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q244">
         <v>4.75</v>
@@ -52045,7 +52048,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ245">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR245">
         <v>1.4</v>
@@ -52994,7 +52997,7 @@
         <v>240</v>
       </c>
       <c r="P250" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q250">
         <v>2.6</v>
@@ -53278,7 +53281,7 @@
         <v>1.09</v>
       </c>
       <c r="AP251">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
         <v>1.06</v>
@@ -53612,7 +53615,7 @@
         <v>242</v>
       </c>
       <c r="P253" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q253">
         <v>3.4</v>
@@ -54926,7 +54929,7 @@
         <v>0.83</v>
       </c>
       <c r="AP259">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ259">
         <v>0.71</v>
@@ -55054,7 +55057,7 @@
         <v>247</v>
       </c>
       <c r="P260" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55672,7 +55675,7 @@
         <v>102</v>
       </c>
       <c r="P263" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q263">
         <v>3.5</v>
@@ -56290,7 +56293,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56496,7 +56499,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -56702,7 +56705,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56989,7 +56992,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ269">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR269">
         <v>1.9</v>
@@ -57732,7 +57735,7 @@
         <v>253</v>
       </c>
       <c r="P273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q273">
         <v>4.2</v>
@@ -58144,7 +58147,7 @@
         <v>255</v>
       </c>
       <c r="P275" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q275">
         <v>2.7</v>
@@ -58428,7 +58431,7 @@
         <v>1.36</v>
       </c>
       <c r="AP276">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ276">
         <v>1.28</v>
@@ -58968,7 +58971,7 @@
         <v>235</v>
       </c>
       <c r="P279" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q279">
         <v>2.8</v>
@@ -59380,7 +59383,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59873,7 +59876,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ283">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR283">
         <v>1.8</v>
@@ -60822,7 +60825,7 @@
         <v>231</v>
       </c>
       <c r="P288" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -61234,7 +61237,7 @@
         <v>260</v>
       </c>
       <c r="P290" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61440,7 +61443,7 @@
         <v>245</v>
       </c>
       <c r="P291" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61646,7 +61649,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61930,7 +61933,7 @@
         <v>0.87</v>
       </c>
       <c r="AP293">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ293">
         <v>1.06</v>
@@ -62264,7 +62267,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q295">
         <v>4.5</v>
@@ -63088,7 +63091,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63294,7 +63297,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63706,7 +63709,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -63912,7 +63915,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q303">
         <v>2.88</v>
@@ -64324,7 +64327,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64405,7 +64408,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ305">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR305">
         <v>1.43</v>
@@ -64530,7 +64533,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64736,7 +64739,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -64942,7 +64945,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65148,7 +65151,7 @@
         <v>200</v>
       </c>
       <c r="P309" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q309">
         <v>3.25</v>
@@ -65560,7 +65563,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65766,7 +65769,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -66178,7 +66181,7 @@
         <v>275</v>
       </c>
       <c r="P314" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q314">
         <v>2.88</v>
@@ -66590,7 +66593,7 @@
         <v>276</v>
       </c>
       <c r="P316" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q316">
         <v>2.63</v>
@@ -66796,7 +66799,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -67080,7 +67083,7 @@
         <v>0.53</v>
       </c>
       <c r="AP318">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ318">
         <v>0.5</v>
@@ -67208,7 +67211,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -67414,7 +67417,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q320">
         <v>3.25</v>
@@ -67826,7 +67829,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -68238,7 +68241,7 @@
         <v>282</v>
       </c>
       <c r="P324" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q324">
         <v>3.1</v>
@@ -68319,7 +68322,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ324">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR324">
         <v>1.38</v>
@@ -68650,7 +68653,7 @@
         <v>102</v>
       </c>
       <c r="P326" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q326">
         <v>4.33</v>
@@ -69062,7 +69065,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69268,7 +69271,7 @@
         <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q329">
         <v>2.38</v>
@@ -69680,7 +69683,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69886,7 +69889,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70504,7 +70507,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q335">
         <v>4.33</v>
@@ -70710,7 +70713,7 @@
         <v>221</v>
       </c>
       <c r="P336" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q336">
         <v>3.25</v>
@@ -70916,7 +70919,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q337">
         <v>2.75</v>
@@ -71122,7 +71125,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71328,7 +71331,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71740,7 +71743,7 @@
         <v>228</v>
       </c>
       <c r="P341" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q341">
         <v>3.25</v>
@@ -71896,6 +71899,212 @@
         <v>0</v>
       </c>
       <c r="BP341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7509939</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45778.3125</v>
+      </c>
+      <c r="F342">
+        <v>36</v>
+      </c>
+      <c r="G342" t="s">
+        <v>88</v>
+      </c>
+      <c r="H342" t="s">
+        <v>78</v>
+      </c>
+      <c r="I342">
+        <v>2</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>2</v>
+      </c>
+      <c r="L342">
+        <v>2</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>291</v>
+      </c>
+      <c r="P342" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q342">
+        <v>2.88</v>
+      </c>
+      <c r="R342">
+        <v>2.05</v>
+      </c>
+      <c r="S342">
+        <v>4</v>
+      </c>
+      <c r="T342">
+        <v>1.44</v>
+      </c>
+      <c r="U342">
+        <v>2.63</v>
+      </c>
+      <c r="V342">
+        <v>3.25</v>
+      </c>
+      <c r="W342">
+        <v>1.33</v>
+      </c>
+      <c r="X342">
+        <v>10</v>
+      </c>
+      <c r="Y342">
+        <v>1.06</v>
+      </c>
+      <c r="Z342">
+        <v>2.25</v>
+      </c>
+      <c r="AA342">
+        <v>3.28</v>
+      </c>
+      <c r="AB342">
+        <v>3.5</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
+      <c r="AG342">
+        <v>2.01</v>
+      </c>
+      <c r="AH342">
+        <v>1.81</v>
+      </c>
+      <c r="AI342">
+        <v>1.95</v>
+      </c>
+      <c r="AJ342">
+        <v>1.8</v>
+      </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AN342">
+        <v>1.88</v>
+      </c>
+      <c r="AO342">
+        <v>1.19</v>
+      </c>
+      <c r="AP342">
+        <v>1.94</v>
+      </c>
+      <c r="AQ342">
+        <v>1.12</v>
+      </c>
+      <c r="AR342">
+        <v>1.28</v>
+      </c>
+      <c r="AS342">
+        <v>1.21</v>
+      </c>
+      <c r="AT342">
+        <v>2.49</v>
+      </c>
+      <c r="AU342">
+        <v>-1</v>
+      </c>
+      <c r="AV342">
+        <v>-1</v>
+      </c>
+      <c r="AW342">
+        <v>-1</v>
+      </c>
+      <c r="AX342">
+        <v>-1</v>
+      </c>
+      <c r="AY342">
+        <v>-1</v>
+      </c>
+      <c r="AZ342">
+        <v>-1</v>
+      </c>
+      <c r="BA342">
+        <v>-1</v>
+      </c>
+      <c r="BB342">
+        <v>-1</v>
+      </c>
+      <c r="BC342">
+        <v>-1</v>
+      </c>
+      <c r="BD342">
+        <v>0</v>
+      </c>
+      <c r="BE342">
+        <v>0</v>
+      </c>
+      <c r="BF342">
+        <v>0</v>
+      </c>
+      <c r="BG342">
+        <v>0</v>
+      </c>
+      <c r="BH342">
+        <v>0</v>
+      </c>
+      <c r="BI342">
+        <v>0</v>
+      </c>
+      <c r="BJ342">
+        <v>0</v>
+      </c>
+      <c r="BK342">
+        <v>0</v>
+      </c>
+      <c r="BL342">
+        <v>0</v>
+      </c>
+      <c r="BM342">
+        <v>0</v>
+      </c>
+      <c r="BN342">
+        <v>0</v>
+      </c>
+      <c r="BO342">
+        <v>0</v>
+      </c>
+      <c r="BP342">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="431">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -892,6 +892,21 @@
     <t>['25', '41']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['19', '80', '90+5']</t>
+  </si>
+  <si>
+    <t>['22', '79']</t>
+  </si>
+  <si>
+    <t>['30', '43']</t>
+  </si>
+  <si>
+    <t>['13', '87']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -1079,9 +1094,6 @@
   </si>
   <si>
     <t>['2', '90']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['41', '90']</t>
@@ -1289,6 +1301,12 @@
   </si>
   <si>
     <t>['9', '26', '90+3']</t>
+  </si>
+  <si>
+    <t>['47', '75']</t>
+  </si>
+  <si>
+    <t>['15', '70', '86']</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP342"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2115,7 +2133,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2527,7 +2545,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2605,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -2939,7 +2957,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3226,7 +3244,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3351,7 +3369,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3557,7 +3575,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3841,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3969,7 +3987,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4047,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4175,7 +4193,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -4256,7 +4274,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
@@ -4381,7 +4399,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4459,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4874,7 +4892,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4999,7 +5017,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5077,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5283,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
         <v>1.28</v>
@@ -5489,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5617,7 +5635,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5695,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -6029,7 +6047,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6316,7 +6334,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6441,7 +6459,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6725,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ25">
         <v>1.72</v>
@@ -6934,7 +6952,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ26">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -7059,7 +7077,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7755,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -8167,10 +8185,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.67</v>
@@ -8295,7 +8313,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8373,7 +8391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>1.28</v>
@@ -8579,10 +8597,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8707,7 +8725,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8785,10 +8803,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR35">
         <v>1.36</v>
@@ -8913,7 +8931,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8994,7 +9012,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ36">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -9403,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9609,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9737,7 +9755,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9815,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR40">
         <v>1.5</v>
@@ -9943,7 +9961,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10024,7 +10042,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR41">
         <v>1.16</v>
@@ -10149,7 +10167,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10433,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ43">
         <v>1.12</v>
@@ -10848,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -10973,7 +10991,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -11385,7 +11403,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11466,7 +11484,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11591,7 +11609,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11875,7 +11893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ50">
         <v>0.82</v>
@@ -12003,7 +12021,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12209,7 +12227,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12290,7 +12308,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -12493,7 +12511,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
         <v>2.06</v>
@@ -12699,10 +12717,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>2.1</v>
@@ -12905,10 +12923,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.42</v>
@@ -13114,7 +13132,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -13317,10 +13335,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>0.86</v>
@@ -13523,7 +13541,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>1.11</v>
@@ -13651,7 +13669,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13732,7 +13750,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13935,7 +13953,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ60">
         <v>1.28</v>
@@ -14063,7 +14081,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14141,10 +14159,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ61">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR61">
         <v>1.42</v>
@@ -14269,7 +14287,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14347,10 +14365,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR62">
         <v>1.33</v>
@@ -14553,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ63">
         <v>1.44</v>
@@ -14968,7 +14986,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -15093,7 +15111,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15505,7 +15523,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15583,7 +15601,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68">
         <v>0.82</v>
@@ -15917,7 +15935,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16123,7 +16141,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16204,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -16329,7 +16347,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16407,7 +16425,7 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -16616,7 +16634,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16741,7 +16759,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16819,7 +16837,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ74">
         <v>1.28</v>
@@ -17025,10 +17043,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -17153,7 +17171,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -17231,10 +17249,10 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR76">
         <v>1.44</v>
@@ -17359,7 +17377,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17437,10 +17455,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17565,7 +17583,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17643,10 +17661,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.18</v>
@@ -17852,7 +17870,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17977,7 +17995,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18261,10 +18279,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18595,7 +18613,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18801,7 +18819,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19085,7 +19103,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ85">
         <v>0.71</v>
@@ -19213,7 +19231,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19291,7 +19309,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
         <v>1.28</v>
@@ -19419,7 +19437,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19625,7 +19643,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19706,7 +19724,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR88">
         <v>1.29</v>
@@ -20118,7 +20136,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -20243,7 +20261,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20527,10 +20545,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -20736,7 +20754,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.54</v>
@@ -20939,7 +20957,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ94">
         <v>1.11</v>
@@ -21148,7 +21166,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -21351,10 +21369,10 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21557,7 +21575,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -21972,7 +21990,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.26</v>
@@ -22381,7 +22399,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101">
         <v>0.72</v>
@@ -22590,7 +22608,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22921,7 +22939,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -23127,7 +23145,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23205,10 +23223,10 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -23620,7 +23638,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23826,7 +23844,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24029,7 +24047,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ109">
         <v>0.82</v>
@@ -24235,7 +24253,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ110">
         <v>1.28</v>
@@ -24441,7 +24459,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ111">
         <v>1.12</v>
@@ -24647,7 +24665,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ112">
         <v>1.06</v>
@@ -24775,7 +24793,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24856,7 +24874,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -25268,7 +25286,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>1.26</v>
@@ -25474,7 +25492,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.53</v>
@@ -25677,10 +25695,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25805,7 +25823,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -26089,7 +26107,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1.28</v>
@@ -26295,10 +26313,10 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR120">
         <v>1.28</v>
@@ -26501,7 +26519,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ121">
         <v>0.72</v>
@@ -26629,7 +26647,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -27119,7 +27137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
         <v>0.82</v>
@@ -27325,10 +27343,10 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR125">
         <v>1.55</v>
@@ -27453,7 +27471,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27737,10 +27755,10 @@
         <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ127">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27865,7 +27883,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -28071,7 +28089,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -28149,10 +28167,10 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -28277,7 +28295,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28483,7 +28501,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28564,7 +28582,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28689,7 +28707,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28767,7 +28785,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ132">
         <v>1.06</v>
@@ -28973,10 +28991,10 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ133">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29182,7 +29200,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29513,7 +29531,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29800,7 +29818,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ137">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.49</v>
@@ -29925,7 +29943,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30209,10 +30227,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR139">
         <v>1.53</v>
@@ -30418,7 +30436,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30543,7 +30561,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30621,7 +30639,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
         <v>0.82</v>
@@ -30749,7 +30767,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30955,7 +30973,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -31033,7 +31051,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ143">
         <v>1.12</v>
@@ -31161,7 +31179,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31242,7 +31260,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ144">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR144">
         <v>1.46</v>
@@ -31448,7 +31466,7 @@
         <v>1</v>
       </c>
       <c r="AQ145">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31573,7 +31591,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31651,7 +31669,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ146">
         <v>1.11</v>
@@ -31857,7 +31875,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -32063,7 +32081,7 @@
         <v>1.57</v>
       </c>
       <c r="AP148">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ148">
         <v>1.44</v>
@@ -32191,7 +32209,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -32269,7 +32287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ149">
         <v>0.71</v>
@@ -32397,7 +32415,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32478,7 +32496,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.37</v>
@@ -32684,7 +32702,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR151">
         <v>1.67</v>
@@ -32809,7 +32827,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32890,7 +32908,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR152">
         <v>1.26</v>
@@ -33096,7 +33114,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33427,7 +33445,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33505,7 +33523,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ155">
         <v>1.72</v>
@@ -33711,10 +33729,10 @@
         <v>0.71</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33839,7 +33857,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33917,10 +33935,10 @@
         <v>0.71</v>
       </c>
       <c r="AP157">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ157">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -34126,7 +34144,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ158">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR158">
         <v>1.22</v>
@@ -34251,7 +34269,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34332,7 +34350,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ159">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34535,7 +34553,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ160">
         <v>1.28</v>
@@ -34663,7 +34681,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34741,7 +34759,7 @@
         <v>1.13</v>
       </c>
       <c r="AP161">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -34947,10 +34965,10 @@
         <v>1.43</v>
       </c>
       <c r="AP162">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ162">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -35075,7 +35093,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35487,7 +35505,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35977,7 +35995,7 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167">
         <v>1.44</v>
@@ -36105,7 +36123,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36183,7 +36201,7 @@
         <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
         <v>1.12</v>
@@ -36392,7 +36410,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36595,10 +36613,10 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ170">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36723,7 +36741,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -37010,7 +37028,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ172">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR172">
         <v>1.72</v>
@@ -37213,7 +37231,7 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ173">
         <v>1.28</v>
@@ -37422,7 +37440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
         <v>1.36</v>
@@ -37831,10 +37849,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR176">
         <v>1.34</v>
@@ -38037,7 +38055,7 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177">
         <v>1.72</v>
@@ -38165,7 +38183,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38243,10 +38261,10 @@
         <v>1.13</v>
       </c>
       <c r="AP178">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ178">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.29</v>
@@ -38371,7 +38389,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38658,7 +38676,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -39067,7 +39085,7 @@
         <v>2.33</v>
       </c>
       <c r="AP182">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ182">
         <v>2.06</v>
@@ -39401,7 +39419,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39479,7 +39497,7 @@
         <v>0.44</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ184">
         <v>0.72</v>
@@ -39607,7 +39625,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39891,7 +39909,7 @@
         <v>1.13</v>
       </c>
       <c r="AP186">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ186">
         <v>1.12</v>
@@ -40100,7 +40118,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ187">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR187">
         <v>1.56</v>
@@ -40225,7 +40243,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40512,7 +40530,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR189">
         <v>1.33</v>
@@ -40715,10 +40733,10 @@
         <v>1.25</v>
       </c>
       <c r="AP190">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.89</v>
@@ -40843,7 +40861,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40921,10 +40939,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP191">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ191">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -41049,7 +41067,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41130,7 +41148,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -41542,7 +41560,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR194">
         <v>1.3</v>
@@ -41745,7 +41763,7 @@
         <v>1.11</v>
       </c>
       <c r="AP195">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ195">
         <v>0.71</v>
@@ -41951,10 +41969,10 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
         <v>1.41</v>
@@ -42079,7 +42097,7 @@
         <v>102</v>
       </c>
       <c r="P197" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -42157,10 +42175,10 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ197">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.37</v>
@@ -42363,7 +42381,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -42572,7 +42590,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ199">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR199">
         <v>1.22</v>
@@ -42697,7 +42715,7 @@
         <v>149</v>
       </c>
       <c r="P200" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q200">
         <v>2.63</v>
@@ -42778,7 +42796,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ200">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR200">
         <v>1.24</v>
@@ -42981,7 +42999,7 @@
         <v>1.56</v>
       </c>
       <c r="AP201">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ201">
         <v>1.72</v>
@@ -43109,7 +43127,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43396,7 +43414,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ203">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR203">
         <v>1.37</v>
@@ -43521,7 +43539,7 @@
         <v>216</v>
       </c>
       <c r="P204" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43805,7 +43823,7 @@
         <v>0.9</v>
       </c>
       <c r="AP205">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ205">
         <v>1.06</v>
@@ -44011,7 +44029,7 @@
         <v>1.4</v>
       </c>
       <c r="AP206">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ206">
         <v>1.11</v>
@@ -44139,7 +44157,7 @@
         <v>218</v>
       </c>
       <c r="P207" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44217,7 +44235,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ207">
         <v>0.72</v>
@@ -44345,7 +44363,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44426,7 +44444,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ208">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR208">
         <v>1.42</v>
@@ -45041,10 +45059,10 @@
         <v>0.6</v>
       </c>
       <c r="AP211">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ211">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR211">
         <v>1.37</v>
@@ -45169,7 +45187,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45247,10 +45265,10 @@
         <v>0.5</v>
       </c>
       <c r="AP212">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
         <v>1.48</v>
@@ -45375,7 +45393,7 @@
         <v>112</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q213">
         <v>2.7</v>
@@ -45453,7 +45471,7 @@
         <v>0.55</v>
       </c>
       <c r="AP213">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ213">
         <v>0.72</v>
@@ -45865,10 +45883,10 @@
         <v>0.9</v>
       </c>
       <c r="AP215">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR215">
         <v>1.37</v>
@@ -45993,7 +46011,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q216">
         <v>2.87</v>
@@ -46074,7 +46092,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ216">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR216">
         <v>1.68</v>
@@ -46199,7 +46217,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46280,7 +46298,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ217">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
         <v>1.34</v>
@@ -46689,7 +46707,7 @@
         <v>1.36</v>
       </c>
       <c r="AP219">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
         <v>1.11</v>
@@ -46817,7 +46835,7 @@
         <v>224</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q220">
         <v>2.05</v>
@@ -46895,10 +46913,10 @@
         <v>1</v>
       </c>
       <c r="AP220">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ220">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR220">
         <v>1.73</v>
@@ -47023,7 +47041,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47229,7 +47247,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47307,7 +47325,7 @@
         <v>2.18</v>
       </c>
       <c r="AP222">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ222">
         <v>2.06</v>
@@ -47516,7 +47534,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ223">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -47641,7 +47659,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47722,7 +47740,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ224">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -47928,7 +47946,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR225">
         <v>1.49</v>
@@ -48053,7 +48071,7 @@
         <v>102</v>
       </c>
       <c r="P226" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q226">
         <v>2.95</v>
@@ -48131,7 +48149,7 @@
         <v>1.18</v>
       </c>
       <c r="AP226">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ226">
         <v>1.28</v>
@@ -48259,7 +48277,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48337,7 +48355,7 @@
         <v>1</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ227">
         <v>0.82</v>
@@ -48465,7 +48483,7 @@
         <v>111</v>
       </c>
       <c r="P228" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q228">
         <v>2.9</v>
@@ -48749,10 +48767,10 @@
         <v>0.6</v>
       </c>
       <c r="AP229">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR229">
         <v>1.45</v>
@@ -49083,7 +49101,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49289,7 +49307,7 @@
         <v>112</v>
       </c>
       <c r="P232" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49367,7 +49385,7 @@
         <v>1.64</v>
       </c>
       <c r="AP232">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ232">
         <v>1.72</v>
@@ -49573,7 +49591,7 @@
         <v>0.91</v>
       </c>
       <c r="AP233">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ233">
         <v>0.71</v>
@@ -49779,7 +49797,7 @@
         <v>1.25</v>
       </c>
       <c r="AP234">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ234">
         <v>1.11</v>
@@ -49907,7 +49925,7 @@
         <v>102</v>
       </c>
       <c r="P235" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q235">
         <v>4.75</v>
@@ -49985,7 +50003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ235">
         <v>1.44</v>
@@ -50113,7 +50131,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50194,7 +50212,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR236">
         <v>1.29</v>
@@ -50397,7 +50415,7 @@
         <v>0.75</v>
       </c>
       <c r="AP237">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ237">
         <v>0.72</v>
@@ -50606,7 +50624,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ238">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR238">
         <v>1.73</v>
@@ -50731,7 +50749,7 @@
         <v>235</v>
       </c>
       <c r="P239" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50812,7 +50830,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ239">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR239">
         <v>1.34</v>
@@ -51018,7 +51036,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ240">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR240">
         <v>1.42</v>
@@ -51143,7 +51161,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51224,7 +51242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR241">
         <v>1.41</v>
@@ -51430,7 +51448,7 @@
         <v>1</v>
       </c>
       <c r="AQ242">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51633,7 +51651,7 @@
         <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ243">
         <v>1.28</v>
@@ -51761,7 +51779,7 @@
         <v>102</v>
       </c>
       <c r="P244" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q244">
         <v>4.75</v>
@@ -51839,7 +51857,7 @@
         <v>2</v>
       </c>
       <c r="AP244">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ244">
         <v>2.06</v>
@@ -52251,10 +52269,10 @@
         <v>0.5</v>
       </c>
       <c r="AP246">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ246">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR246">
         <v>1.59</v>
@@ -52457,7 +52475,7 @@
         <v>0.83</v>
       </c>
       <c r="AP247">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ247">
         <v>1.06</v>
@@ -52666,7 +52684,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ248">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR248">
         <v>1.78</v>
@@ -52872,7 +52890,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ249">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR249">
         <v>1.33</v>
@@ -52997,7 +53015,7 @@
         <v>240</v>
       </c>
       <c r="P250" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q250">
         <v>2.6</v>
@@ -53075,7 +53093,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ250">
         <v>1.28</v>
@@ -53284,7 +53302,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR251">
         <v>1.22</v>
@@ -53615,7 +53633,7 @@
         <v>242</v>
       </c>
       <c r="P253" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q253">
         <v>3.4</v>
@@ -53899,7 +53917,7 @@
         <v>1.62</v>
       </c>
       <c r="AP254">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254">
         <v>1.44</v>
@@ -54105,10 +54123,10 @@
         <v>1.17</v>
       </c>
       <c r="AP255">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ255">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR255">
         <v>1.73</v>
@@ -54314,7 +54332,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ256">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR256">
         <v>1.38</v>
@@ -54520,7 +54538,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ257">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR257">
         <v>1.38</v>
@@ -54726,7 +54744,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ258">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR258">
         <v>1.41</v>
@@ -55057,7 +55075,7 @@
         <v>247</v>
       </c>
       <c r="P260" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55135,7 +55153,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP260">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ260">
         <v>0.72</v>
@@ -55547,7 +55565,7 @@
         <v>2.08</v>
       </c>
       <c r="AP262">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ262">
         <v>2.06</v>
@@ -55675,7 +55693,7 @@
         <v>102</v>
       </c>
       <c r="P263" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q263">
         <v>3.5</v>
@@ -55753,7 +55771,7 @@
         <v>0.77</v>
       </c>
       <c r="AP263">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ263">
         <v>1.06</v>
@@ -55959,10 +55977,10 @@
         <v>1</v>
       </c>
       <c r="AP264">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ264">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR264">
         <v>1.31</v>
@@ -56165,7 +56183,7 @@
         <v>1.15</v>
       </c>
       <c r="AP265">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ265">
         <v>1.11</v>
@@ -56293,7 +56311,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56374,7 +56392,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ266">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR266">
         <v>1.3</v>
@@ -56499,7 +56517,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -56580,7 +56598,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR267">
         <v>1.78</v>
@@ -56705,7 +56723,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56783,7 +56801,7 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ268">
         <v>1.28</v>
@@ -56989,7 +57007,7 @@
         <v>1.25</v>
       </c>
       <c r="AP269">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ269">
         <v>1.12</v>
@@ -57198,7 +57216,7 @@
         <v>1</v>
       </c>
       <c r="AQ270">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR270">
         <v>1.61</v>
@@ -57404,7 +57422,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ271">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR271">
         <v>1.71</v>
@@ -57735,7 +57753,7 @@
         <v>253</v>
       </c>
       <c r="P273" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q273">
         <v>4.2</v>
@@ -57816,7 +57834,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ273">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR273">
         <v>1.39</v>
@@ -58022,7 +58040,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ274">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR274">
         <v>1.43</v>
@@ -58147,7 +58165,7 @@
         <v>255</v>
       </c>
       <c r="P275" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q275">
         <v>2.7</v>
@@ -58637,7 +58655,7 @@
         <v>1.69</v>
       </c>
       <c r="AP277">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ277">
         <v>1.72</v>
@@ -58843,10 +58861,10 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ278">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR278">
         <v>1.76</v>
@@ -58971,7 +58989,7 @@
         <v>235</v>
       </c>
       <c r="P279" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q279">
         <v>2.8</v>
@@ -59052,7 +59070,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ279">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR279">
         <v>1.32</v>
@@ -59255,7 +59273,7 @@
         <v>0.77</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280">
         <v>0.71</v>
@@ -59383,7 +59401,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59667,10 +59685,10 @@
         <v>1</v>
       </c>
       <c r="AP282">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ282">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR282">
         <v>1.6</v>
@@ -60079,7 +60097,7 @@
         <v>1.07</v>
       </c>
       <c r="AP284">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ284">
         <v>1.11</v>
@@ -60494,7 +60512,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ286">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR286">
         <v>1.36</v>
@@ -60697,7 +60715,7 @@
         <v>1.14</v>
       </c>
       <c r="AP287">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ287">
         <v>1.28</v>
@@ -60825,7 +60843,7 @@
         <v>231</v>
       </c>
       <c r="P288" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -60906,7 +60924,7 @@
         <v>1</v>
       </c>
       <c r="AQ288">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR288">
         <v>1.68</v>
@@ -61109,10 +61127,10 @@
         <v>1.15</v>
       </c>
       <c r="AP289">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ289">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR289">
         <v>1.67</v>
@@ -61237,7 +61255,7 @@
         <v>260</v>
       </c>
       <c r="P290" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61315,7 +61333,7 @@
         <v>1.57</v>
       </c>
       <c r="AP290">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ290">
         <v>1.72</v>
@@ -61443,7 +61461,7 @@
         <v>245</v>
       </c>
       <c r="P291" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61521,10 +61539,10 @@
         <v>1</v>
       </c>
       <c r="AP291">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ291">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR291">
         <v>1.41</v>
@@ -61649,7 +61667,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61727,10 +61745,10 @@
         <v>1.57</v>
       </c>
       <c r="AP292">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ292">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR292">
         <v>1.84</v>
@@ -62142,7 +62160,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ294">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR294">
         <v>1.44</v>
@@ -62267,7 +62285,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q295">
         <v>4.5</v>
@@ -62345,7 +62363,7 @@
         <v>2</v>
       </c>
       <c r="AP295">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ295">
         <v>2.06</v>
@@ -62760,7 +62778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ297">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR297">
         <v>1.35</v>
@@ -62963,7 +62981,7 @@
         <v>0.67</v>
       </c>
       <c r="AP298">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ298">
         <v>0.72</v>
@@ -63091,7 +63109,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63297,7 +63315,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63378,7 +63396,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ300">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR300">
         <v>1.47</v>
@@ -63709,7 +63727,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -63787,10 +63805,10 @@
         <v>0.93</v>
       </c>
       <c r="AP302">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ302">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR302">
         <v>1.88</v>
@@ -63915,7 +63933,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q303">
         <v>2.88</v>
@@ -63993,10 +64011,10 @@
         <v>1</v>
       </c>
       <c r="AP303">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ303">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR303">
         <v>1.42</v>
@@ -64199,10 +64217,10 @@
         <v>1.13</v>
       </c>
       <c r="AP304">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ304">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR304">
         <v>1.29</v>
@@ -64327,7 +64345,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64405,7 +64423,7 @@
         <v>1.29</v>
       </c>
       <c r="AP305">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ305">
         <v>1.12</v>
@@ -64533,7 +64551,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64611,7 +64629,7 @@
         <v>1.47</v>
       </c>
       <c r="AP306">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ306">
         <v>1.72</v>
@@ -64739,7 +64757,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -64945,7 +64963,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65023,10 +65041,10 @@
         <v>0.93</v>
       </c>
       <c r="AP308">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ308">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR308">
         <v>1.65</v>
@@ -65151,7 +65169,7 @@
         <v>200</v>
       </c>
       <c r="P309" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q309">
         <v>3.25</v>
@@ -65438,7 +65456,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ310">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR310">
         <v>1.38</v>
@@ -65563,7 +65581,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65769,7 +65787,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65850,7 +65868,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ312">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR312">
         <v>1.32</v>
@@ -66056,7 +66074,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ313">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR313">
         <v>1.47</v>
@@ -66181,7 +66199,7 @@
         <v>275</v>
       </c>
       <c r="P314" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q314">
         <v>2.88</v>
@@ -66465,10 +66483,10 @@
         <v>0.53</v>
       </c>
       <c r="AP315">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ315">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR315">
         <v>1.39</v>
@@ -66593,7 +66611,7 @@
         <v>276</v>
       </c>
       <c r="P316" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q316">
         <v>2.63</v>
@@ -66799,7 +66817,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -66877,7 +66895,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP317">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ317">
         <v>1.06</v>
@@ -67086,7 +67104,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ318">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR318">
         <v>1.29</v>
@@ -67211,7 +67229,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -67292,7 +67310,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ319">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR319">
         <v>1.37</v>
@@ -67417,7 +67435,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q320">
         <v>3.25</v>
@@ -67495,7 +67513,7 @@
         <v>2.07</v>
       </c>
       <c r="AP320">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ320">
         <v>2.06</v>
@@ -67701,7 +67719,7 @@
         <v>0.93</v>
       </c>
       <c r="AP321">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ321">
         <v>0.82</v>
@@ -67829,7 +67847,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -68116,7 +68134,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ323">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR323">
         <v>1.72</v>
@@ -68241,7 +68259,7 @@
         <v>282</v>
       </c>
       <c r="P324" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q324">
         <v>3.1</v>
@@ -68525,10 +68543,10 @@
         <v>1.06</v>
       </c>
       <c r="AP325">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ325">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR325">
         <v>1.49</v>
@@ -68653,7 +68671,7 @@
         <v>102</v>
       </c>
       <c r="P326" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q326">
         <v>4.33</v>
@@ -68937,7 +68955,7 @@
         <v>1.44</v>
       </c>
       <c r="AP327">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ327">
         <v>1.28</v>
@@ -69065,7 +69083,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69143,7 +69161,7 @@
         <v>1.94</v>
       </c>
       <c r="AP328">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ328">
         <v>2.06</v>
@@ -69271,7 +69289,7 @@
         <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q329">
         <v>2.38</v>
@@ -69558,7 +69576,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ330">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR330">
         <v>1.41</v>
@@ -69683,7 +69701,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69761,7 +69779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP331">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ331">
         <v>1.44</v>
@@ -69889,7 +69907,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70507,7 +70525,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q335">
         <v>4.33</v>
@@ -70713,7 +70731,7 @@
         <v>221</v>
       </c>
       <c r="P336" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q336">
         <v>3.25</v>
@@ -70919,7 +70937,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q337">
         <v>2.75</v>
@@ -71125,7 +71143,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71331,7 +71349,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71743,7 +71761,7 @@
         <v>228</v>
       </c>
       <c r="P341" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q341">
         <v>3.25</v>
@@ -72042,31 +72060,31 @@
         <v>2.49</v>
       </c>
       <c r="AU342">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV342">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW342">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX342">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY342">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ342">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA342">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB342">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC342">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD342">
         <v>0</v>
@@ -72105,6 +72123,1860 @@
         <v>0</v>
       </c>
       <c r="BP342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7509942</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F343">
+        <v>36</v>
+      </c>
+      <c r="G343" t="s">
+        <v>89</v>
+      </c>
+      <c r="H343" t="s">
+        <v>72</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>3</v>
+      </c>
+      <c r="O343" t="s">
+        <v>274</v>
+      </c>
+      <c r="P343" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q343">
+        <v>2.5</v>
+      </c>
+      <c r="R343">
+        <v>2.1</v>
+      </c>
+      <c r="S343">
+        <v>4.75</v>
+      </c>
+      <c r="T343">
+        <v>1.44</v>
+      </c>
+      <c r="U343">
+        <v>2.63</v>
+      </c>
+      <c r="V343">
+        <v>3.25</v>
+      </c>
+      <c r="W343">
+        <v>1.33</v>
+      </c>
+      <c r="X343">
+        <v>9</v>
+      </c>
+      <c r="Y343">
+        <v>1.07</v>
+      </c>
+      <c r="Z343">
+        <v>1.88</v>
+      </c>
+      <c r="AA343">
+        <v>3.57</v>
+      </c>
+      <c r="AB343">
+        <v>4.5</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
+      <c r="AG343">
+        <v>2</v>
+      </c>
+      <c r="AH343">
+        <v>1.82</v>
+      </c>
+      <c r="AI343">
+        <v>1.95</v>
+      </c>
+      <c r="AJ343">
+        <v>1.8</v>
+      </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>1.56</v>
+      </c>
+      <c r="AO343">
+        <v>1</v>
+      </c>
+      <c r="AP343">
+        <v>1.47</v>
+      </c>
+      <c r="AQ343">
+        <v>1.11</v>
+      </c>
+      <c r="AR343">
+        <v>1.79</v>
+      </c>
+      <c r="AS343">
+        <v>1.31</v>
+      </c>
+      <c r="AT343">
+        <v>3.1</v>
+      </c>
+      <c r="AU343">
+        <v>6</v>
+      </c>
+      <c r="AV343">
+        <v>5</v>
+      </c>
+      <c r="AW343">
+        <v>11</v>
+      </c>
+      <c r="AX343">
+        <v>10</v>
+      </c>
+      <c r="AY343">
+        <v>18</v>
+      </c>
+      <c r="AZ343">
+        <v>15</v>
+      </c>
+      <c r="BA343">
+        <v>3</v>
+      </c>
+      <c r="BB343">
+        <v>3</v>
+      </c>
+      <c r="BC343">
+        <v>6</v>
+      </c>
+      <c r="BD343">
+        <v>0</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>0</v>
+      </c>
+      <c r="BG343">
+        <v>0</v>
+      </c>
+      <c r="BH343">
+        <v>0</v>
+      </c>
+      <c r="BI343">
+        <v>0</v>
+      </c>
+      <c r="BJ343">
+        <v>0</v>
+      </c>
+      <c r="BK343">
+        <v>0</v>
+      </c>
+      <c r="BL343">
+        <v>0</v>
+      </c>
+      <c r="BM343">
+        <v>0</v>
+      </c>
+      <c r="BN343">
+        <v>0</v>
+      </c>
+      <c r="BO343">
+        <v>0</v>
+      </c>
+      <c r="BP343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7509943</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F344">
+        <v>36</v>
+      </c>
+      <c r="G344" t="s">
+        <v>73</v>
+      </c>
+      <c r="H344" t="s">
+        <v>75</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>292</v>
+      </c>
+      <c r="P344" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q344">
+        <v>2.25</v>
+      </c>
+      <c r="R344">
+        <v>2.2</v>
+      </c>
+      <c r="S344">
+        <v>5.5</v>
+      </c>
+      <c r="T344">
+        <v>1.4</v>
+      </c>
+      <c r="U344">
+        <v>2.75</v>
+      </c>
+      <c r="V344">
+        <v>3</v>
+      </c>
+      <c r="W344">
+        <v>1.36</v>
+      </c>
+      <c r="X344">
+        <v>8</v>
+      </c>
+      <c r="Y344">
+        <v>1.08</v>
+      </c>
+      <c r="Z344">
+        <v>1.67</v>
+      </c>
+      <c r="AA344">
+        <v>3.85</v>
+      </c>
+      <c r="AB344">
+        <v>5.7</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>0</v>
+      </c>
+      <c r="AF344">
+        <v>0</v>
+      </c>
+      <c r="AG344">
+        <v>2</v>
+      </c>
+      <c r="AH344">
+        <v>1.75</v>
+      </c>
+      <c r="AI344">
+        <v>2</v>
+      </c>
+      <c r="AJ344">
+        <v>1.75</v>
+      </c>
+      <c r="AK344">
+        <v>0</v>
+      </c>
+      <c r="AL344">
+        <v>0</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AN344">
+        <v>2.25</v>
+      </c>
+      <c r="AO344">
+        <v>1.13</v>
+      </c>
+      <c r="AP344">
+        <v>2.29</v>
+      </c>
+      <c r="AQ344">
+        <v>1.06</v>
+      </c>
+      <c r="AR344">
+        <v>1.6</v>
+      </c>
+      <c r="AS344">
+        <v>1.29</v>
+      </c>
+      <c r="AT344">
+        <v>2.89</v>
+      </c>
+      <c r="AU344">
+        <v>4</v>
+      </c>
+      <c r="AV344">
+        <v>0</v>
+      </c>
+      <c r="AW344">
+        <v>9</v>
+      </c>
+      <c r="AX344">
+        <v>7</v>
+      </c>
+      <c r="AY344">
+        <v>16</v>
+      </c>
+      <c r="AZ344">
+        <v>10</v>
+      </c>
+      <c r="BA344">
+        <v>3</v>
+      </c>
+      <c r="BB344">
+        <v>3</v>
+      </c>
+      <c r="BC344">
+        <v>6</v>
+      </c>
+      <c r="BD344">
+        <v>0</v>
+      </c>
+      <c r="BE344">
+        <v>0</v>
+      </c>
+      <c r="BF344">
+        <v>0</v>
+      </c>
+      <c r="BG344">
+        <v>0</v>
+      </c>
+      <c r="BH344">
+        <v>0</v>
+      </c>
+      <c r="BI344">
+        <v>0</v>
+      </c>
+      <c r="BJ344">
+        <v>0</v>
+      </c>
+      <c r="BK344">
+        <v>0</v>
+      </c>
+      <c r="BL344">
+        <v>0</v>
+      </c>
+      <c r="BM344">
+        <v>0</v>
+      </c>
+      <c r="BN344">
+        <v>0</v>
+      </c>
+      <c r="BO344">
+        <v>0</v>
+      </c>
+      <c r="BP344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7509944</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F345">
+        <v>36</v>
+      </c>
+      <c r="G345" t="s">
+        <v>81</v>
+      </c>
+      <c r="H345" t="s">
+        <v>82</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345" t="s">
+        <v>102</v>
+      </c>
+      <c r="P345" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q345">
+        <v>3.6</v>
+      </c>
+      <c r="R345">
+        <v>2.1</v>
+      </c>
+      <c r="S345">
+        <v>3</v>
+      </c>
+      <c r="T345">
+        <v>1.4</v>
+      </c>
+      <c r="U345">
+        <v>2.75</v>
+      </c>
+      <c r="V345">
+        <v>3</v>
+      </c>
+      <c r="W345">
+        <v>1.36</v>
+      </c>
+      <c r="X345">
+        <v>9</v>
+      </c>
+      <c r="Y345">
+        <v>1.07</v>
+      </c>
+      <c r="Z345">
+        <v>3.13</v>
+      </c>
+      <c r="AA345">
+        <v>3.29</v>
+      </c>
+      <c r="AB345">
+        <v>2.43</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>1.98</v>
+      </c>
+      <c r="AH345">
+        <v>1.77</v>
+      </c>
+      <c r="AI345">
+        <v>1.8</v>
+      </c>
+      <c r="AJ345">
+        <v>1.95</v>
+      </c>
+      <c r="AK345">
+        <v>0</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>1.24</v>
+      </c>
+      <c r="AO345">
+        <v>1.75</v>
+      </c>
+      <c r="AP345">
+        <v>1.22</v>
+      </c>
+      <c r="AQ345">
+        <v>1.71</v>
+      </c>
+      <c r="AR345">
+        <v>1.4</v>
+      </c>
+      <c r="AS345">
+        <v>1.6</v>
+      </c>
+      <c r="AT345">
+        <v>3</v>
+      </c>
+      <c r="AU345">
+        <v>5</v>
+      </c>
+      <c r="AV345">
+        <v>2</v>
+      </c>
+      <c r="AW345">
+        <v>7</v>
+      </c>
+      <c r="AX345">
+        <v>8</v>
+      </c>
+      <c r="AY345">
+        <v>13</v>
+      </c>
+      <c r="AZ345">
+        <v>13</v>
+      </c>
+      <c r="BA345">
+        <v>1</v>
+      </c>
+      <c r="BB345">
+        <v>3</v>
+      </c>
+      <c r="BC345">
+        <v>4</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>0</v>
+      </c>
+      <c r="BG345">
+        <v>0</v>
+      </c>
+      <c r="BH345">
+        <v>0</v>
+      </c>
+      <c r="BI345">
+        <v>0</v>
+      </c>
+      <c r="BJ345">
+        <v>0</v>
+      </c>
+      <c r="BK345">
+        <v>0</v>
+      </c>
+      <c r="BL345">
+        <v>0</v>
+      </c>
+      <c r="BM345">
+        <v>0</v>
+      </c>
+      <c r="BN345">
+        <v>0</v>
+      </c>
+      <c r="BO345">
+        <v>0</v>
+      </c>
+      <c r="BP345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7509940</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F346">
+        <v>36</v>
+      </c>
+      <c r="G346" t="s">
+        <v>85</v>
+      </c>
+      <c r="H346" t="s">
+        <v>76</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>3</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>3</v>
+      </c>
+      <c r="O346" t="s">
+        <v>293</v>
+      </c>
+      <c r="P346" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q346">
+        <v>3.1</v>
+      </c>
+      <c r="R346">
+        <v>2.2</v>
+      </c>
+      <c r="S346">
+        <v>3.4</v>
+      </c>
+      <c r="T346">
+        <v>1.36</v>
+      </c>
+      <c r="U346">
+        <v>3</v>
+      </c>
+      <c r="V346">
+        <v>2.75</v>
+      </c>
+      <c r="W346">
+        <v>1.4</v>
+      </c>
+      <c r="X346">
+        <v>8</v>
+      </c>
+      <c r="Y346">
+        <v>1.08</v>
+      </c>
+      <c r="Z346">
+        <v>2.65</v>
+      </c>
+      <c r="AA346">
+        <v>3.19</v>
+      </c>
+      <c r="AB346">
+        <v>2.9</v>
+      </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>0</v>
+      </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
+      <c r="AG346">
+        <v>1.93</v>
+      </c>
+      <c r="AH346">
+        <v>1.88</v>
+      </c>
+      <c r="AI346">
+        <v>1.7</v>
+      </c>
+      <c r="AJ346">
+        <v>2.05</v>
+      </c>
+      <c r="AK346">
+        <v>0</v>
+      </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AN346">
+        <v>1.5</v>
+      </c>
+      <c r="AO346">
+        <v>1</v>
+      </c>
+      <c r="AP346">
+        <v>1.59</v>
+      </c>
+      <c r="AQ346">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR346">
+        <v>1.41</v>
+      </c>
+      <c r="AS346">
+        <v>1.3</v>
+      </c>
+      <c r="AT346">
+        <v>2.71</v>
+      </c>
+      <c r="AU346">
+        <v>10</v>
+      </c>
+      <c r="AV346">
+        <v>6</v>
+      </c>
+      <c r="AW346">
+        <v>13</v>
+      </c>
+      <c r="AX346">
+        <v>7</v>
+      </c>
+      <c r="AY346">
+        <v>27</v>
+      </c>
+      <c r="AZ346">
+        <v>13</v>
+      </c>
+      <c r="BA346">
+        <v>4</v>
+      </c>
+      <c r="BB346">
+        <v>5</v>
+      </c>
+      <c r="BC346">
+        <v>9</v>
+      </c>
+      <c r="BD346">
+        <v>0</v>
+      </c>
+      <c r="BE346">
+        <v>0</v>
+      </c>
+      <c r="BF346">
+        <v>0</v>
+      </c>
+      <c r="BG346">
+        <v>0</v>
+      </c>
+      <c r="BH346">
+        <v>0</v>
+      </c>
+      <c r="BI346">
+        <v>0</v>
+      </c>
+      <c r="BJ346">
+        <v>0</v>
+      </c>
+      <c r="BK346">
+        <v>0</v>
+      </c>
+      <c r="BL346">
+        <v>0</v>
+      </c>
+      <c r="BM346">
+        <v>0</v>
+      </c>
+      <c r="BN346">
+        <v>0</v>
+      </c>
+      <c r="BO346">
+        <v>0</v>
+      </c>
+      <c r="BP346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7509938</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F347">
+        <v>36</v>
+      </c>
+      <c r="G347" t="s">
+        <v>79</v>
+      </c>
+      <c r="H347" t="s">
+        <v>71</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>141</v>
+      </c>
+      <c r="P347" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q347">
+        <v>3.6</v>
+      </c>
+      <c r="R347">
+        <v>2.05</v>
+      </c>
+      <c r="S347">
+        <v>3.1</v>
+      </c>
+      <c r="T347">
+        <v>1.44</v>
+      </c>
+      <c r="U347">
+        <v>2.63</v>
+      </c>
+      <c r="V347">
+        <v>3.25</v>
+      </c>
+      <c r="W347">
+        <v>1.33</v>
+      </c>
+      <c r="X347">
+        <v>9</v>
+      </c>
+      <c r="Y347">
+        <v>1.07</v>
+      </c>
+      <c r="Z347">
+        <v>3.18</v>
+      </c>
+      <c r="AA347">
+        <v>3.32</v>
+      </c>
+      <c r="AB347">
+        <v>2.39</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+      <c r="AD347">
+        <v>0</v>
+      </c>
+      <c r="AE347">
+        <v>0</v>
+      </c>
+      <c r="AF347">
+        <v>0</v>
+      </c>
+      <c r="AG347">
+        <v>2.1</v>
+      </c>
+      <c r="AH347">
+        <v>1.6</v>
+      </c>
+      <c r="AI347">
+        <v>1.91</v>
+      </c>
+      <c r="AJ347">
+        <v>1.91</v>
+      </c>
+      <c r="AK347">
+        <v>0</v>
+      </c>
+      <c r="AL347">
+        <v>0</v>
+      </c>
+      <c r="AM347">
+        <v>0</v>
+      </c>
+      <c r="AN347">
+        <v>1.12</v>
+      </c>
+      <c r="AO347">
+        <v>1.06</v>
+      </c>
+      <c r="AP347">
+        <v>1.22</v>
+      </c>
+      <c r="AQ347">
+        <v>1</v>
+      </c>
+      <c r="AR347">
+        <v>1.51</v>
+      </c>
+      <c r="AS347">
+        <v>1.36</v>
+      </c>
+      <c r="AT347">
+        <v>2.87</v>
+      </c>
+      <c r="AU347">
+        <v>6</v>
+      </c>
+      <c r="AV347">
+        <v>4</v>
+      </c>
+      <c r="AW347">
+        <v>8</v>
+      </c>
+      <c r="AX347">
+        <v>7</v>
+      </c>
+      <c r="AY347">
+        <v>15</v>
+      </c>
+      <c r="AZ347">
+        <v>13</v>
+      </c>
+      <c r="BA347">
+        <v>2</v>
+      </c>
+      <c r="BB347">
+        <v>4</v>
+      </c>
+      <c r="BC347">
+        <v>6</v>
+      </c>
+      <c r="BD347">
+        <v>0</v>
+      </c>
+      <c r="BE347">
+        <v>0</v>
+      </c>
+      <c r="BF347">
+        <v>0</v>
+      </c>
+      <c r="BG347">
+        <v>0</v>
+      </c>
+      <c r="BH347">
+        <v>0</v>
+      </c>
+      <c r="BI347">
+        <v>0</v>
+      </c>
+      <c r="BJ347">
+        <v>0</v>
+      </c>
+      <c r="BK347">
+        <v>0</v>
+      </c>
+      <c r="BL347">
+        <v>0</v>
+      </c>
+      <c r="BM347">
+        <v>0</v>
+      </c>
+      <c r="BN347">
+        <v>0</v>
+      </c>
+      <c r="BO347">
+        <v>0</v>
+      </c>
+      <c r="BP347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7509946</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F348">
+        <v>36</v>
+      </c>
+      <c r="G348" t="s">
+        <v>83</v>
+      </c>
+      <c r="H348" t="s">
+        <v>74</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>294</v>
+      </c>
+      <c r="P348" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q348">
+        <v>2.2</v>
+      </c>
+      <c r="R348">
+        <v>2.25</v>
+      </c>
+      <c r="S348">
+        <v>5.5</v>
+      </c>
+      <c r="T348">
+        <v>1.36</v>
+      </c>
+      <c r="U348">
+        <v>3</v>
+      </c>
+      <c r="V348">
+        <v>2.75</v>
+      </c>
+      <c r="W348">
+        <v>1.4</v>
+      </c>
+      <c r="X348">
+        <v>7</v>
+      </c>
+      <c r="Y348">
+        <v>1.1</v>
+      </c>
+      <c r="Z348">
+        <v>1.67</v>
+      </c>
+      <c r="AA348">
+        <v>4</v>
+      </c>
+      <c r="AB348">
+        <v>5.4</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+      <c r="AD348">
+        <v>0</v>
+      </c>
+      <c r="AE348">
+        <v>0</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>1.92</v>
+      </c>
+      <c r="AH348">
+        <v>1.89</v>
+      </c>
+      <c r="AI348">
+        <v>1.91</v>
+      </c>
+      <c r="AJ348">
+        <v>1.91</v>
+      </c>
+      <c r="AK348">
+        <v>0</v>
+      </c>
+      <c r="AL348">
+        <v>0</v>
+      </c>
+      <c r="AM348">
+        <v>0</v>
+      </c>
+      <c r="AN348">
+        <v>2.13</v>
+      </c>
+      <c r="AO348">
+        <v>0.5</v>
+      </c>
+      <c r="AP348">
+        <v>2.18</v>
+      </c>
+      <c r="AQ348">
+        <v>0.47</v>
+      </c>
+      <c r="AR348">
+        <v>1.9</v>
+      </c>
+      <c r="AS348">
+        <v>1.21</v>
+      </c>
+      <c r="AT348">
+        <v>3.11</v>
+      </c>
+      <c r="AU348">
+        <v>7</v>
+      </c>
+      <c r="AV348">
+        <v>3</v>
+      </c>
+      <c r="AW348">
+        <v>12</v>
+      </c>
+      <c r="AX348">
+        <v>6</v>
+      </c>
+      <c r="AY348">
+        <v>21</v>
+      </c>
+      <c r="AZ348">
+        <v>10</v>
+      </c>
+      <c r="BA348">
+        <v>7</v>
+      </c>
+      <c r="BB348">
+        <v>7</v>
+      </c>
+      <c r="BC348">
+        <v>14</v>
+      </c>
+      <c r="BD348">
+        <v>0</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>0</v>
+      </c>
+      <c r="BG348">
+        <v>0</v>
+      </c>
+      <c r="BH348">
+        <v>0</v>
+      </c>
+      <c r="BI348">
+        <v>0</v>
+      </c>
+      <c r="BJ348">
+        <v>0</v>
+      </c>
+      <c r="BK348">
+        <v>0</v>
+      </c>
+      <c r="BL348">
+        <v>0</v>
+      </c>
+      <c r="BM348">
+        <v>0</v>
+      </c>
+      <c r="BN348">
+        <v>0</v>
+      </c>
+      <c r="BO348">
+        <v>0</v>
+      </c>
+      <c r="BP348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7509941</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="F349">
+        <v>36</v>
+      </c>
+      <c r="G349" t="s">
+        <v>80</v>
+      </c>
+      <c r="H349" t="s">
+        <v>77</v>
+      </c>
+      <c r="I349">
+        <v>2</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>3</v>
+      </c>
+      <c r="L349">
+        <v>2</v>
+      </c>
+      <c r="M349">
+        <v>3</v>
+      </c>
+      <c r="N349">
+        <v>5</v>
+      </c>
+      <c r="O349" t="s">
+        <v>295</v>
+      </c>
+      <c r="P349" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q349">
+        <v>2.75</v>
+      </c>
+      <c r="R349">
+        <v>2</v>
+      </c>
+      <c r="S349">
+        <v>4.5</v>
+      </c>
+      <c r="T349">
+        <v>1.5</v>
+      </c>
+      <c r="U349">
+        <v>2.5</v>
+      </c>
+      <c r="V349">
+        <v>3.5</v>
+      </c>
+      <c r="W349">
+        <v>1.29</v>
+      </c>
+      <c r="X349">
+        <v>11</v>
+      </c>
+      <c r="Y349">
+        <v>1.05</v>
+      </c>
+      <c r="Z349">
+        <v>2.05</v>
+      </c>
+      <c r="AA349">
+        <v>3.27</v>
+      </c>
+      <c r="AB349">
+        <v>4.2</v>
+      </c>
+      <c r="AC349">
+        <v>0</v>
+      </c>
+      <c r="AD349">
+        <v>0</v>
+      </c>
+      <c r="AE349">
+        <v>0</v>
+      </c>
+      <c r="AF349">
+        <v>0</v>
+      </c>
+      <c r="AG349">
+        <v>2.25</v>
+      </c>
+      <c r="AH349">
+        <v>1.53</v>
+      </c>
+      <c r="AI349">
+        <v>2.05</v>
+      </c>
+      <c r="AJ349">
+        <v>1.7</v>
+      </c>
+      <c r="AK349">
+        <v>0</v>
+      </c>
+      <c r="AL349">
+        <v>0</v>
+      </c>
+      <c r="AM349">
+        <v>0</v>
+      </c>
+      <c r="AN349">
+        <v>1.56</v>
+      </c>
+      <c r="AO349">
+        <v>0.88</v>
+      </c>
+      <c r="AP349">
+        <v>1.47</v>
+      </c>
+      <c r="AQ349">
+        <v>1</v>
+      </c>
+      <c r="AR349">
+        <v>1.47</v>
+      </c>
+      <c r="AS349">
+        <v>1.31</v>
+      </c>
+      <c r="AT349">
+        <v>2.78</v>
+      </c>
+      <c r="AU349">
+        <v>5</v>
+      </c>
+      <c r="AV349">
+        <v>6</v>
+      </c>
+      <c r="AW349">
+        <v>6</v>
+      </c>
+      <c r="AX349">
+        <v>9</v>
+      </c>
+      <c r="AY349">
+        <v>15</v>
+      </c>
+      <c r="AZ349">
+        <v>19</v>
+      </c>
+      <c r="BA349">
+        <v>1</v>
+      </c>
+      <c r="BB349">
+        <v>8</v>
+      </c>
+      <c r="BC349">
+        <v>9</v>
+      </c>
+      <c r="BD349">
+        <v>0</v>
+      </c>
+      <c r="BE349">
+        <v>0</v>
+      </c>
+      <c r="BF349">
+        <v>0</v>
+      </c>
+      <c r="BG349">
+        <v>0</v>
+      </c>
+      <c r="BH349">
+        <v>0</v>
+      </c>
+      <c r="BI349">
+        <v>0</v>
+      </c>
+      <c r="BJ349">
+        <v>0</v>
+      </c>
+      <c r="BK349">
+        <v>0</v>
+      </c>
+      <c r="BL349">
+        <v>0</v>
+      </c>
+      <c r="BM349">
+        <v>0</v>
+      </c>
+      <c r="BN349">
+        <v>0</v>
+      </c>
+      <c r="BO349">
+        <v>0</v>
+      </c>
+      <c r="BP349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7509937</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45778.51041666666</v>
+      </c>
+      <c r="F350">
+        <v>36</v>
+      </c>
+      <c r="G350" t="s">
+        <v>87</v>
+      </c>
+      <c r="H350" t="s">
+        <v>70</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>102</v>
+      </c>
+      <c r="P350" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q350">
+        <v>3.4</v>
+      </c>
+      <c r="R350">
+        <v>2.1</v>
+      </c>
+      <c r="S350">
+        <v>3.25</v>
+      </c>
+      <c r="T350">
+        <v>1.44</v>
+      </c>
+      <c r="U350">
+        <v>2.63</v>
+      </c>
+      <c r="V350">
+        <v>3.25</v>
+      </c>
+      <c r="W350">
+        <v>1.33</v>
+      </c>
+      <c r="X350">
+        <v>9</v>
+      </c>
+      <c r="Y350">
+        <v>1.07</v>
+      </c>
+      <c r="Z350">
+        <v>2.91</v>
+      </c>
+      <c r="AA350">
+        <v>3.2</v>
+      </c>
+      <c r="AB350">
+        <v>2.64</v>
+      </c>
+      <c r="AC350">
+        <v>0</v>
+      </c>
+      <c r="AD350">
+        <v>0</v>
+      </c>
+      <c r="AE350">
+        <v>1.5</v>
+      </c>
+      <c r="AF350">
+        <v>2.45</v>
+      </c>
+      <c r="AG350">
+        <v>2.05</v>
+      </c>
+      <c r="AH350">
+        <v>1.65</v>
+      </c>
+      <c r="AI350">
+        <v>1.91</v>
+      </c>
+      <c r="AJ350">
+        <v>1.91</v>
+      </c>
+      <c r="AK350">
+        <v>0</v>
+      </c>
+      <c r="AL350">
+        <v>0</v>
+      </c>
+      <c r="AM350">
+        <v>0</v>
+      </c>
+      <c r="AN350">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO350">
+        <v>1.06</v>
+      </c>
+      <c r="AP350">
+        <v>0.76</v>
+      </c>
+      <c r="AQ350">
+        <v>1.17</v>
+      </c>
+      <c r="AR350">
+        <v>1.37</v>
+      </c>
+      <c r="AS350">
+        <v>1.23</v>
+      </c>
+      <c r="AT350">
+        <v>2.6</v>
+      </c>
+      <c r="AU350">
+        <v>4</v>
+      </c>
+      <c r="AV350">
+        <v>5</v>
+      </c>
+      <c r="AW350">
+        <v>12</v>
+      </c>
+      <c r="AX350">
+        <v>7</v>
+      </c>
+      <c r="AY350">
+        <v>19</v>
+      </c>
+      <c r="AZ350">
+        <v>13</v>
+      </c>
+      <c r="BA350">
+        <v>3</v>
+      </c>
+      <c r="BB350">
+        <v>2</v>
+      </c>
+      <c r="BC350">
+        <v>5</v>
+      </c>
+      <c r="BD350">
+        <v>0</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>0</v>
+      </c>
+      <c r="BG350">
+        <v>0</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>0</v>
+      </c>
+      <c r="BJ350">
+        <v>0</v>
+      </c>
+      <c r="BK350">
+        <v>0</v>
+      </c>
+      <c r="BL350">
+        <v>0</v>
+      </c>
+      <c r="BM350">
+        <v>0</v>
+      </c>
+      <c r="BN350">
+        <v>0</v>
+      </c>
+      <c r="BO350">
+        <v>0</v>
+      </c>
+      <c r="BP350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7509945</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45778.60416666666</v>
+      </c>
+      <c r="F351">
+        <v>36</v>
+      </c>
+      <c r="G351" t="s">
+        <v>84</v>
+      </c>
+      <c r="H351" t="s">
+        <v>86</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351" t="s">
+        <v>296</v>
+      </c>
+      <c r="P351" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q351">
+        <v>2.1</v>
+      </c>
+      <c r="R351">
+        <v>2.38</v>
+      </c>
+      <c r="S351">
+        <v>5.5</v>
+      </c>
+      <c r="T351">
+        <v>1.33</v>
+      </c>
+      <c r="U351">
+        <v>3.25</v>
+      </c>
+      <c r="V351">
+        <v>2.5</v>
+      </c>
+      <c r="W351">
+        <v>1.5</v>
+      </c>
+      <c r="X351">
+        <v>6.5</v>
+      </c>
+      <c r="Y351">
+        <v>1.11</v>
+      </c>
+      <c r="Z351">
+        <v>1.59</v>
+      </c>
+      <c r="AA351">
+        <v>4.33</v>
+      </c>
+      <c r="AB351">
+        <v>5.7</v>
+      </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
+      <c r="AD351">
+        <v>0</v>
+      </c>
+      <c r="AE351">
+        <v>0</v>
+      </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
+      <c r="AG351">
+        <v>1.67</v>
+      </c>
+      <c r="AH351">
+        <v>2</v>
+      </c>
+      <c r="AI351">
+        <v>1.8</v>
+      </c>
+      <c r="AJ351">
+        <v>1.95</v>
+      </c>
+      <c r="AK351">
+        <v>0</v>
+      </c>
+      <c r="AL351">
+        <v>0</v>
+      </c>
+      <c r="AM351">
+        <v>0</v>
+      </c>
+      <c r="AN351">
+        <v>2.56</v>
+      </c>
+      <c r="AO351">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP351">
+        <v>2.59</v>
+      </c>
+      <c r="AQ351">
+        <v>0.53</v>
+      </c>
+      <c r="AR351">
+        <v>1.65</v>
+      </c>
+      <c r="AS351">
+        <v>1.17</v>
+      </c>
+      <c r="AT351">
+        <v>2.82</v>
+      </c>
+      <c r="AU351">
+        <v>9</v>
+      </c>
+      <c r="AV351">
+        <v>5</v>
+      </c>
+      <c r="AW351">
+        <v>8</v>
+      </c>
+      <c r="AX351">
+        <v>8</v>
+      </c>
+      <c r="AY351">
+        <v>19</v>
+      </c>
+      <c r="AZ351">
+        <v>14</v>
+      </c>
+      <c r="BA351">
+        <v>6</v>
+      </c>
+      <c r="BB351">
+        <v>5</v>
+      </c>
+      <c r="BC351">
+        <v>11</v>
+      </c>
+      <c r="BD351">
+        <v>0</v>
+      </c>
+      <c r="BE351">
+        <v>0</v>
+      </c>
+      <c r="BF351">
+        <v>0</v>
+      </c>
+      <c r="BG351">
+        <v>0</v>
+      </c>
+      <c r="BH351">
+        <v>0</v>
+      </c>
+      <c r="BI351">
+        <v>0</v>
+      </c>
+      <c r="BJ351">
+        <v>0</v>
+      </c>
+      <c r="BK351">
+        <v>0</v>
+      </c>
+      <c r="BL351">
+        <v>0</v>
+      </c>
+      <c r="BM351">
+        <v>0</v>
+      </c>
+      <c r="BN351">
+        <v>0</v>
+      </c>
+      <c r="BO351">
+        <v>0</v>
+      </c>
+      <c r="BP351">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="440">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -907,6 +907,30 @@
     <t>['13', '87']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['42', '88']</t>
+  </si>
+  <si>
+    <t>['45', '47']</t>
+  </si>
+  <si>
+    <t>['37', '46']</t>
+  </si>
+  <si>
+    <t>['40', '51']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['45', '68']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -917,9 +941,6 @@
   </si>
   <si>
     <t>['75', '90+4']</t>
-  </si>
-  <si>
-    <t>['38']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -1308,6 +1329,12 @@
   <si>
     <t>['15', '70', '86']</t>
   </si>
+  <si>
+    <t>['23', '50']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1668,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2008,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2133,7 +2160,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2211,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -2417,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2545,7 +2572,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2626,7 +2653,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2829,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2957,7 +2984,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3035,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ7">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3241,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>0.53</v>
@@ -3369,7 +3396,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3447,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ9">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3575,7 +3602,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3653,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3987,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4193,7 +4220,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -4271,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0.47</v>
@@ -4399,7 +4426,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4686,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR15">
         <v>1.84</v>
@@ -4889,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ16">
         <v>0.53</v>
@@ -5017,7 +5044,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5304,7 +5331,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ18">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -5635,7 +5662,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5716,7 +5743,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5919,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ21">
         <v>1.11</v>
@@ -6047,7 +6074,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6125,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ22">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -6331,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ23">
         <v>1.11</v>
@@ -6459,7 +6486,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6537,10 +6564,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
         <v>1.67</v>
@@ -6746,7 +6773,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ25">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6949,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -7077,7 +7104,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7155,10 +7182,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR27">
         <v>1.54</v>
@@ -7361,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.15</v>
@@ -7567,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
         <v>1.12</v>
@@ -7776,7 +7803,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -7982,7 +8009,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ31">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8313,7 +8340,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8394,7 +8421,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR33">
         <v>1.54</v>
@@ -8725,7 +8752,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8931,7 +8958,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9009,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -9215,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -9630,7 +9657,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9755,7 +9782,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9961,7 +9988,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10039,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ41">
         <v>0.53</v>
@@ -10167,7 +10194,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10245,10 +10272,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -10657,10 +10684,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ44">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR44">
         <v>1.6</v>
@@ -10991,7 +11018,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -11072,7 +11099,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR46">
         <v>0.96</v>
@@ -11275,10 +11302,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -11403,7 +11430,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11481,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -11609,7 +11636,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11687,10 +11714,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ49">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>0.9399999999999999</v>
@@ -11896,7 +11923,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ50">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -12021,7 +12048,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12099,10 +12126,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -12227,7 +12254,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12305,7 +12332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ52">
         <v>1.71</v>
@@ -12514,7 +12541,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -13129,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ56">
         <v>0.47</v>
@@ -13669,7 +13696,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13747,7 +13774,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13956,7 +13983,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ60">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR60">
         <v>0.97</v>
@@ -14081,7 +14108,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14287,7 +14314,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14574,7 +14601,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14777,10 +14804,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14983,7 +15010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15111,7 +15138,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15189,10 +15216,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
@@ -15398,7 +15425,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ67">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -15523,7 +15550,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15604,7 +15631,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15807,7 +15834,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.12</v>
@@ -15935,7 +15962,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16013,10 +16040,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -16141,7 +16168,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16347,7 +16374,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16631,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ73">
         <v>0.53</v>
@@ -16759,7 +16786,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16840,7 +16867,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ74">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR74">
         <v>1.29</v>
@@ -17171,7 +17198,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -17377,7 +17404,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17583,7 +17610,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17867,7 +17894,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17995,7 +18022,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18073,10 +18100,10 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18485,7 +18512,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ82">
         <v>1.12</v>
@@ -18613,7 +18640,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18691,10 +18718,10 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -18819,7 +18846,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18897,10 +18924,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -19106,7 +19133,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ85">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -19231,7 +19258,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19312,7 +19339,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19437,7 +19464,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19518,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19643,7 +19670,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19927,10 +19954,10 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ89">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -20133,7 +20160,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20261,7 +20288,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20339,10 +20366,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>1.67</v>
@@ -20751,7 +20778,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
@@ -21163,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ95">
         <v>0.47</v>
@@ -21578,7 +21605,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.32</v>
@@ -21781,10 +21808,10 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ98">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR98">
         <v>1.24</v>
@@ -21987,7 +22014,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -22193,10 +22220,10 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ100">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR100">
         <v>1.52</v>
@@ -22402,7 +22429,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ101">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22605,7 +22632,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ102">
         <v>0.53</v>
@@ -22814,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22939,7 +22966,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -23020,7 +23047,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -23145,7 +23172,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23429,10 +23456,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
@@ -23635,7 +23662,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
         <v>0.9399999999999999</v>
@@ -23841,7 +23868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>1.06</v>
@@ -24050,7 +24077,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ109">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR109">
         <v>1.52</v>
@@ -24256,7 +24283,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ110">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24668,7 +24695,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ112">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24793,7 +24820,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24871,7 +24898,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -25077,7 +25104,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ114">
         <v>1.11</v>
@@ -25283,7 +25310,7 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25489,7 +25516,7 @@
         <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ116">
         <v>1.11</v>
@@ -25823,7 +25850,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25901,10 +25928,10 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
         <v>1.42</v>
@@ -26110,7 +26137,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR119">
         <v>1.61</v>
@@ -26522,7 +26549,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ121">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR121">
         <v>1.35</v>
@@ -26647,7 +26674,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26725,10 +26752,10 @@
         <v>1.57</v>
       </c>
       <c r="AP122">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ122">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26931,10 +26958,10 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -27140,7 +27167,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR124">
         <v>1.36</v>
@@ -27471,7 +27498,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27552,7 +27579,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27883,7 +27910,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27964,7 +27991,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -28089,7 +28116,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -28295,7 +28322,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28373,7 +28400,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ130">
         <v>1.12</v>
@@ -28501,7 +28528,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28579,7 +28606,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28707,7 +28734,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28788,7 +28815,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.56</v>
@@ -29403,10 +29430,10 @@
         <v>1.83</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ135">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR135">
         <v>1.13</v>
@@ -29531,7 +29558,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29609,10 +29636,10 @@
         <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ136">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR136">
         <v>1.26</v>
@@ -29815,7 +29842,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -29943,7 +29970,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30021,10 +30048,10 @@
         <v>1.29</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR138">
         <v>1.4</v>
@@ -30433,7 +30460,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
         <v>1.06</v>
@@ -30561,7 +30588,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30642,7 +30669,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR141">
         <v>1.62</v>
@@ -30767,7 +30794,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30845,10 +30872,10 @@
         <v>2.14</v>
       </c>
       <c r="AP142">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ142">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR142">
         <v>1.2</v>
@@ -30973,7 +31000,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -31179,7 +31206,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31257,7 +31284,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
         <v>1.71</v>
@@ -31591,7 +31618,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31878,7 +31905,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.21</v>
@@ -32084,7 +32111,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -32209,7 +32236,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -32290,7 +32317,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -32415,7 +32442,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32493,7 +32520,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32699,7 +32726,7 @@
         <v>0.57</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ151">
         <v>0.53</v>
@@ -32827,7 +32854,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -33111,7 +33138,7 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ153">
         <v>0.9399999999999999</v>
@@ -33317,10 +33344,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ154">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33445,7 +33472,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33526,7 +33553,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ155">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR155">
         <v>1.27</v>
@@ -33857,7 +33884,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34141,7 +34168,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ158">
         <v>1.17</v>
@@ -34269,7 +34296,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34347,7 +34374,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34556,7 +34583,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ160">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -34762,7 +34789,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR161">
         <v>1.67</v>
@@ -35093,7 +35120,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35171,10 +35198,10 @@
         <v>0.38</v>
       </c>
       <c r="AP163">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ163">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR163">
         <v>1.43</v>
@@ -35377,10 +35404,10 @@
         <v>0.63</v>
       </c>
       <c r="AP164">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.25</v>
@@ -35505,7 +35532,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35583,10 +35610,10 @@
         <v>2.25</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ165">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.36</v>
@@ -35789,10 +35816,10 @@
         <v>1.43</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35998,7 +36025,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -36123,7 +36150,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36741,7 +36768,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36819,7 +36846,7 @@
         <v>1.38</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ171">
         <v>1.11</v>
@@ -37025,7 +37052,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ172">
         <v>1.17</v>
@@ -37234,7 +37261,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ173">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -37437,7 +37464,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ174">
         <v>1.11</v>
@@ -37643,10 +37670,10 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ175">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR175">
         <v>1.25</v>
@@ -38058,7 +38085,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR177">
         <v>1.48</v>
@@ -38183,7 +38210,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38389,7 +38416,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38467,10 +38494,10 @@
         <v>1.33</v>
       </c>
       <c r="AP179">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ179">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38879,10 +38906,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ181">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -39088,7 +39115,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ182">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -39291,7 +39318,7 @@
         <v>1.56</v>
       </c>
       <c r="AP183">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ183">
         <v>1.11</v>
@@ -39419,7 +39446,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39500,7 +39527,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ184">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR184">
         <v>1.68</v>
@@ -39625,7 +39652,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39703,10 +39730,10 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR185">
         <v>1.43</v>
@@ -40115,7 +40142,7 @@
         <v>1.56</v>
       </c>
       <c r="AP187">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ187">
         <v>1.71</v>
@@ -40243,7 +40270,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40324,7 +40351,7 @@
         <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.56</v>
@@ -40527,7 +40554,7 @@
         <v>0.75</v>
       </c>
       <c r="AP189">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ189">
         <v>0.47</v>
@@ -40861,7 +40888,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41067,7 +41094,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41145,7 +41172,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ192">
         <v>1.17</v>
@@ -41351,10 +41378,10 @@
         <v>1.5</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR193">
         <v>1.34</v>
@@ -41557,7 +41584,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ194">
         <v>0.9399999999999999</v>
@@ -41766,7 +41793,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ195">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR195">
         <v>1.65</v>
@@ -42097,7 +42124,7 @@
         <v>102</v>
       </c>
       <c r="P197" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -42384,7 +42411,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ198">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR198">
         <v>1.28</v>
@@ -42587,7 +42614,7 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ199">
         <v>0.47</v>
@@ -42715,7 +42742,7 @@
         <v>149</v>
       </c>
       <c r="P200" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q200">
         <v>2.63</v>
@@ -43002,7 +43029,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ201">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR201">
         <v>1.5</v>
@@ -43127,7 +43154,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43205,10 +43232,10 @@
         <v>2.1</v>
       </c>
       <c r="AP202">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ202">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR202">
         <v>1.7</v>
@@ -43411,7 +43438,7 @@
         <v>1.11</v>
       </c>
       <c r="AP203">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -43539,7 +43566,7 @@
         <v>216</v>
       </c>
       <c r="P204" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q204">
         <v>3.4</v>
@@ -43617,7 +43644,7 @@
         <v>1.11</v>
       </c>
       <c r="AP204">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ204">
         <v>1.12</v>
@@ -43826,7 +43853,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ205">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.88</v>
@@ -44157,7 +44184,7 @@
         <v>218</v>
       </c>
       <c r="P207" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44238,7 +44265,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ207">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR207">
         <v>1.56</v>
@@ -44363,7 +44390,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44441,7 +44468,7 @@
         <v>1.7</v>
       </c>
       <c r="AP208">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ208">
         <v>1.71</v>
@@ -44647,10 +44674,10 @@
         <v>1.2</v>
       </c>
       <c r="AP209">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ209">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -44856,7 +44883,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR210">
         <v>1.56</v>
@@ -45187,7 +45214,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45393,7 +45420,7 @@
         <v>112</v>
       </c>
       <c r="P213" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q213">
         <v>2.7</v>
@@ -45474,7 +45501,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ213">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR213">
         <v>1.3</v>
@@ -45677,10 +45704,10 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ214">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR214">
         <v>1.56</v>
@@ -46011,7 +46038,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q216">
         <v>2.87</v>
@@ -46089,7 +46116,7 @@
         <v>1.2</v>
       </c>
       <c r="AP216">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ216">
         <v>1</v>
@@ -46217,7 +46244,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46295,7 +46322,7 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ217">
         <v>1.17</v>
@@ -46501,10 +46528,10 @@
         <v>1.7</v>
       </c>
       <c r="AP218">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR218">
         <v>1.25</v>
@@ -46835,7 +46862,7 @@
         <v>224</v>
       </c>
       <c r="P220" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q220">
         <v>2.05</v>
@@ -47041,7 +47068,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47119,10 +47146,10 @@
         <v>1.36</v>
       </c>
       <c r="AP221">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ221">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR221">
         <v>1.33</v>
@@ -47247,7 +47274,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47328,7 +47355,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR222">
         <v>1.73</v>
@@ -47659,7 +47686,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47737,7 +47764,7 @@
         <v>0.91</v>
       </c>
       <c r="AP224">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ224">
         <v>1.11</v>
@@ -47943,7 +47970,7 @@
         <v>1.1</v>
       </c>
       <c r="AP225">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ225">
         <v>1</v>
@@ -48071,7 +48098,7 @@
         <v>102</v>
       </c>
       <c r="P226" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q226">
         <v>2.95</v>
@@ -48152,7 +48179,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ226">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR226">
         <v>1.51</v>
@@ -48277,7 +48304,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48358,7 +48385,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ227">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR227">
         <v>1.29</v>
@@ -48483,7 +48510,7 @@
         <v>111</v>
       </c>
       <c r="P228" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q228">
         <v>2.9</v>
@@ -48973,10 +49000,10 @@
         <v>1.09</v>
       </c>
       <c r="AP230">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ230">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR230">
         <v>1.34</v>
@@ -49101,7 +49128,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49179,10 +49206,10 @@
         <v>0.82</v>
       </c>
       <c r="AP231">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>1.71</v>
@@ -49307,7 +49334,7 @@
         <v>112</v>
       </c>
       <c r="P232" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49388,7 +49415,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR232">
         <v>1.79</v>
@@ -49594,7 +49621,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ233">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR233">
         <v>1.42</v>
@@ -49925,7 +49952,7 @@
         <v>102</v>
       </c>
       <c r="P235" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>4.75</v>
@@ -50006,7 +50033,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ235">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR235">
         <v>1.39</v>
@@ -50131,7 +50158,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50209,7 +50236,7 @@
         <v>0.73</v>
       </c>
       <c r="AP236">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ236">
         <v>0.9399999999999999</v>
@@ -50418,7 +50445,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ237">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR237">
         <v>1.46</v>
@@ -50621,7 +50648,7 @@
         <v>1.82</v>
       </c>
       <c r="AP238">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ238">
         <v>1.71</v>
@@ -50749,7 +50776,7 @@
         <v>235</v>
       </c>
       <c r="P239" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -50827,7 +50854,7 @@
         <v>1</v>
       </c>
       <c r="AP239">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ239">
         <v>1.17</v>
@@ -51033,7 +51060,7 @@
         <v>1.09</v>
       </c>
       <c r="AP240">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ240">
         <v>1</v>
@@ -51161,7 +51188,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51239,7 +51266,7 @@
         <v>0.91</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ241">
         <v>1.06</v>
@@ -51654,7 +51681,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ243">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR243">
         <v>1.47</v>
@@ -51779,7 +51806,7 @@
         <v>102</v>
       </c>
       <c r="P244" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q244">
         <v>4.75</v>
@@ -51860,7 +51887,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ244">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR244">
         <v>1.33</v>
@@ -52063,7 +52090,7 @@
         <v>1.27</v>
       </c>
       <c r="AP245">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ245">
         <v>1.12</v>
@@ -52478,7 +52505,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ247">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR247">
         <v>1.4</v>
@@ -52681,7 +52708,7 @@
         <v>1.08</v>
       </c>
       <c r="AP248">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
         <v>1.11</v>
@@ -52887,7 +52914,7 @@
         <v>0.67</v>
       </c>
       <c r="AP249">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ249">
         <v>0.9399999999999999</v>
@@ -53015,7 +53042,7 @@
         <v>240</v>
       </c>
       <c r="P250" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q250">
         <v>2.6</v>
@@ -53096,7 +53123,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ250">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR250">
         <v>1.79</v>
@@ -53505,10 +53532,10 @@
         <v>1.46</v>
       </c>
       <c r="AP252">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ252">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR252">
         <v>1.3</v>
@@ -53633,7 +53660,7 @@
         <v>242</v>
       </c>
       <c r="P253" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q253">
         <v>3.4</v>
@@ -53711,10 +53738,10 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ253">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR253">
         <v>1.42</v>
@@ -53920,7 +53947,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ254">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -54329,7 +54356,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ256">
         <v>0.47</v>
@@ -54535,7 +54562,7 @@
         <v>1.67</v>
       </c>
       <c r="AP257">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ257">
         <v>1.71</v>
@@ -54741,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ258">
         <v>1</v>
@@ -54950,7 +54977,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ259">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR259">
         <v>1.26</v>
@@ -55075,7 +55102,7 @@
         <v>247</v>
       </c>
       <c r="P260" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55156,7 +55183,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ260">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR260">
         <v>1.76</v>
@@ -55359,10 +55386,10 @@
         <v>1.75</v>
       </c>
       <c r="AP261">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ261">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR261">
         <v>1.47</v>
@@ -55568,7 +55595,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ262">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR262">
         <v>1.44</v>
@@ -55693,7 +55720,7 @@
         <v>102</v>
       </c>
       <c r="P263" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q263">
         <v>3.5</v>
@@ -55774,7 +55801,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ263">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR263">
         <v>1.4</v>
@@ -56311,7 +56338,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56389,7 +56416,7 @@
         <v>0.46</v>
       </c>
       <c r="AP266">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ266">
         <v>0.53</v>
@@ -56517,7 +56544,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -56595,7 +56622,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -56723,7 +56750,7 @@
         <v>102</v>
       </c>
       <c r="P268" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56804,7 +56831,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ268">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR268">
         <v>1.56</v>
@@ -57419,7 +57446,7 @@
         <v>0.83</v>
       </c>
       <c r="AP271">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ271">
         <v>1.06</v>
@@ -57625,10 +57652,10 @@
         <v>1.57</v>
       </c>
       <c r="AP272">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ272">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR272">
         <v>1.47</v>
@@ -57753,7 +57780,7 @@
         <v>253</v>
       </c>
       <c r="P273" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q273">
         <v>4.2</v>
@@ -57831,7 +57858,7 @@
         <v>1.62</v>
       </c>
       <c r="AP273">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ273">
         <v>1.71</v>
@@ -58037,7 +58064,7 @@
         <v>0.54</v>
       </c>
       <c r="AP274">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ274">
         <v>0.47</v>
@@ -58165,7 +58192,7 @@
         <v>255</v>
       </c>
       <c r="P275" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q275">
         <v>2.7</v>
@@ -58243,10 +58270,10 @@
         <v>0.71</v>
       </c>
       <c r="AP275">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ275">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR275">
         <v>1.45</v>
@@ -58452,7 +58479,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ276">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR276">
         <v>1.25</v>
@@ -58658,7 +58685,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ277">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR277">
         <v>1.68</v>
@@ -58989,7 +59016,7 @@
         <v>235</v>
       </c>
       <c r="P279" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q279">
         <v>2.8</v>
@@ -59067,7 +59094,7 @@
         <v>1</v>
       </c>
       <c r="AP279">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ279">
         <v>1</v>
@@ -59276,7 +59303,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ280">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR280">
         <v>1.4</v>
@@ -59401,7 +59428,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -59479,10 +59506,10 @@
         <v>0.92</v>
       </c>
       <c r="AP281">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ281">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR281">
         <v>1.38</v>
@@ -59891,7 +59918,7 @@
         <v>1.38</v>
       </c>
       <c r="AP283">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ283">
         <v>1.12</v>
@@ -60303,10 +60330,10 @@
         <v>0.93</v>
       </c>
       <c r="AP285">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ285">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR285">
         <v>1.71</v>
@@ -60509,7 +60536,7 @@
         <v>0.85</v>
       </c>
       <c r="AP286">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ286">
         <v>1.06</v>
@@ -60718,7 +60745,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ287">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR287">
         <v>1.39</v>
@@ -60843,7 +60870,7 @@
         <v>231</v>
       </c>
       <c r="P288" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -61255,7 +61282,7 @@
         <v>260</v>
       </c>
       <c r="P290" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61336,7 +61363,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ290">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR290">
         <v>1.93</v>
@@ -61461,7 +61488,7 @@
         <v>245</v>
       </c>
       <c r="P291" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61667,7 +61694,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61954,7 +61981,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR293">
         <v>1.27</v>
@@ -62157,7 +62184,7 @@
         <v>1</v>
       </c>
       <c r="AP294">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ294">
         <v>1.17</v>
@@ -62285,7 +62312,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q295">
         <v>4.5</v>
@@ -62366,7 +62393,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ295">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR295">
         <v>1.39</v>
@@ -62569,10 +62596,10 @@
         <v>1.53</v>
       </c>
       <c r="AP296">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ296">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR296">
         <v>1.45</v>
@@ -62775,7 +62802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP297">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ297">
         <v>0.47</v>
@@ -62984,7 +63011,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ298">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR298">
         <v>1.5</v>
@@ -63109,7 +63136,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63187,10 +63214,10 @@
         <v>0.93</v>
       </c>
       <c r="AP299">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ299">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR299">
         <v>1.31</v>
@@ -63315,7 +63342,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63393,7 +63420,7 @@
         <v>0.5</v>
       </c>
       <c r="AP300">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ300">
         <v>0.53</v>
@@ -63599,10 +63626,10 @@
         <v>0.79</v>
       </c>
       <c r="AP301">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ301">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR301">
         <v>1.38</v>
@@ -63727,7 +63754,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -63933,7 +63960,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q303">
         <v>2.88</v>
@@ -64345,7 +64372,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64551,7 +64578,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q306">
         <v>4.33</v>
@@ -64632,7 +64659,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ306">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR306">
         <v>1.57</v>
@@ -64757,7 +64784,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -64835,10 +64862,10 @@
         <v>1.47</v>
       </c>
       <c r="AP307">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ307">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR307">
         <v>1.85</v>
@@ -64963,7 +64990,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65169,7 +65196,7 @@
         <v>200</v>
       </c>
       <c r="P309" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q309">
         <v>3.25</v>
@@ -65247,7 +65274,7 @@
         <v>1.07</v>
       </c>
       <c r="AP309">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ309">
         <v>1.11</v>
@@ -65453,7 +65480,7 @@
         <v>1.14</v>
       </c>
       <c r="AP310">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ310">
         <v>1</v>
@@ -65581,7 +65608,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65659,10 +65686,10 @@
         <v>1.13</v>
       </c>
       <c r="AP311">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ311">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR311">
         <v>1.72</v>
@@ -65787,7 +65814,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65865,7 +65892,7 @@
         <v>1.67</v>
       </c>
       <c r="AP312">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ312">
         <v>1.71</v>
@@ -66071,7 +66098,7 @@
         <v>1</v>
       </c>
       <c r="AP313">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ313">
         <v>0.9399999999999999</v>
@@ -66199,7 +66226,7 @@
         <v>275</v>
       </c>
       <c r="P314" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q314">
         <v>2.88</v>
@@ -66280,7 +66307,7 @@
         <v>1</v>
       </c>
       <c r="AQ314">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR314">
         <v>1.68</v>
@@ -66611,7 +66638,7 @@
         <v>276</v>
       </c>
       <c r="P316" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q316">
         <v>2.63</v>
@@ -66689,10 +66716,10 @@
         <v>0.73</v>
       </c>
       <c r="AP316">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ316">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR316">
         <v>1.44</v>
@@ -66817,7 +66844,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -66898,7 +66925,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ317">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR317">
         <v>1.56</v>
@@ -67229,7 +67256,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q319">
         <v>3</v>
@@ -67307,7 +67334,7 @@
         <v>1.07</v>
       </c>
       <c r="AP319">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ319">
         <v>1</v>
@@ -67435,7 +67462,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q320">
         <v>3.25</v>
@@ -67516,7 +67543,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ320">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR320">
         <v>1.8</v>
@@ -67722,7 +67749,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ321">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR321">
         <v>1.92</v>
@@ -67847,7 +67874,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -67925,10 +67952,10 @@
         <v>1.25</v>
       </c>
       <c r="AP322">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ322">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR322">
         <v>1.36</v>
@@ -68131,7 +68158,7 @@
         <v>1.06</v>
       </c>
       <c r="AP323">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ323">
         <v>1.11</v>
@@ -68259,7 +68286,7 @@
         <v>282</v>
       </c>
       <c r="P324" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q324">
         <v>3.1</v>
@@ -68337,7 +68364,7 @@
         <v>1.2</v>
       </c>
       <c r="AP324">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ324">
         <v>1.12</v>
@@ -68671,7 +68698,7 @@
         <v>102</v>
       </c>
       <c r="P326" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q326">
         <v>4.33</v>
@@ -68749,10 +68776,10 @@
         <v>1.56</v>
       </c>
       <c r="AP326">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ326">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR326">
         <v>1.33</v>
@@ -68958,7 +68985,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ327">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR327">
         <v>1.41</v>
@@ -69083,7 +69110,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69164,7 +69191,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ328">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR328">
         <v>1.43</v>
@@ -69289,7 +69316,7 @@
         <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q329">
         <v>2.38</v>
@@ -69367,7 +69394,7 @@
         <v>1.19</v>
       </c>
       <c r="AP329">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ329">
         <v>1.11</v>
@@ -69573,7 +69600,7 @@
         <v>1.13</v>
       </c>
       <c r="AP330">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ330">
         <v>1.06</v>
@@ -69701,7 +69728,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69782,7 +69809,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ331">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR331">
         <v>1.3</v>
@@ -69907,7 +69934,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -69985,10 +70012,10 @@
         <v>1.47</v>
       </c>
       <c r="AP332">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ332">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR332">
         <v>1.46</v>
@@ -70191,10 +70218,10 @@
         <v>0.75</v>
       </c>
       <c r="AP333">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ333">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR333">
         <v>1.69</v>
@@ -70397,10 +70424,10 @@
         <v>0.88</v>
       </c>
       <c r="AP334">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ334">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR334">
         <v>1.37</v>
@@ -70525,7 +70552,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q335">
         <v>4.33</v>
@@ -70606,7 +70633,7 @@
         <v>1</v>
       </c>
       <c r="AQ335">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AR335">
         <v>1.69</v>
@@ -70731,7 +70758,7 @@
         <v>221</v>
       </c>
       <c r="P336" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q336">
         <v>3.25</v>
@@ -70809,10 +70836,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP336">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ336">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR336">
         <v>1.37</v>
@@ -70937,7 +70964,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q337">
         <v>2.75</v>
@@ -71015,10 +71042,10 @@
         <v>1.35</v>
       </c>
       <c r="AP337">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ337">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AR337">
         <v>1.3</v>
@@ -71143,7 +71170,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71221,10 +71248,10 @@
         <v>0.76</v>
       </c>
       <c r="AP338">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ338">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR338">
         <v>1.85</v>
@@ -71349,7 +71376,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71427,10 +71454,10 @@
         <v>2</v>
       </c>
       <c r="AP339">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ339">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR339">
         <v>1.39</v>
@@ -71633,7 +71660,7 @@
         <v>1.18</v>
       </c>
       <c r="AP340">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ340">
         <v>1.11</v>
@@ -71761,7 +71788,7 @@
         <v>228</v>
       </c>
       <c r="P341" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q341">
         <v>3.25</v>
@@ -71839,10 +71866,10 @@
         <v>1.18</v>
       </c>
       <c r="AP341">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ341">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AR341">
         <v>1.39</v>
@@ -72173,7 +72200,7 @@
         <v>274</v>
       </c>
       <c r="P343" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q343">
         <v>2.5</v>
@@ -73409,7 +73436,7 @@
         <v>295</v>
       </c>
       <c r="P349" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q349">
         <v>2.75</v>
@@ -73977,6 +74004,2066 @@
         <v>0</v>
       </c>
       <c r="BP351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7509947</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F352">
+        <v>37</v>
+      </c>
+      <c r="G352" t="s">
+        <v>71</v>
+      </c>
+      <c r="H352" t="s">
+        <v>73</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352" t="s">
+        <v>297</v>
+      </c>
+      <c r="P352" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q352">
+        <v>4</v>
+      </c>
+      <c r="R352">
+        <v>2.05</v>
+      </c>
+      <c r="S352">
+        <v>2.88</v>
+      </c>
+      <c r="T352">
+        <v>1.44</v>
+      </c>
+      <c r="U352">
+        <v>2.63</v>
+      </c>
+      <c r="V352">
+        <v>3.25</v>
+      </c>
+      <c r="W352">
+        <v>1.33</v>
+      </c>
+      <c r="X352">
+        <v>10</v>
+      </c>
+      <c r="Y352">
+        <v>1.06</v>
+      </c>
+      <c r="Z352">
+        <v>3.06</v>
+      </c>
+      <c r="AA352">
+        <v>3.1</v>
+      </c>
+      <c r="AB352">
+        <v>2.37</v>
+      </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
+      <c r="AD352">
+        <v>0</v>
+      </c>
+      <c r="AE352">
+        <v>2.19</v>
+      </c>
+      <c r="AF352">
+        <v>1.66</v>
+      </c>
+      <c r="AG352">
+        <v>2.1</v>
+      </c>
+      <c r="AH352">
+        <v>1.6</v>
+      </c>
+      <c r="AI352">
+        <v>1.95</v>
+      </c>
+      <c r="AJ352">
+        <v>1.8</v>
+      </c>
+      <c r="AK352">
+        <v>0</v>
+      </c>
+      <c r="AL352">
+        <v>0</v>
+      </c>
+      <c r="AM352">
+        <v>0</v>
+      </c>
+      <c r="AN352">
+        <v>1.5</v>
+      </c>
+      <c r="AO352">
+        <v>1.72</v>
+      </c>
+      <c r="AP352">
+        <v>1.58</v>
+      </c>
+      <c r="AQ352">
+        <v>1.63</v>
+      </c>
+      <c r="AR352">
+        <v>1.4</v>
+      </c>
+      <c r="AS352">
+        <v>1.21</v>
+      </c>
+      <c r="AT352">
+        <v>2.61</v>
+      </c>
+      <c r="AU352">
+        <v>3</v>
+      </c>
+      <c r="AV352">
+        <v>6</v>
+      </c>
+      <c r="AW352">
+        <v>6</v>
+      </c>
+      <c r="AX352">
+        <v>11</v>
+      </c>
+      <c r="AY352">
+        <v>10</v>
+      </c>
+      <c r="AZ352">
+        <v>18</v>
+      </c>
+      <c r="BA352">
+        <v>5</v>
+      </c>
+      <c r="BB352">
+        <v>5</v>
+      </c>
+      <c r="BC352">
+        <v>10</v>
+      </c>
+      <c r="BD352">
+        <v>0</v>
+      </c>
+      <c r="BE352">
+        <v>0</v>
+      </c>
+      <c r="BF352">
+        <v>0</v>
+      </c>
+      <c r="BG352">
+        <v>0</v>
+      </c>
+      <c r="BH352">
+        <v>0</v>
+      </c>
+      <c r="BI352">
+        <v>0</v>
+      </c>
+      <c r="BJ352">
+        <v>0</v>
+      </c>
+      <c r="BK352">
+        <v>0</v>
+      </c>
+      <c r="BL352">
+        <v>0</v>
+      </c>
+      <c r="BM352">
+        <v>0</v>
+      </c>
+      <c r="BN352">
+        <v>0</v>
+      </c>
+      <c r="BO352">
+        <v>0</v>
+      </c>
+      <c r="BP352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7509948</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F353">
+        <v>37</v>
+      </c>
+      <c r="G353" t="s">
+        <v>70</v>
+      </c>
+      <c r="H353" t="s">
+        <v>88</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353" t="s">
+        <v>102</v>
+      </c>
+      <c r="P353" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q353">
+        <v>3.6</v>
+      </c>
+      <c r="R353">
+        <v>2</v>
+      </c>
+      <c r="S353">
+        <v>3.25</v>
+      </c>
+      <c r="T353">
+        <v>1.5</v>
+      </c>
+      <c r="U353">
+        <v>2.5</v>
+      </c>
+      <c r="V353">
+        <v>3.4</v>
+      </c>
+      <c r="W353">
+        <v>1.3</v>
+      </c>
+      <c r="X353">
+        <v>10</v>
+      </c>
+      <c r="Y353">
+        <v>1.06</v>
+      </c>
+      <c r="Z353">
+        <v>2.33</v>
+      </c>
+      <c r="AA353">
+        <v>3.12</v>
+      </c>
+      <c r="AB353">
+        <v>3.11</v>
+      </c>
+      <c r="AC353">
+        <v>1.92</v>
+      </c>
+      <c r="AD353">
+        <v>1.85</v>
+      </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
+      <c r="AG353">
+        <v>2.1</v>
+      </c>
+      <c r="AH353">
+        <v>1.6</v>
+      </c>
+      <c r="AI353">
+        <v>1.95</v>
+      </c>
+      <c r="AJ353">
+        <v>1.8</v>
+      </c>
+      <c r="AK353">
+        <v>0</v>
+      </c>
+      <c r="AL353">
+        <v>0</v>
+      </c>
+      <c r="AM353">
+        <v>0</v>
+      </c>
+      <c r="AN353">
+        <v>1</v>
+      </c>
+      <c r="AO353">
+        <v>1.11</v>
+      </c>
+      <c r="AP353">
+        <v>1</v>
+      </c>
+      <c r="AQ353">
+        <v>1.11</v>
+      </c>
+      <c r="AR353">
+        <v>1.66</v>
+      </c>
+      <c r="AS353">
+        <v>1.12</v>
+      </c>
+      <c r="AT353">
+        <v>2.78</v>
+      </c>
+      <c r="AU353">
+        <v>6</v>
+      </c>
+      <c r="AV353">
+        <v>3</v>
+      </c>
+      <c r="AW353">
+        <v>11</v>
+      </c>
+      <c r="AX353">
+        <v>5</v>
+      </c>
+      <c r="AY353">
+        <v>21</v>
+      </c>
+      <c r="AZ353">
+        <v>9</v>
+      </c>
+      <c r="BA353">
+        <v>3</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>4</v>
+      </c>
+      <c r="BD353">
+        <v>0</v>
+      </c>
+      <c r="BE353">
+        <v>0</v>
+      </c>
+      <c r="BF353">
+        <v>0</v>
+      </c>
+      <c r="BG353">
+        <v>0</v>
+      </c>
+      <c r="BH353">
+        <v>0</v>
+      </c>
+      <c r="BI353">
+        <v>0</v>
+      </c>
+      <c r="BJ353">
+        <v>0</v>
+      </c>
+      <c r="BK353">
+        <v>0</v>
+      </c>
+      <c r="BL353">
+        <v>0</v>
+      </c>
+      <c r="BM353">
+        <v>0</v>
+      </c>
+      <c r="BN353">
+        <v>0</v>
+      </c>
+      <c r="BO353">
+        <v>0</v>
+      </c>
+      <c r="BP353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7509949</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F354">
+        <v>37</v>
+      </c>
+      <c r="G354" t="s">
+        <v>86</v>
+      </c>
+      <c r="H354" t="s">
+        <v>80</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354">
+        <v>2</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>3</v>
+      </c>
+      <c r="O354" t="s">
+        <v>298</v>
+      </c>
+      <c r="P354" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q354">
+        <v>2.88</v>
+      </c>
+      <c r="R354">
+        <v>2.1</v>
+      </c>
+      <c r="S354">
+        <v>3.75</v>
+      </c>
+      <c r="T354">
+        <v>1.4</v>
+      </c>
+      <c r="U354">
+        <v>2.75</v>
+      </c>
+      <c r="V354">
+        <v>3</v>
+      </c>
+      <c r="W354">
+        <v>1.36</v>
+      </c>
+      <c r="X354">
+        <v>8</v>
+      </c>
+      <c r="Y354">
+        <v>1.08</v>
+      </c>
+      <c r="Z354">
+        <v>2.78</v>
+      </c>
+      <c r="AA354">
+        <v>2.85</v>
+      </c>
+      <c r="AB354">
+        <v>2.78</v>
+      </c>
+      <c r="AC354">
+        <v>0</v>
+      </c>
+      <c r="AD354">
+        <v>0</v>
+      </c>
+      <c r="AE354">
+        <v>0</v>
+      </c>
+      <c r="AF354">
+        <v>0</v>
+      </c>
+      <c r="AG354">
+        <v>1.79</v>
+      </c>
+      <c r="AH354">
+        <v>1.95</v>
+      </c>
+      <c r="AI354">
+        <v>1.8</v>
+      </c>
+      <c r="AJ354">
+        <v>1.95</v>
+      </c>
+      <c r="AK354">
+        <v>0</v>
+      </c>
+      <c r="AL354">
+        <v>0</v>
+      </c>
+      <c r="AM354">
+        <v>0</v>
+      </c>
+      <c r="AN354">
+        <v>1.78</v>
+      </c>
+      <c r="AO354">
+        <v>1.06</v>
+      </c>
+      <c r="AP354">
+        <v>1.84</v>
+      </c>
+      <c r="AQ354">
+        <v>1</v>
+      </c>
+      <c r="AR354">
+        <v>1.36</v>
+      </c>
+      <c r="AS354">
+        <v>1.26</v>
+      </c>
+      <c r="AT354">
+        <v>2.62</v>
+      </c>
+      <c r="AU354">
+        <v>4</v>
+      </c>
+      <c r="AV354">
+        <v>5</v>
+      </c>
+      <c r="AW354">
+        <v>4</v>
+      </c>
+      <c r="AX354">
+        <v>11</v>
+      </c>
+      <c r="AY354">
+        <v>9</v>
+      </c>
+      <c r="AZ354">
+        <v>17</v>
+      </c>
+      <c r="BA354">
+        <v>0</v>
+      </c>
+      <c r="BB354">
+        <v>6</v>
+      </c>
+      <c r="BC354">
+        <v>6</v>
+      </c>
+      <c r="BD354">
+        <v>0</v>
+      </c>
+      <c r="BE354">
+        <v>0</v>
+      </c>
+      <c r="BF354">
+        <v>0</v>
+      </c>
+      <c r="BG354">
+        <v>0</v>
+      </c>
+      <c r="BH354">
+        <v>0</v>
+      </c>
+      <c r="BI354">
+        <v>0</v>
+      </c>
+      <c r="BJ354">
+        <v>0</v>
+      </c>
+      <c r="BK354">
+        <v>0</v>
+      </c>
+      <c r="BL354">
+        <v>0</v>
+      </c>
+      <c r="BM354">
+        <v>0</v>
+      </c>
+      <c r="BN354">
+        <v>0</v>
+      </c>
+      <c r="BO354">
+        <v>0</v>
+      </c>
+      <c r="BP354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7509950</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F355">
+        <v>37</v>
+      </c>
+      <c r="G355" t="s">
+        <v>78</v>
+      </c>
+      <c r="H355" t="s">
+        <v>81</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>2</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>2</v>
+      </c>
+      <c r="N355">
+        <v>4</v>
+      </c>
+      <c r="O355" t="s">
+        <v>299</v>
+      </c>
+      <c r="P355" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q355">
+        <v>2.88</v>
+      </c>
+      <c r="R355">
+        <v>2.2</v>
+      </c>
+      <c r="S355">
+        <v>3.75</v>
+      </c>
+      <c r="T355">
+        <v>1.4</v>
+      </c>
+      <c r="U355">
+        <v>2.75</v>
+      </c>
+      <c r="V355">
+        <v>2.75</v>
+      </c>
+      <c r="W355">
+        <v>1.4</v>
+      </c>
+      <c r="X355">
+        <v>8</v>
+      </c>
+      <c r="Y355">
+        <v>1.08</v>
+      </c>
+      <c r="Z355">
+        <v>2.68</v>
+      </c>
+      <c r="AA355">
+        <v>3.08</v>
+      </c>
+      <c r="AB355">
+        <v>2.68</v>
+      </c>
+      <c r="AC355">
+        <v>0</v>
+      </c>
+      <c r="AD355">
+        <v>0</v>
+      </c>
+      <c r="AE355">
+        <v>0</v>
+      </c>
+      <c r="AF355">
+        <v>0</v>
+      </c>
+      <c r="AG355">
+        <v>2.05</v>
+      </c>
+      <c r="AH355">
+        <v>1.7</v>
+      </c>
+      <c r="AI355">
+        <v>1.7</v>
+      </c>
+      <c r="AJ355">
+        <v>2.05</v>
+      </c>
+      <c r="AK355">
+        <v>0</v>
+      </c>
+      <c r="AL355">
+        <v>0</v>
+      </c>
+      <c r="AM355">
+        <v>0</v>
+      </c>
+      <c r="AN355">
+        <v>1.61</v>
+      </c>
+      <c r="AO355">
+        <v>0.82</v>
+      </c>
+      <c r="AP355">
+        <v>1.58</v>
+      </c>
+      <c r="AQ355">
+        <v>0.83</v>
+      </c>
+      <c r="AR355">
+        <v>1.41</v>
+      </c>
+      <c r="AS355">
+        <v>1.31</v>
+      </c>
+      <c r="AT355">
+        <v>2.72</v>
+      </c>
+      <c r="AU355">
+        <v>4</v>
+      </c>
+      <c r="AV355">
+        <v>5</v>
+      </c>
+      <c r="AW355">
+        <v>9</v>
+      </c>
+      <c r="AX355">
+        <v>2</v>
+      </c>
+      <c r="AY355">
+        <v>15</v>
+      </c>
+      <c r="AZ355">
+        <v>7</v>
+      </c>
+      <c r="BA355">
+        <v>6</v>
+      </c>
+      <c r="BB355">
+        <v>6</v>
+      </c>
+      <c r="BC355">
+        <v>12</v>
+      </c>
+      <c r="BD355">
+        <v>0</v>
+      </c>
+      <c r="BE355">
+        <v>0</v>
+      </c>
+      <c r="BF355">
+        <v>0</v>
+      </c>
+      <c r="BG355">
+        <v>0</v>
+      </c>
+      <c r="BH355">
+        <v>0</v>
+      </c>
+      <c r="BI355">
+        <v>0</v>
+      </c>
+      <c r="BJ355">
+        <v>0</v>
+      </c>
+      <c r="BK355">
+        <v>0</v>
+      </c>
+      <c r="BL355">
+        <v>0</v>
+      </c>
+      <c r="BM355">
+        <v>0</v>
+      </c>
+      <c r="BN355">
+        <v>0</v>
+      </c>
+      <c r="BO355">
+        <v>0</v>
+      </c>
+      <c r="BP355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7509951</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F356">
+        <v>37</v>
+      </c>
+      <c r="G356" t="s">
+        <v>76</v>
+      </c>
+      <c r="H356" t="s">
+        <v>89</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>300</v>
+      </c>
+      <c r="P356" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q356">
+        <v>2.88</v>
+      </c>
+      <c r="R356">
+        <v>2.1</v>
+      </c>
+      <c r="S356">
+        <v>4</v>
+      </c>
+      <c r="T356">
+        <v>1.44</v>
+      </c>
+      <c r="U356">
+        <v>2.63</v>
+      </c>
+      <c r="V356">
+        <v>3.25</v>
+      </c>
+      <c r="W356">
+        <v>1.33</v>
+      </c>
+      <c r="X356">
+        <v>9</v>
+      </c>
+      <c r="Y356">
+        <v>1.07</v>
+      </c>
+      <c r="Z356">
+        <v>2.6</v>
+      </c>
+      <c r="AA356">
+        <v>3.1</v>
+      </c>
+      <c r="AB356">
+        <v>2.76</v>
+      </c>
+      <c r="AC356">
+        <v>0</v>
+      </c>
+      <c r="AD356">
+        <v>0</v>
+      </c>
+      <c r="AE356">
+        <v>0</v>
+      </c>
+      <c r="AF356">
+        <v>0</v>
+      </c>
+      <c r="AG356">
+        <v>2</v>
+      </c>
+      <c r="AH356">
+        <v>1.65</v>
+      </c>
+      <c r="AI356">
+        <v>1.91</v>
+      </c>
+      <c r="AJ356">
+        <v>1.91</v>
+      </c>
+      <c r="AK356">
+        <v>0</v>
+      </c>
+      <c r="AL356">
+        <v>0</v>
+      </c>
+      <c r="AM356">
+        <v>0</v>
+      </c>
+      <c r="AN356">
+        <v>1.56</v>
+      </c>
+      <c r="AO356">
+        <v>1.28</v>
+      </c>
+      <c r="AP356">
+        <v>1.63</v>
+      </c>
+      <c r="AQ356">
+        <v>1.21</v>
+      </c>
+      <c r="AR356">
+        <v>1.39</v>
+      </c>
+      <c r="AS356">
+        <v>1.34</v>
+      </c>
+      <c r="AT356">
+        <v>2.73</v>
+      </c>
+      <c r="AU356">
+        <v>6</v>
+      </c>
+      <c r="AV356">
+        <v>7</v>
+      </c>
+      <c r="AW356">
+        <v>6</v>
+      </c>
+      <c r="AX356">
+        <v>14</v>
+      </c>
+      <c r="AY356">
+        <v>13</v>
+      </c>
+      <c r="AZ356">
+        <v>25</v>
+      </c>
+      <c r="BA356">
+        <v>6</v>
+      </c>
+      <c r="BB356">
+        <v>4</v>
+      </c>
+      <c r="BC356">
+        <v>10</v>
+      </c>
+      <c r="BD356">
+        <v>0</v>
+      </c>
+      <c r="BE356">
+        <v>0</v>
+      </c>
+      <c r="BF356">
+        <v>0</v>
+      </c>
+      <c r="BG356">
+        <v>0</v>
+      </c>
+      <c r="BH356">
+        <v>0</v>
+      </c>
+      <c r="BI356">
+        <v>0</v>
+      </c>
+      <c r="BJ356">
+        <v>0</v>
+      </c>
+      <c r="BK356">
+        <v>0</v>
+      </c>
+      <c r="BL356">
+        <v>0</v>
+      </c>
+      <c r="BM356">
+        <v>0</v>
+      </c>
+      <c r="BN356">
+        <v>0</v>
+      </c>
+      <c r="BO356">
+        <v>0</v>
+      </c>
+      <c r="BP356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7509954</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F357">
+        <v>37</v>
+      </c>
+      <c r="G357" t="s">
+        <v>77</v>
+      </c>
+      <c r="H357" t="s">
+        <v>83</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <v>2</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357" t="s">
+        <v>301</v>
+      </c>
+      <c r="P357" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q357">
+        <v>4</v>
+      </c>
+      <c r="R357">
+        <v>1.95</v>
+      </c>
+      <c r="S357">
+        <v>3.1</v>
+      </c>
+      <c r="T357">
+        <v>1.53</v>
+      </c>
+      <c r="U357">
+        <v>2.38</v>
+      </c>
+      <c r="V357">
+        <v>3.5</v>
+      </c>
+      <c r="W357">
+        <v>1.29</v>
+      </c>
+      <c r="X357">
+        <v>11</v>
+      </c>
+      <c r="Y357">
+        <v>1.05</v>
+      </c>
+      <c r="Z357">
+        <v>4.1</v>
+      </c>
+      <c r="AA357">
+        <v>3.36</v>
+      </c>
+      <c r="AB357">
+        <v>1.9</v>
+      </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
+      <c r="AE357">
+        <v>0</v>
+      </c>
+      <c r="AF357">
+        <v>0</v>
+      </c>
+      <c r="AG357">
+        <v>2.05</v>
+      </c>
+      <c r="AH357">
+        <v>1.65</v>
+      </c>
+      <c r="AI357">
+        <v>2</v>
+      </c>
+      <c r="AJ357">
+        <v>1.75</v>
+      </c>
+      <c r="AK357">
+        <v>0</v>
+      </c>
+      <c r="AL357">
+        <v>0</v>
+      </c>
+      <c r="AM357">
+        <v>0</v>
+      </c>
+      <c r="AN357">
+        <v>1.17</v>
+      </c>
+      <c r="AO357">
+        <v>1.44</v>
+      </c>
+      <c r="AP357">
+        <v>1.26</v>
+      </c>
+      <c r="AQ357">
+        <v>1.37</v>
+      </c>
+      <c r="AR357">
+        <v>1.3</v>
+      </c>
+      <c r="AS357">
+        <v>1.58</v>
+      </c>
+      <c r="AT357">
+        <v>2.88</v>
+      </c>
+      <c r="AU357">
+        <v>6</v>
+      </c>
+      <c r="AV357">
+        <v>2</v>
+      </c>
+      <c r="AW357">
+        <v>4</v>
+      </c>
+      <c r="AX357">
+        <v>8</v>
+      </c>
+      <c r="AY357">
+        <v>10</v>
+      </c>
+      <c r="AZ357">
+        <v>10</v>
+      </c>
+      <c r="BA357">
+        <v>3</v>
+      </c>
+      <c r="BB357">
+        <v>8</v>
+      </c>
+      <c r="BC357">
+        <v>11</v>
+      </c>
+      <c r="BD357">
+        <v>0</v>
+      </c>
+      <c r="BE357">
+        <v>0</v>
+      </c>
+      <c r="BF357">
+        <v>0</v>
+      </c>
+      <c r="BG357">
+        <v>0</v>
+      </c>
+      <c r="BH357">
+        <v>0</v>
+      </c>
+      <c r="BI357">
+        <v>0</v>
+      </c>
+      <c r="BJ357">
+        <v>0</v>
+      </c>
+      <c r="BK357">
+        <v>0</v>
+      </c>
+      <c r="BL357">
+        <v>0</v>
+      </c>
+      <c r="BM357">
+        <v>0</v>
+      </c>
+      <c r="BN357">
+        <v>0</v>
+      </c>
+      <c r="BO357">
+        <v>0</v>
+      </c>
+      <c r="BP357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7509953</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F358">
+        <v>37</v>
+      </c>
+      <c r="G358" t="s">
+        <v>75</v>
+      </c>
+      <c r="H358" t="s">
+        <v>87</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>2</v>
+      </c>
+      <c r="O358" t="s">
+        <v>164</v>
+      </c>
+      <c r="P358" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q358">
+        <v>3.1</v>
+      </c>
+      <c r="R358">
+        <v>1.95</v>
+      </c>
+      <c r="S358">
+        <v>4</v>
+      </c>
+      <c r="T358">
+        <v>1.53</v>
+      </c>
+      <c r="U358">
+        <v>2.38</v>
+      </c>
+      <c r="V358">
+        <v>3.5</v>
+      </c>
+      <c r="W358">
+        <v>1.29</v>
+      </c>
+      <c r="X358">
+        <v>11</v>
+      </c>
+      <c r="Y358">
+        <v>1.05</v>
+      </c>
+      <c r="Z358">
+        <v>1.97</v>
+      </c>
+      <c r="AA358">
+        <v>3.3</v>
+      </c>
+      <c r="AB358">
+        <v>3.85</v>
+      </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
+      <c r="AD358">
+        <v>0</v>
+      </c>
+      <c r="AE358">
+        <v>1.5</v>
+      </c>
+      <c r="AF358">
+        <v>2.45</v>
+      </c>
+      <c r="AG358">
+        <v>2.05</v>
+      </c>
+      <c r="AH358">
+        <v>1.61</v>
+      </c>
+      <c r="AI358">
+        <v>2.05</v>
+      </c>
+      <c r="AJ358">
+        <v>1.7</v>
+      </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
+      <c r="AL358">
+        <v>0</v>
+      </c>
+      <c r="AM358">
+        <v>0</v>
+      </c>
+      <c r="AN358">
+        <v>1.17</v>
+      </c>
+      <c r="AO358">
+        <v>1.28</v>
+      </c>
+      <c r="AP358">
+        <v>1.16</v>
+      </c>
+      <c r="AQ358">
+        <v>1.26</v>
+      </c>
+      <c r="AR358">
+        <v>1.44</v>
+      </c>
+      <c r="AS358">
+        <v>1.16</v>
+      </c>
+      <c r="AT358">
+        <v>2.6</v>
+      </c>
+      <c r="AU358">
+        <v>3</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>17</v>
+      </c>
+      <c r="AX358">
+        <v>9</v>
+      </c>
+      <c r="AY358">
+        <v>21</v>
+      </c>
+      <c r="AZ358">
+        <v>12</v>
+      </c>
+      <c r="BA358">
+        <v>8</v>
+      </c>
+      <c r="BB358">
+        <v>1</v>
+      </c>
+      <c r="BC358">
+        <v>9</v>
+      </c>
+      <c r="BD358">
+        <v>0</v>
+      </c>
+      <c r="BE358">
+        <v>0</v>
+      </c>
+      <c r="BF358">
+        <v>0</v>
+      </c>
+      <c r="BG358">
+        <v>0</v>
+      </c>
+      <c r="BH358">
+        <v>0</v>
+      </c>
+      <c r="BI358">
+        <v>0</v>
+      </c>
+      <c r="BJ358">
+        <v>0</v>
+      </c>
+      <c r="BK358">
+        <v>0</v>
+      </c>
+      <c r="BL358">
+        <v>0</v>
+      </c>
+      <c r="BM358">
+        <v>0</v>
+      </c>
+      <c r="BN358">
+        <v>0</v>
+      </c>
+      <c r="BO358">
+        <v>0</v>
+      </c>
+      <c r="BP358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7509955</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F359">
+        <v>37</v>
+      </c>
+      <c r="G359" t="s">
+        <v>74</v>
+      </c>
+      <c r="H359" t="s">
+        <v>85</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" t="s">
+        <v>302</v>
+      </c>
+      <c r="P359" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q359">
+        <v>3.1</v>
+      </c>
+      <c r="R359">
+        <v>2.05</v>
+      </c>
+      <c r="S359">
+        <v>3.6</v>
+      </c>
+      <c r="T359">
+        <v>1.44</v>
+      </c>
+      <c r="U359">
+        <v>2.63</v>
+      </c>
+      <c r="V359">
+        <v>3.25</v>
+      </c>
+      <c r="W359">
+        <v>1.33</v>
+      </c>
+      <c r="X359">
+        <v>9</v>
+      </c>
+      <c r="Y359">
+        <v>1.07</v>
+      </c>
+      <c r="Z359">
+        <v>2.07</v>
+      </c>
+      <c r="AA359">
+        <v>3.18</v>
+      </c>
+      <c r="AB359">
+        <v>3.68</v>
+      </c>
+      <c r="AC359">
+        <v>0</v>
+      </c>
+      <c r="AD359">
+        <v>0</v>
+      </c>
+      <c r="AE359">
+        <v>1.78</v>
+      </c>
+      <c r="AF359">
+        <v>2.02</v>
+      </c>
+      <c r="AG359">
+        <v>1.92</v>
+      </c>
+      <c r="AH359">
+        <v>1.82</v>
+      </c>
+      <c r="AI359">
+        <v>1.91</v>
+      </c>
+      <c r="AJ359">
+        <v>1.91</v>
+      </c>
+      <c r="AK359">
+        <v>0</v>
+      </c>
+      <c r="AL359">
+        <v>0</v>
+      </c>
+      <c r="AM359">
+        <v>0</v>
+      </c>
+      <c r="AN359">
+        <v>1.56</v>
+      </c>
+      <c r="AO359">
+        <v>0.72</v>
+      </c>
+      <c r="AP359">
+        <v>1.63</v>
+      </c>
+      <c r="AQ359">
+        <v>0.68</v>
+      </c>
+      <c r="AR359">
+        <v>1.7</v>
+      </c>
+      <c r="AS359">
+        <v>1.33</v>
+      </c>
+      <c r="AT359">
+        <v>3.03</v>
+      </c>
+      <c r="AU359">
+        <v>7</v>
+      </c>
+      <c r="AV359">
+        <v>3</v>
+      </c>
+      <c r="AW359">
+        <v>9</v>
+      </c>
+      <c r="AX359">
+        <v>5</v>
+      </c>
+      <c r="AY359">
+        <v>18</v>
+      </c>
+      <c r="AZ359">
+        <v>8</v>
+      </c>
+      <c r="BA359">
+        <v>-1</v>
+      </c>
+      <c r="BB359">
+        <v>-1</v>
+      </c>
+      <c r="BC359">
+        <v>-1</v>
+      </c>
+      <c r="BD359">
+        <v>0</v>
+      </c>
+      <c r="BE359">
+        <v>0</v>
+      </c>
+      <c r="BF359">
+        <v>0</v>
+      </c>
+      <c r="BG359">
+        <v>0</v>
+      </c>
+      <c r="BH359">
+        <v>0</v>
+      </c>
+      <c r="BI359">
+        <v>0</v>
+      </c>
+      <c r="BJ359">
+        <v>0</v>
+      </c>
+      <c r="BK359">
+        <v>0</v>
+      </c>
+      <c r="BL359">
+        <v>0</v>
+      </c>
+      <c r="BM359">
+        <v>0</v>
+      </c>
+      <c r="BN359">
+        <v>0</v>
+      </c>
+      <c r="BO359">
+        <v>0</v>
+      </c>
+      <c r="BP359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7509956</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F360">
+        <v>37</v>
+      </c>
+      <c r="G360" t="s">
+        <v>72</v>
+      </c>
+      <c r="H360" t="s">
+        <v>79</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>1</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>303</v>
+      </c>
+      <c r="P360" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q360">
+        <v>2.38</v>
+      </c>
+      <c r="R360">
+        <v>2.1</v>
+      </c>
+      <c r="S360">
+        <v>5.5</v>
+      </c>
+      <c r="T360">
+        <v>1.44</v>
+      </c>
+      <c r="U360">
+        <v>2.63</v>
+      </c>
+      <c r="V360">
+        <v>3.25</v>
+      </c>
+      <c r="W360">
+        <v>1.33</v>
+      </c>
+      <c r="X360">
+        <v>9</v>
+      </c>
+      <c r="Y360">
+        <v>1.07</v>
+      </c>
+      <c r="Z360">
+        <v>1.7</v>
+      </c>
+      <c r="AA360">
+        <v>3.55</v>
+      </c>
+      <c r="AB360">
+        <v>5</v>
+      </c>
+      <c r="AC360">
+        <v>0</v>
+      </c>
+      <c r="AD360">
+        <v>0</v>
+      </c>
+      <c r="AE360">
+        <v>0</v>
+      </c>
+      <c r="AF360">
+        <v>0</v>
+      </c>
+      <c r="AG360">
+        <v>2.1</v>
+      </c>
+      <c r="AH360">
+        <v>1.6</v>
+      </c>
+      <c r="AI360">
+        <v>2.05</v>
+      </c>
+      <c r="AJ360">
+        <v>1.7</v>
+      </c>
+      <c r="AK360">
+        <v>0</v>
+      </c>
+      <c r="AL360">
+        <v>0</v>
+      </c>
+      <c r="AM360">
+        <v>0</v>
+      </c>
+      <c r="AN360">
+        <v>1.24</v>
+      </c>
+      <c r="AO360">
+        <v>0.71</v>
+      </c>
+      <c r="AP360">
+        <v>1.33</v>
+      </c>
+      <c r="AQ360">
+        <v>0.67</v>
+      </c>
+      <c r="AR360">
+        <v>1.42</v>
+      </c>
+      <c r="AS360">
+        <v>1.36</v>
+      </c>
+      <c r="AT360">
+        <v>2.78</v>
+      </c>
+      <c r="AU360">
+        <v>7</v>
+      </c>
+      <c r="AV360">
+        <v>4</v>
+      </c>
+      <c r="AW360">
+        <v>9</v>
+      </c>
+      <c r="AX360">
+        <v>9</v>
+      </c>
+      <c r="AY360">
+        <v>17</v>
+      </c>
+      <c r="AZ360">
+        <v>13</v>
+      </c>
+      <c r="BA360">
+        <v>10</v>
+      </c>
+      <c r="BB360">
+        <v>3</v>
+      </c>
+      <c r="BC360">
+        <v>13</v>
+      </c>
+      <c r="BD360">
+        <v>0</v>
+      </c>
+      <c r="BE360">
+        <v>0</v>
+      </c>
+      <c r="BF360">
+        <v>0</v>
+      </c>
+      <c r="BG360">
+        <v>0</v>
+      </c>
+      <c r="BH360">
+        <v>0</v>
+      </c>
+      <c r="BI360">
+        <v>0</v>
+      </c>
+      <c r="BJ360">
+        <v>0</v>
+      </c>
+      <c r="BK360">
+        <v>0</v>
+      </c>
+      <c r="BL360">
+        <v>0</v>
+      </c>
+      <c r="BM360">
+        <v>0</v>
+      </c>
+      <c r="BN360">
+        <v>0</v>
+      </c>
+      <c r="BO360">
+        <v>0</v>
+      </c>
+      <c r="BP360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7509952</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45781.60416666666</v>
+      </c>
+      <c r="F361">
+        <v>37</v>
+      </c>
+      <c r="G361" t="s">
+        <v>82</v>
+      </c>
+      <c r="H361" t="s">
+        <v>84</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>304</v>
+      </c>
+      <c r="P361" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q361">
+        <v>3.1</v>
+      </c>
+      <c r="R361">
+        <v>2.2</v>
+      </c>
+      <c r="S361">
+        <v>3.25</v>
+      </c>
+      <c r="T361">
+        <v>1.36</v>
+      </c>
+      <c r="U361">
+        <v>3</v>
+      </c>
+      <c r="V361">
+        <v>2.63</v>
+      </c>
+      <c r="W361">
+        <v>1.44</v>
+      </c>
+      <c r="X361">
+        <v>7</v>
+      </c>
+      <c r="Y361">
+        <v>1.1</v>
+      </c>
+      <c r="Z361">
+        <v>2.12</v>
+      </c>
+      <c r="AA361">
+        <v>3.41</v>
+      </c>
+      <c r="AB361">
+        <v>3.27</v>
+      </c>
+      <c r="AC361">
+        <v>0</v>
+      </c>
+      <c r="AD361">
+        <v>0</v>
+      </c>
+      <c r="AE361">
+        <v>0</v>
+      </c>
+      <c r="AF361">
+        <v>0</v>
+      </c>
+      <c r="AG361">
+        <v>1.82</v>
+      </c>
+      <c r="AH361">
+        <v>1.92</v>
+      </c>
+      <c r="AI361">
+        <v>1.67</v>
+      </c>
+      <c r="AJ361">
+        <v>2.1</v>
+      </c>
+      <c r="AK361">
+        <v>0</v>
+      </c>
+      <c r="AL361">
+        <v>0</v>
+      </c>
+      <c r="AM361">
+        <v>0</v>
+      </c>
+      <c r="AN361">
+        <v>1.56</v>
+      </c>
+      <c r="AO361">
+        <v>2.06</v>
+      </c>
+      <c r="AP361">
+        <v>1.53</v>
+      </c>
+      <c r="AQ361">
+        <v>2</v>
+      </c>
+      <c r="AR361">
+        <v>1.87</v>
+      </c>
+      <c r="AS361">
+        <v>1.5</v>
+      </c>
+      <c r="AT361">
+        <v>3.37</v>
+      </c>
+      <c r="AU361">
+        <v>8</v>
+      </c>
+      <c r="AV361">
+        <v>3</v>
+      </c>
+      <c r="AW361">
+        <v>12</v>
+      </c>
+      <c r="AX361">
+        <v>2</v>
+      </c>
+      <c r="AY361">
+        <v>21</v>
+      </c>
+      <c r="AZ361">
+        <v>6</v>
+      </c>
+      <c r="BA361">
+        <v>5</v>
+      </c>
+      <c r="BB361">
+        <v>2</v>
+      </c>
+      <c r="BC361">
+        <v>7</v>
+      </c>
+      <c r="BD361">
+        <v>0</v>
+      </c>
+      <c r="BE361">
+        <v>0</v>
+      </c>
+      <c r="BF361">
+        <v>0</v>
+      </c>
+      <c r="BG361">
+        <v>0</v>
+      </c>
+      <c r="BH361">
+        <v>0</v>
+      </c>
+      <c r="BI361">
+        <v>0</v>
+      </c>
+      <c r="BJ361">
+        <v>0</v>
+      </c>
+      <c r="BK361">
+        <v>0</v>
+      </c>
+      <c r="BL361">
+        <v>0</v>
+      </c>
+      <c r="BM361">
+        <v>0</v>
+      </c>
+      <c r="BN361">
+        <v>0</v>
+      </c>
+      <c r="BO361">
+        <v>0</v>
+      </c>
+      <c r="BP361">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -75607,13 +75607,13 @@
         <v>8</v>
       </c>
       <c r="BA359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC359">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD359">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -76237,31 +76237,31 @@
         <v>2.92</v>
       </c>
       <c r="AU362">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV362">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW362">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX362">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY362">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ362">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA362">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB362">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC362">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD362">
         <v>1.41</v>
@@ -76443,31 +76443,31 @@
         <v>3.04</v>
       </c>
       <c r="AU363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW363">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX363">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY363">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ363">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA363">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB363">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC363">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD363">
         <v>1.74</v>
@@ -76649,31 +76649,31 @@
         <v>2.59</v>
       </c>
       <c r="AU364">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW364">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX364">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY364">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ364">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA364">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB364">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC364">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD364">
         <v>1.54</v>
@@ -76855,31 +76855,31 @@
         <v>2.7</v>
       </c>
       <c r="AU365">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV365">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW365">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX365">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AY365">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ365">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA365">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB365">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC365">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD365">
         <v>1.72</v>
@@ -77061,31 +77061,31 @@
         <v>2.65</v>
       </c>
       <c r="AU366">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV366">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW366">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX366">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY366">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ366">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA366">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB366">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC366">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD366">
         <v>1.67</v>
@@ -77267,31 +77267,31 @@
         <v>2.75</v>
       </c>
       <c r="AU367">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW367">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX367">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY367">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ367">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB367">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC367">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD367">
         <v>2.16</v>
@@ -77473,31 +77473,31 @@
         <v>2.65</v>
       </c>
       <c r="AU368">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV368">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW368">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AX368">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY368">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="AZ368">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA368">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB368">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC368">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD368">
         <v>1.63</v>
@@ -77679,31 +77679,31 @@
         <v>2.82</v>
       </c>
       <c r="AU369">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV369">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW369">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX369">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY369">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ369">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA369">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB369">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC369">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD369">
         <v>2.73</v>
@@ -77885,31 +77885,31 @@
         <v>3.47</v>
       </c>
       <c r="AU370">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV370">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW370">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX370">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY370">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ370">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA370">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB370">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC370">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD370">
         <v>1.73</v>
@@ -78091,31 +78091,31 @@
         <v>2.91</v>
       </c>
       <c r="AU371">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV371">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW371">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX371">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY371">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ371">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA371">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB371">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC371">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD371">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -77082,10 +77082,10 @@
         <v>2</v>
       </c>
       <c r="BB366">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC366">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD366">
         <v>1.67</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -78333,10 +78333,10 @@
         <v>4</v>
       </c>
       <c r="BB372">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC372">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD372">
         <v>1.25</v>
@@ -80184,13 +80184,13 @@
         <v>15</v>
       </c>
       <c r="BA381">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB381">
         <v>4</v>
       </c>
       <c r="BC381">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD381">
         <v>1.85</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="458">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -964,6 +964,9 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['34', '58']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -1383,6 +1386,9 @@
   <si>
     <t>['11', '75']</t>
   </si>
+  <si>
+    <t>['49', '61']</t>
+  </si>
 </sst>
 </file>
 
@@ -1743,7 +1749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP383"/>
+  <dimension ref="A1:BP385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2208,7 +2214,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2620,7 +2626,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2701,7 +2707,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ5">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3032,7 +3038,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3444,7 +3450,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3728,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3937,7 +3943,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ11">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4062,7 +4068,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4268,7 +4274,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -4474,7 +4480,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -5710,7 +5716,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5994,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
         <v>1.11</v>
@@ -6122,7 +6128,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -6534,7 +6540,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -7152,7 +7158,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7851,7 +7857,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ30">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -8054,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31">
         <v>0.68</v>
@@ -8388,7 +8394,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8800,7 +8806,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8881,7 +8887,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ35">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.36</v>
@@ -9006,7 +9012,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9830,7 +9836,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10036,7 +10042,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -10114,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ41">
         <v>0.53</v>
@@ -10242,7 +10248,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -11066,7 +11072,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -11144,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ46">
         <v>1.15</v>
@@ -11353,7 +11359,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -11478,7 +11484,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11684,7 +11690,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -12096,7 +12102,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12302,7 +12308,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12380,10 +12386,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -13744,7 +13750,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -14156,7 +14162,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14362,7 +14368,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14649,7 +14655,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ63">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -15186,7 +15192,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15470,7 +15476,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ67">
         <v>1.63</v>
@@ -15598,7 +15604,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -16010,7 +16016,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16216,7 +16222,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16297,7 +16303,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -16422,7 +16428,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16834,7 +16840,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -17246,7 +17252,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -17452,7 +17458,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17658,7 +17664,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -18070,7 +18076,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18148,7 +18154,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -18688,7 +18694,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18894,7 +18900,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18975,7 +18981,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -19306,7 +19312,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -19512,7 +19518,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19718,7 +19724,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19796,10 +19802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR88">
         <v>1.29</v>
@@ -20336,7 +20342,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -22474,7 +22480,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22808,7 +22814,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q103">
         <v>3.25</v>
@@ -22889,7 +22895,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ103">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR103">
         <v>1.48</v>
@@ -23014,7 +23020,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -23092,7 +23098,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -23507,7 +23513,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR106">
         <v>1.86</v>
@@ -24662,7 +24668,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -25564,7 +25570,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ116">
         <v>1.11</v>
@@ -26104,7 +26110,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q119">
         <v>2.88</v>
@@ -26722,7 +26728,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -27546,7 +27552,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27833,7 +27839,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ127">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27958,7 +27964,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28164,7 +28170,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -28370,7 +28376,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q130">
         <v>3.65</v>
@@ -28448,10 +28454,10 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR130">
         <v>1.36</v>
@@ -28576,7 +28582,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28782,7 +28788,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29400,7 +29406,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29478,7 +29484,7 @@
         <v>0.29</v>
       </c>
       <c r="AP135">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ135">
         <v>0.68</v>
@@ -29684,7 +29690,7 @@
         <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ136">
         <v>1.16</v>
@@ -30018,7 +30024,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30842,7 +30848,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -31048,7 +31054,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -31460,7 +31466,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31666,7 +31672,7 @@
         <v>102</v>
       </c>
       <c r="P146" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q146">
         <v>3.95</v>
@@ -31747,7 +31753,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ146">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR146">
         <v>1.46</v>
@@ -32078,7 +32084,7 @@
         <v>182</v>
       </c>
       <c r="P148" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q148">
         <v>3.6</v>
@@ -32365,7 +32371,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR149">
         <v>1.81</v>
@@ -32490,7 +32496,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q150">
         <v>2.63</v>
@@ -32902,7 +32908,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32980,7 +32986,7 @@
         <v>0.86</v>
       </c>
       <c r="AP152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ152">
         <v>1.11</v>
@@ -33726,7 +33732,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q156">
         <v>3.7</v>
@@ -33932,7 +33938,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34422,7 +34428,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ159">
         <v>1.16</v>
@@ -34550,7 +34556,7 @@
         <v>102</v>
       </c>
       <c r="P160" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q160">
         <v>2.2</v>
@@ -35168,7 +35174,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q163">
         <v>4.33</v>
@@ -35374,7 +35380,7 @@
         <v>194</v>
       </c>
       <c r="P164" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -36073,7 +36079,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ167">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -36279,7 +36285,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ168">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR168">
         <v>1.38</v>
@@ -36610,7 +36616,7 @@
         <v>196</v>
       </c>
       <c r="P170" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q170">
         <v>2.4</v>
@@ -36816,7 +36822,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -38052,7 +38058,7 @@
         <v>102</v>
       </c>
       <c r="P177" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q177">
         <v>3.55</v>
@@ -38130,10 +38136,10 @@
         <v>1.33</v>
       </c>
       <c r="AP177">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ177">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR177">
         <v>1.23</v>
@@ -38258,7 +38264,7 @@
         <v>200</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38748,7 +38754,7 @@
         <v>0.63</v>
       </c>
       <c r="AP180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ180">
         <v>1.1</v>
@@ -39288,7 +39294,7 @@
         <v>203</v>
       </c>
       <c r="P183" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q183">
         <v>3.1</v>
@@ -39494,7 +39500,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39906,7 +39912,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q186">
         <v>3.25</v>
@@ -40605,7 +40611,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ189">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR189">
         <v>1.56</v>
@@ -40936,7 +40942,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41142,7 +41148,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41429,7 +41435,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ193">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR193">
         <v>1.34</v>
@@ -42172,7 +42178,7 @@
         <v>102</v>
       </c>
       <c r="P197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -42584,7 +42590,7 @@
         <v>149</v>
       </c>
       <c r="P199" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q199">
         <v>2.63</v>
@@ -42662,7 +42668,7 @@
         <v>0.89</v>
       </c>
       <c r="AP199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ199">
         <v>1.11</v>
@@ -42868,7 +42874,7 @@
         <v>0.67</v>
       </c>
       <c r="AP200">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200">
         <v>0.58</v>
@@ -43202,7 +43208,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43408,7 +43414,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q203">
         <v>3.4</v>
@@ -44232,7 +44238,7 @@
         <v>218</v>
       </c>
       <c r="P207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44438,7 +44444,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44519,7 +44525,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ208">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR208">
         <v>1.42</v>
@@ -45262,7 +45268,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45674,7 +45680,7 @@
         <v>221</v>
       </c>
       <c r="P214" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q214">
         <v>2.87</v>
@@ -45880,7 +45886,7 @@
         <v>112</v>
       </c>
       <c r="P215" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q215">
         <v>2.7</v>
@@ -46292,7 +46298,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46498,7 +46504,7 @@
         <v>224</v>
       </c>
       <c r="P218" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q218">
         <v>2.05</v>
@@ -46782,7 +46788,7 @@
         <v>1.7</v>
       </c>
       <c r="AP219">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ219">
         <v>1.63</v>
@@ -47116,7 +47122,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47197,7 +47203,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ221">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR221">
         <v>1.33</v>
@@ -47322,7 +47328,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47734,7 +47740,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47940,7 +47946,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -48224,7 +48230,7 @@
         <v>0.55</v>
       </c>
       <c r="AP226">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ226">
         <v>0.53</v>
@@ -48352,7 +48358,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48970,7 +48976,7 @@
         <v>111</v>
       </c>
       <c r="P230" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q230">
         <v>2.9</v>
@@ -49176,7 +49182,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49382,7 +49388,7 @@
         <v>112</v>
       </c>
       <c r="P232" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49794,7 +49800,7 @@
         <v>232</v>
       </c>
       <c r="P234" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q234">
         <v>3.4</v>
@@ -49872,7 +49878,7 @@
         <v>0.73</v>
       </c>
       <c r="AP234">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ234">
         <v>1.1</v>
@@ -50000,7 +50006,7 @@
         <v>102</v>
       </c>
       <c r="P235" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q235">
         <v>4.75</v>
@@ -50081,7 +50087,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ235">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR235">
         <v>1.39</v>
@@ -50824,7 +50830,7 @@
         <v>236</v>
       </c>
       <c r="P239" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -51111,7 +51117,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ240">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR240">
         <v>1.73</v>
@@ -51236,7 +51242,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51854,7 +51860,7 @@
         <v>102</v>
       </c>
       <c r="P244" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q244">
         <v>4.75</v>
@@ -53090,7 +53096,7 @@
         <v>240</v>
       </c>
       <c r="P250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q250">
         <v>2.6</v>
@@ -53374,7 +53380,7 @@
         <v>1.09</v>
       </c>
       <c r="AP251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ251">
         <v>0.95</v>
@@ -53580,7 +53586,7 @@
         <v>1.46</v>
       </c>
       <c r="AP252">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ252">
         <v>1.26</v>
@@ -53708,7 +53714,7 @@
         <v>242</v>
       </c>
       <c r="P253" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q253">
         <v>3.4</v>
@@ -54201,7 +54207,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ255">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR255">
         <v>1.44</v>
@@ -54613,7 +54619,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ257">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR257">
         <v>1.38</v>
@@ -55022,7 +55028,7 @@
         <v>0.83</v>
       </c>
       <c r="AP259">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ259">
         <v>0.63</v>
@@ -55150,7 +55156,7 @@
         <v>247</v>
       </c>
       <c r="P260" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q260">
         <v>2.3</v>
@@ -55768,7 +55774,7 @@
         <v>102</v>
       </c>
       <c r="P263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q263">
         <v>3.5</v>
@@ -56386,7 +56392,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56592,7 +56598,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -57210,7 +57216,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q270">
         <v>3.4</v>
@@ -57703,7 +57709,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ272">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR272">
         <v>1.47</v>
@@ -57828,7 +57834,7 @@
         <v>253</v>
       </c>
       <c r="P273" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q273">
         <v>4.2</v>
@@ -57909,7 +57915,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ273">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR273">
         <v>1.39</v>
@@ -58240,7 +58246,7 @@
         <v>255</v>
       </c>
       <c r="P275" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q275">
         <v>2.7</v>
@@ -58524,7 +58530,7 @@
         <v>1.36</v>
       </c>
       <c r="AP276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ276">
         <v>1.26</v>
@@ -58858,7 +58864,7 @@
         <v>236</v>
       </c>
       <c r="P278" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q278">
         <v>2.8</v>
@@ -58936,7 +58942,7 @@
         <v>1</v>
       </c>
       <c r="AP278">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ278">
         <v>1.05</v>
@@ -59476,7 +59482,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -60918,7 +60924,7 @@
         <v>233</v>
       </c>
       <c r="P288" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -61124,7 +61130,7 @@
         <v>260</v>
       </c>
       <c r="P289" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q289">
         <v>2.6</v>
@@ -61536,7 +61542,7 @@
         <v>245</v>
       </c>
       <c r="P291" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61742,7 +61748,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61823,7 +61829,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ292">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR292">
         <v>1.84</v>
@@ -62029,7 +62035,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ293">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR293">
         <v>1.45</v>
@@ -62154,7 +62160,7 @@
         <v>90</v>
       </c>
       <c r="P294" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q294">
         <v>4.5</v>
@@ -62438,7 +62444,7 @@
         <v>0.87</v>
       </c>
       <c r="AP295">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ295">
         <v>1</v>
@@ -63184,7 +63190,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63390,7 +63396,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63674,7 +63680,7 @@
         <v>0.79</v>
       </c>
       <c r="AP301">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ301">
         <v>0.63</v>
@@ -63802,7 +63808,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -64008,7 +64014,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q303">
         <v>4.33</v>
@@ -64420,7 +64426,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64626,7 +64632,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q306">
         <v>2.88</v>
@@ -64832,7 +64838,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -65038,7 +65044,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65450,7 +65456,7 @@
         <v>201</v>
       </c>
       <c r="P310" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q310">
         <v>3.25</v>
@@ -65656,7 +65662,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65862,7 +65868,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65943,7 +65949,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ312">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR312">
         <v>1.32</v>
@@ -66068,7 +66074,7 @@
         <v>274</v>
       </c>
       <c r="P313" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q313">
         <v>2.88</v>
@@ -66686,7 +66692,7 @@
         <v>276</v>
       </c>
       <c r="P316" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q316">
         <v>2.63</v>
@@ -66892,7 +66898,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -67176,7 +67182,7 @@
         <v>0.53</v>
       </c>
       <c r="AP318">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ318">
         <v>0.58</v>
@@ -67304,7 +67310,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q319">
         <v>3.25</v>
@@ -67510,7 +67516,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q320">
         <v>3</v>
@@ -67588,7 +67594,7 @@
         <v>1.07</v>
       </c>
       <c r="AP320">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ320">
         <v>0.95</v>
@@ -67922,7 +67928,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -68128,7 +68134,7 @@
         <v>281</v>
       </c>
       <c r="P323" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q323">
         <v>3.1</v>
@@ -68746,7 +68752,7 @@
         <v>102</v>
       </c>
       <c r="P326" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q326">
         <v>4.33</v>
@@ -69158,7 +69164,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69364,7 +69370,7 @@
         <v>144</v>
       </c>
       <c r="P329" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q329">
         <v>2.38</v>
@@ -69776,7 +69782,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69857,7 +69863,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ331">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR331">
         <v>1.3</v>
@@ -69982,7 +69988,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70063,7 +70069,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ332">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR332">
         <v>1.46</v>
@@ -70188,7 +70194,7 @@
         <v>286</v>
       </c>
       <c r="P333" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q333">
         <v>2.75</v>
@@ -70600,7 +70606,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q335">
         <v>4.33</v>
@@ -71012,7 +71018,7 @@
         <v>222</v>
       </c>
       <c r="P337" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q337">
         <v>3.25</v>
@@ -71218,7 +71224,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71424,7 +71430,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71630,7 +71636,7 @@
         <v>228</v>
       </c>
       <c r="P340" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q340">
         <v>3.25</v>
@@ -71708,7 +71714,7 @@
         <v>1.18</v>
       </c>
       <c r="AP340">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ340">
         <v>1.15</v>
@@ -72120,7 +72126,7 @@
         <v>1.19</v>
       </c>
       <c r="AP342">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ342">
         <v>1.21</v>
@@ -72741,7 +72747,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ345">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR345">
         <v>1.4</v>
@@ -72866,7 +72872,7 @@
         <v>294</v>
       </c>
       <c r="P346" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q346">
         <v>2.75</v>
@@ -73484,7 +73490,7 @@
         <v>275</v>
       </c>
       <c r="P349" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q349">
         <v>2.5</v>
@@ -74514,7 +74520,7 @@
         <v>298</v>
       </c>
       <c r="P354" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q354">
         <v>2.88</v>
@@ -74720,7 +74726,7 @@
         <v>299</v>
       </c>
       <c r="P355" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q355">
         <v>2.88</v>
@@ -74798,7 +74804,7 @@
         <v>0.82</v>
       </c>
       <c r="AP355">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AQ355">
         <v>0.84</v>
@@ -75132,7 +75138,7 @@
         <v>301</v>
       </c>
       <c r="P357" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -75213,7 +75219,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ357">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR357">
         <v>1.3</v>
@@ -75338,7 +75344,7 @@
         <v>164</v>
       </c>
       <c r="P358" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q358">
         <v>3.1</v>
@@ -75544,7 +75550,7 @@
         <v>302</v>
       </c>
       <c r="P359" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q359">
         <v>2.38</v>
@@ -76162,7 +76168,7 @@
         <v>102</v>
       </c>
       <c r="P362" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q362">
         <v>5</v>
@@ -76368,7 +76374,7 @@
         <v>117</v>
       </c>
       <c r="P363" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q363">
         <v>3</v>
@@ -76446,7 +76452,7 @@
         <v>1</v>
       </c>
       <c r="AP363">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ363">
         <v>1.05</v>
@@ -77192,7 +77198,7 @@
         <v>308</v>
       </c>
       <c r="P367" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q367">
         <v>2.75</v>
@@ -77398,7 +77404,7 @@
         <v>102</v>
       </c>
       <c r="P368" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q368">
         <v>2.3</v>
@@ -77604,7 +77610,7 @@
         <v>309</v>
       </c>
       <c r="P369" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q369">
         <v>2.88</v>
@@ -77685,7 +77691,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ369">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR369">
         <v>1.9</v>
@@ -78921,7 +78927,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ375">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR375">
         <v>1.63</v>
@@ -79742,7 +79748,7 @@
         <v>0.83</v>
       </c>
       <c r="AP379">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ379">
         <v>0.84</v>
@@ -79870,7 +79876,7 @@
         <v>102</v>
       </c>
       <c r="P380" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q380">
         <v>3.6</v>
@@ -80360,7 +80366,7 @@
         <v>1.39</v>
       </c>
       <c r="AP382">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ382">
         <v>1.36</v>
@@ -80566,7 +80572,7 @@
         <v>1.37</v>
       </c>
       <c r="AP383">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AQ383">
         <v>1.33</v>
@@ -80645,6 +80651,418 @@
       </c>
       <c r="BP383">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:68">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>7900737</v>
+      </c>
+      <c r="C384" t="s">
+        <v>68</v>
+      </c>
+      <c r="D384" t="s">
+        <v>69</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45798.64583333334</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" t="s">
+        <v>88</v>
+      </c>
+      <c r="H384" t="s">
+        <v>82</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384">
+        <v>2</v>
+      </c>
+      <c r="M384">
+        <v>1</v>
+      </c>
+      <c r="N384">
+        <v>3</v>
+      </c>
+      <c r="O384" t="s">
+        <v>316</v>
+      </c>
+      <c r="P384" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q384">
+        <v>3.9</v>
+      </c>
+      <c r="R384">
+        <v>2.08</v>
+      </c>
+      <c r="S384">
+        <v>2.7</v>
+      </c>
+      <c r="T384">
+        <v>1.44</v>
+      </c>
+      <c r="U384">
+        <v>2.65</v>
+      </c>
+      <c r="V384">
+        <v>3</v>
+      </c>
+      <c r="W384">
+        <v>1.33</v>
+      </c>
+      <c r="X384">
+        <v>7</v>
+      </c>
+      <c r="Y384">
+        <v>1.06</v>
+      </c>
+      <c r="Z384">
+        <v>3.35</v>
+      </c>
+      <c r="AA384">
+        <v>3.34</v>
+      </c>
+      <c r="AB384">
+        <v>2.12</v>
+      </c>
+      <c r="AC384">
+        <v>1.02</v>
+      </c>
+      <c r="AD384">
+        <v>7.8</v>
+      </c>
+      <c r="AE384">
+        <v>1.34</v>
+      </c>
+      <c r="AF384">
+        <v>3.24</v>
+      </c>
+      <c r="AG384">
+        <v>1.92</v>
+      </c>
+      <c r="AH384">
+        <v>1.82</v>
+      </c>
+      <c r="AI384">
+        <v>1.83</v>
+      </c>
+      <c r="AJ384">
+        <v>1.85</v>
+      </c>
+      <c r="AK384">
+        <v>1.68</v>
+      </c>
+      <c r="AL384">
+        <v>1.32</v>
+      </c>
+      <c r="AM384">
+        <v>1.3</v>
+      </c>
+      <c r="AN384">
+        <v>1.49</v>
+      </c>
+      <c r="AO384">
+        <v>1.61</v>
+      </c>
+      <c r="AP384">
+        <v>1.53</v>
+      </c>
+      <c r="AQ384">
+        <v>1.56</v>
+      </c>
+      <c r="AR384">
+        <v>1.25</v>
+      </c>
+      <c r="AS384">
+        <v>1.73</v>
+      </c>
+      <c r="AT384">
+        <v>2.98</v>
+      </c>
+      <c r="AU384">
+        <v>-1</v>
+      </c>
+      <c r="AV384">
+        <v>-1</v>
+      </c>
+      <c r="AW384">
+        <v>-1</v>
+      </c>
+      <c r="AX384">
+        <v>-1</v>
+      </c>
+      <c r="AY384">
+        <v>-1</v>
+      </c>
+      <c r="AZ384">
+        <v>-1</v>
+      </c>
+      <c r="BA384">
+        <v>-1</v>
+      </c>
+      <c r="BB384">
+        <v>-1</v>
+      </c>
+      <c r="BC384">
+        <v>-1</v>
+      </c>
+      <c r="BD384">
+        <v>2.35</v>
+      </c>
+      <c r="BE384">
+        <v>6.25</v>
+      </c>
+      <c r="BF384">
+        <v>1.74</v>
+      </c>
+      <c r="BG384">
+        <v>1.41</v>
+      </c>
+      <c r="BH384">
+        <v>2.65</v>
+      </c>
+      <c r="BI384">
+        <v>1.68</v>
+      </c>
+      <c r="BJ384">
+        <v>2.02</v>
+      </c>
+      <c r="BK384">
+        <v>2.08</v>
+      </c>
+      <c r="BL384">
+        <v>1.65</v>
+      </c>
+      <c r="BM384">
+        <v>2.65</v>
+      </c>
+      <c r="BN384">
+        <v>1.4</v>
+      </c>
+      <c r="BO384">
+        <v>3.55</v>
+      </c>
+      <c r="BP384">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:68">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>7900736</v>
+      </c>
+      <c r="C385" t="s">
+        <v>68</v>
+      </c>
+      <c r="D385" t="s">
+        <v>69</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45798.64583333334</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385" t="s">
+        <v>78</v>
+      </c>
+      <c r="H385" t="s">
+        <v>83</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>2</v>
+      </c>
+      <c r="N385">
+        <v>2</v>
+      </c>
+      <c r="O385" t="s">
+        <v>102</v>
+      </c>
+      <c r="P385" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q385">
+        <v>3.55</v>
+      </c>
+      <c r="R385">
+        <v>2.1</v>
+      </c>
+      <c r="S385">
+        <v>2.9</v>
+      </c>
+      <c r="T385">
+        <v>1.42</v>
+      </c>
+      <c r="U385">
+        <v>2.65</v>
+      </c>
+      <c r="V385">
+        <v>2.95</v>
+      </c>
+      <c r="W385">
+        <v>1.36</v>
+      </c>
+      <c r="X385">
+        <v>7</v>
+      </c>
+      <c r="Y385">
+        <v>1.06</v>
+      </c>
+      <c r="Z385">
+        <v>3.13</v>
+      </c>
+      <c r="AA385">
+        <v>3.1</v>
+      </c>
+      <c r="AB385">
+        <v>2.33</v>
+      </c>
+      <c r="AC385">
+        <v>1.01</v>
+      </c>
+      <c r="AD385">
+        <v>8.5</v>
+      </c>
+      <c r="AE385">
+        <v>1.37</v>
+      </c>
+      <c r="AF385">
+        <v>3.08</v>
+      </c>
+      <c r="AG385">
+        <v>1.95</v>
+      </c>
+      <c r="AH385">
+        <v>1.73</v>
+      </c>
+      <c r="AI385">
+        <v>1.77</v>
+      </c>
+      <c r="AJ385">
+        <v>1.91</v>
+      </c>
+      <c r="AK385">
+        <v>1.57</v>
+      </c>
+      <c r="AL385">
+        <v>1.35</v>
+      </c>
+      <c r="AM385">
+        <v>1.34</v>
+      </c>
+      <c r="AN385">
+        <v>1.44</v>
+      </c>
+      <c r="AO385">
+        <v>1.74</v>
+      </c>
+      <c r="AP385">
+        <v>1.4</v>
+      </c>
+      <c r="AQ385">
+        <v>1.77</v>
+      </c>
+      <c r="AR385">
+        <v>1.29</v>
+      </c>
+      <c r="AS385">
+        <v>1.72</v>
+      </c>
+      <c r="AT385">
+        <v>3.01</v>
+      </c>
+      <c r="AU385">
+        <v>-1</v>
+      </c>
+      <c r="AV385">
+        <v>-1</v>
+      </c>
+      <c r="AW385">
+        <v>-1</v>
+      </c>
+      <c r="AX385">
+        <v>-1</v>
+      </c>
+      <c r="AY385">
+        <v>-1</v>
+      </c>
+      <c r="AZ385">
+        <v>-1</v>
+      </c>
+      <c r="BA385">
+        <v>-1</v>
+      </c>
+      <c r="BB385">
+        <v>-1</v>
+      </c>
+      <c r="BC385">
+        <v>-1</v>
+      </c>
+      <c r="BD385">
+        <v>2.33</v>
+      </c>
+      <c r="BE385">
+        <v>6.4</v>
+      </c>
+      <c r="BF385">
+        <v>1.73</v>
+      </c>
+      <c r="BG385">
+        <v>1.38</v>
+      </c>
+      <c r="BH385">
+        <v>2.7</v>
+      </c>
+      <c r="BI385">
+        <v>1.67</v>
+      </c>
+      <c r="BJ385">
+        <v>2.07</v>
+      </c>
+      <c r="BK385">
+        <v>2.05</v>
+      </c>
+      <c r="BL385">
+        <v>1.68</v>
+      </c>
+      <c r="BM385">
+        <v>2.55</v>
+      </c>
+      <c r="BN385">
+        <v>1.43</v>
+      </c>
+      <c r="BO385">
+        <v>3.4</v>
+      </c>
+      <c r="BP385">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -80793,31 +80793,31 @@
         <v>2.98</v>
       </c>
       <c r="AU384">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV384">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW384">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX384">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY384">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ384">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA384">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB384">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC384">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD384">
         <v>2.35</v>
@@ -80999,31 +80999,31 @@
         <v>3.01</v>
       </c>
       <c r="AU385">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV385">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW385">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX385">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY385">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ385">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA385">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB385">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC385">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD385">
         <v>2.33</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -81414,31 +81414,31 @@
         <v>2.98</v>
       </c>
       <c r="AU387">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV387">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW387">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX387">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY387">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ387">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA387">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB387">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC387">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD387">
         <v>1.38</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="459">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1752,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP387"/>
+  <dimension ref="A1:BP388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2710,7 +2710,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ5">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>0.53</v>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>1.15</v>
@@ -8066,7 +8066,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ31">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.65</v>
@@ -10947,10 +10947,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -14864,7 +14864,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ64">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -17745,7 +17745,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>0.95</v>
@@ -18984,7 +18984,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -21247,7 +21247,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
         <v>0.58</v>
@@ -23516,7 +23516,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.86</v>
@@ -25985,7 +25985,7 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -28254,7 +28254,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ129">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -30105,7 +30105,7 @@
         <v>0.83</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ138">
         <v>1.11</v>
@@ -32168,7 +32168,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ148">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -34431,7 +34431,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ159">
         <v>1.05</v>
@@ -36082,7 +36082,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ167">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -38554,7 +38554,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ179">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38963,7 +38963,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ181">
         <v>0.84</v>
@@ -41229,7 +41229,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ192">
         <v>1.16</v>
@@ -41644,7 +41644,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ194">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR194">
         <v>1.34</v>
@@ -45761,7 +45761,7 @@
         <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ214">
         <v>0.63</v>
@@ -47206,7 +47206,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ221">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR221">
         <v>1.33</v>
@@ -49263,7 +49263,7 @@
         <v>0.82</v>
       </c>
       <c r="AP231">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -49884,7 +49884,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ234">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR234">
         <v>1.39</v>
@@ -52971,7 +52971,7 @@
         <v>1.08</v>
       </c>
       <c r="AP249">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ249">
         <v>1.11</v>
@@ -54416,7 +54416,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ256">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR256">
         <v>1.44</v>
@@ -56679,7 +56679,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ267">
         <v>1.1</v>
@@ -57712,7 +57712,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ272">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR272">
         <v>1.47</v>
@@ -60387,7 +60387,7 @@
         <v>1.38</v>
       </c>
       <c r="AP285">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ285">
         <v>1.15</v>
@@ -62450,7 +62450,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ295">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR295">
         <v>1.45</v>
@@ -64919,7 +64919,7 @@
         <v>1.47</v>
       </c>
       <c r="AP307">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ307">
         <v>1.26</v>
@@ -69657,7 +69657,7 @@
         <v>1.19</v>
       </c>
       <c r="AP330">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ330">
         <v>1.05</v>
@@ -69866,7 +69866,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ331">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR331">
         <v>1.3</v>
@@ -70072,7 +70072,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ332">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR332">
         <v>1.46</v>
@@ -71305,7 +71305,7 @@
         <v>0.76</v>
       </c>
       <c r="AP338">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ338">
         <v>0.68</v>
@@ -75016,7 +75016,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ356">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AR356">
         <v>1.3</v>
@@ -76043,7 +76043,7 @@
         <v>2.06</v>
       </c>
       <c r="AP361">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AQ361">
         <v>2</v>
@@ -80784,7 +80784,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ384">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR384">
         <v>1.29</v>
@@ -80990,7 +80990,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ385">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AR385">
         <v>1.25</v>
@@ -81193,7 +81193,7 @@
         <v>1.53</v>
       </c>
       <c r="AP386">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AQ386">
         <v>1.49</v>
@@ -81399,7 +81399,7 @@
         <v>1.4</v>
       </c>
       <c r="AP387">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ387">
         <v>1.37</v>
@@ -81478,6 +81478,212 @@
       </c>
       <c r="BP387">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:68">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>7905395</v>
+      </c>
+      <c r="C388" t="s">
+        <v>68</v>
+      </c>
+      <c r="D388" t="s">
+        <v>69</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45806.64583333334</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388" t="s">
+        <v>82</v>
+      </c>
+      <c r="H388" t="s">
+        <v>83</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388" t="s">
+        <v>102</v>
+      </c>
+      <c r="P388" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q388">
+        <v>2.9</v>
+      </c>
+      <c r="R388">
+        <v>2.05</v>
+      </c>
+      <c r="S388">
+        <v>3.4</v>
+      </c>
+      <c r="T388">
+        <v>1.38</v>
+      </c>
+      <c r="U388">
+        <v>2.8</v>
+      </c>
+      <c r="V388">
+        <v>2.65</v>
+      </c>
+      <c r="W388">
+        <v>1.41</v>
+      </c>
+      <c r="X388">
+        <v>6.75</v>
+      </c>
+      <c r="Y388">
+        <v>1.09</v>
+      </c>
+      <c r="Z388">
+        <v>3.02</v>
+      </c>
+      <c r="AA388">
+        <v>3.47</v>
+      </c>
+      <c r="AB388">
+        <v>2.22</v>
+      </c>
+      <c r="AC388">
+        <v>1.06</v>
+      </c>
+      <c r="AD388">
+        <v>8.5</v>
+      </c>
+      <c r="AE388">
+        <v>1.28</v>
+      </c>
+      <c r="AF388">
+        <v>3.5</v>
+      </c>
+      <c r="AG388">
+        <v>1.82</v>
+      </c>
+      <c r="AH388">
+        <v>1.92</v>
+      </c>
+      <c r="AI388">
+        <v>1.68</v>
+      </c>
+      <c r="AJ388">
+        <v>2.05</v>
+      </c>
+      <c r="AK388">
+        <v>1.39</v>
+      </c>
+      <c r="AL388">
+        <v>1.31</v>
+      </c>
+      <c r="AM388">
+        <v>1.55</v>
+      </c>
+      <c r="AN388">
+        <v>1.6</v>
+      </c>
+      <c r="AO388">
+        <v>1.8</v>
+      </c>
+      <c r="AP388">
+        <v>1.59</v>
+      </c>
+      <c r="AQ388">
+        <v>1.78</v>
+      </c>
+      <c r="AR388">
+        <v>1.7</v>
+      </c>
+      <c r="AS388">
+        <v>1.69</v>
+      </c>
+      <c r="AT388">
+        <v>3.39</v>
+      </c>
+      <c r="AU388">
+        <v>2</v>
+      </c>
+      <c r="AV388">
+        <v>2</v>
+      </c>
+      <c r="AW388">
+        <v>14</v>
+      </c>
+      <c r="AX388">
+        <v>0</v>
+      </c>
+      <c r="AY388">
+        <v>19</v>
+      </c>
+      <c r="AZ388">
+        <v>2</v>
+      </c>
+      <c r="BA388">
+        <v>4</v>
+      </c>
+      <c r="BB388">
+        <v>1</v>
+      </c>
+      <c r="BC388">
+        <v>5</v>
+      </c>
+      <c r="BD388">
+        <v>1.78</v>
+      </c>
+      <c r="BE388">
+        <v>6.75</v>
+      </c>
+      <c r="BF388">
+        <v>2.23</v>
+      </c>
+      <c r="BG388">
+        <v>1.28</v>
+      </c>
+      <c r="BH388">
+        <v>3.3</v>
+      </c>
+      <c r="BI388">
+        <v>1.49</v>
+      </c>
+      <c r="BJ388">
+        <v>2.43</v>
+      </c>
+      <c r="BK388">
+        <v>1.77</v>
+      </c>
+      <c r="BL388">
+        <v>1.92</v>
+      </c>
+      <c r="BM388">
+        <v>2.2</v>
+      </c>
+      <c r="BN388">
+        <v>1.58</v>
+      </c>
+      <c r="BO388">
+        <v>2.8</v>
+      </c>
+      <c r="BP388">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="461">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -973,6 +973,9 @@
     <t>['36', '61']</t>
   </si>
   <si>
+    <t>['83', '85']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -1392,6 +1395,9 @@
   <si>
     <t>['49', '61']</t>
   </si>
+  <si>
+    <t>['25', '62', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1752,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP388"/>
+  <dimension ref="A1:BP389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2223,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -2629,7 +2635,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -3041,7 +3047,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -3453,7 +3459,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3946,7 +3952,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4071,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4483,7 +4489,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -5179,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ17">
         <v>1.11</v>
@@ -5925,7 +5931,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -6337,7 +6343,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q23">
         <v>2.98</v>
@@ -6749,7 +6755,7 @@
         <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q25">
         <v>2.74</v>
@@ -7367,7 +7373,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -8397,7 +8403,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q33">
         <v>2.9</v>
@@ -8603,7 +8609,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8684,7 +8690,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -9015,7 +9021,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -9633,7 +9639,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9839,7 +9845,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9917,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -10251,7 +10257,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10663,7 +10669,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q44">
         <v>3.75</v>
@@ -11693,7 +11699,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11899,7 +11905,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -12105,7 +12111,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12311,7 +12317,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12392,7 +12398,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -13753,7 +13759,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13831,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ59">
         <v>0.53</v>
@@ -13959,7 +13965,7 @@
         <v>102</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -14371,7 +14377,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -15195,7 +15201,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15607,7 +15613,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -16019,7 +16025,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -16225,7 +16231,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -16306,7 +16312,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -16431,7 +16437,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16843,7 +16849,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -17049,7 +17055,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17333,7 +17339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ76">
         <v>1.05</v>
@@ -17461,7 +17467,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17873,7 +17879,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -18285,7 +18291,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -18697,7 +18703,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18903,7 +18909,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -19109,7 +19115,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q85">
         <v>3.2</v>
@@ -19521,7 +19527,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -20139,7 +20145,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q90">
         <v>3.75</v>
@@ -20220,7 +20226,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.29</v>
@@ -20345,7 +20351,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20629,7 +20635,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ92">
         <v>0.95</v>
@@ -23023,7 +23029,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -23229,7 +23235,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23310,7 +23316,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -24671,7 +24677,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -25161,7 +25167,7 @@
         <v>0.6</v>
       </c>
       <c r="AP114">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25907,7 +25913,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -26731,7 +26737,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26937,7 +26943,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -27842,7 +27848,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ127">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27967,7 +27973,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28173,7 +28179,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q129">
         <v>3.65</v>
@@ -28379,7 +28385,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28585,7 +28591,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28791,7 +28797,7 @@
         <v>121</v>
       </c>
       <c r="P132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29615,7 +29621,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -30233,7 +30239,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30517,7 +30523,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ140">
         <v>1.11</v>
@@ -30851,7 +30857,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -31057,7 +31063,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q143">
         <v>3.95</v>
@@ -31138,7 +31144,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ143">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
         <v>1.46</v>
@@ -31263,7 +31269,7 @@
         <v>179</v>
       </c>
       <c r="P144" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q144">
         <v>2.55</v>
@@ -31469,7 +31475,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -32293,7 +32299,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -32499,7 +32505,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32911,7 +32917,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -33529,7 +33535,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33941,7 +33947,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -34353,7 +34359,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34637,7 +34643,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ160">
         <v>1.26</v>
@@ -35177,7 +35183,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35589,7 +35595,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -36207,7 +36213,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36700,7 +36706,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ170">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36825,7 +36831,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -38267,7 +38273,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -38473,7 +38479,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -39709,7 +39715,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39787,7 +39793,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ185">
         <v>0.68</v>
@@ -39996,7 +40002,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ186">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR186">
         <v>1.56</v>
@@ -40121,7 +40127,7 @@
         <v>205</v>
       </c>
       <c r="P187" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -40533,7 +40539,7 @@
         <v>207</v>
       </c>
       <c r="P189" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40945,7 +40951,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -41151,7 +41157,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q192">
         <v>2.4</v>
@@ -41769,7 +41775,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q195">
         <v>2.5</v>
@@ -42799,7 +42805,7 @@
         <v>151</v>
       </c>
       <c r="P200" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q200">
         <v>2.63</v>
@@ -43211,7 +43217,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>4.33</v>
@@ -43829,7 +43835,7 @@
         <v>217</v>
       </c>
       <c r="P205" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q205">
         <v>3.4</v>
@@ -44035,7 +44041,7 @@
         <v>218</v>
       </c>
       <c r="P206" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -44319,7 +44325,7 @@
         <v>1.4</v>
       </c>
       <c r="AP207">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ207">
         <v>1.05</v>
@@ -44447,7 +44453,7 @@
         <v>102</v>
       </c>
       <c r="P208" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -44528,7 +44534,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ208">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR208">
         <v>1.42</v>
@@ -45271,7 +45277,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45477,7 +45483,7 @@
         <v>108</v>
       </c>
       <c r="P213" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q213">
         <v>2.7</v>
@@ -46095,7 +46101,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q216">
         <v>2.87</v>
@@ -46301,7 +46307,7 @@
         <v>223</v>
       </c>
       <c r="P217" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q217">
         <v>2.65</v>
@@ -46919,7 +46925,7 @@
         <v>224</v>
       </c>
       <c r="P220" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q220">
         <v>2.05</v>
@@ -47125,7 +47131,7 @@
         <v>102</v>
       </c>
       <c r="P221" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q221">
         <v>3.75</v>
@@ -47331,7 +47337,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47409,7 +47415,7 @@
         <v>2.18</v>
       </c>
       <c r="AP222">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ222">
         <v>2</v>
@@ -47743,7 +47749,7 @@
         <v>102</v>
       </c>
       <c r="P224" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q224">
         <v>2.95</v>
@@ -47949,7 +47955,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -48361,7 +48367,7 @@
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q227">
         <v>3.3</v>
@@ -48979,7 +48985,7 @@
         <v>110</v>
       </c>
       <c r="P230" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q230">
         <v>2.9</v>
@@ -49185,7 +49191,7 @@
         <v>230</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q231">
         <v>2.6</v>
@@ -49391,7 +49397,7 @@
         <v>108</v>
       </c>
       <c r="P232" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q232">
         <v>3.1</v>
@@ -49803,7 +49809,7 @@
         <v>102</v>
       </c>
       <c r="P234" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q234">
         <v>4.75</v>
@@ -50215,7 +50221,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50627,7 +50633,7 @@
         <v>235</v>
       </c>
       <c r="P238" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50914,7 +50920,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ239">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR239">
         <v>1.73</v>
@@ -51245,7 +51251,7 @@
         <v>237</v>
       </c>
       <c r="P241" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q241">
         <v>2.75</v>
@@ -51657,7 +51663,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q243">
         <v>4.75</v>
@@ -52687,7 +52693,7 @@
         <v>239</v>
       </c>
       <c r="P248" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52765,7 +52771,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ248">
         <v>1.15</v>
@@ -53923,7 +53929,7 @@
         <v>243</v>
       </c>
       <c r="P254" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q254">
         <v>3.4</v>
@@ -54622,7 +54628,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ257">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR257">
         <v>1.38</v>
@@ -54747,7 +54753,7 @@
         <v>245</v>
       </c>
       <c r="P258" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q258">
         <v>2.3</v>
@@ -55983,7 +55989,7 @@
         <v>102</v>
       </c>
       <c r="P264" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56395,7 +56401,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q266">
         <v>2.85</v>
@@ -56601,7 +56607,7 @@
         <v>251</v>
       </c>
       <c r="P267" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q267">
         <v>2.4</v>
@@ -56885,7 +56891,7 @@
         <v>1.25</v>
       </c>
       <c r="AP268">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ268">
         <v>1.15</v>
@@ -57219,7 +57225,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q270">
         <v>3.4</v>
@@ -58043,7 +58049,7 @@
         <v>253</v>
       </c>
       <c r="P274" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -58249,7 +58255,7 @@
         <v>254</v>
       </c>
       <c r="P275" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q275">
         <v>4.2</v>
@@ -58330,7 +58336,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ275">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR275">
         <v>1.39</v>
@@ -58867,7 +58873,7 @@
         <v>235</v>
       </c>
       <c r="P278" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q278">
         <v>2.8</v>
@@ -59485,7 +59491,7 @@
         <v>258</v>
       </c>
       <c r="P281" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q281">
         <v>3</v>
@@ -60927,7 +60933,7 @@
         <v>232</v>
       </c>
       <c r="P288" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q288">
         <v>3.25</v>
@@ -61339,7 +61345,7 @@
         <v>260</v>
       </c>
       <c r="P290" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61417,7 +61423,7 @@
         <v>1.57</v>
       </c>
       <c r="AP290">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ290">
         <v>1.63</v>
@@ -61545,7 +61551,7 @@
         <v>246</v>
       </c>
       <c r="P291" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q291">
         <v>3.5</v>
@@ -61751,7 +61757,7 @@
         <v>261</v>
       </c>
       <c r="P292" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q292">
         <v>3.1</v>
@@ -61832,7 +61838,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ292">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR292">
         <v>1.84</v>
@@ -61957,7 +61963,7 @@
         <v>90</v>
       </c>
       <c r="P293" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q293">
         <v>4.5</v>
@@ -63193,7 +63199,7 @@
         <v>265</v>
       </c>
       <c r="P299" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q299">
         <v>3.5</v>
@@ -63399,7 +63405,7 @@
         <v>266</v>
       </c>
       <c r="P300" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -63811,7 +63817,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q302">
         <v>2.1</v>
@@ -63889,7 +63895,7 @@
         <v>0.93</v>
       </c>
       <c r="AP302">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ302">
         <v>1.16</v>
@@ -64017,7 +64023,7 @@
         <v>102</v>
       </c>
       <c r="P303" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q303">
         <v>4.33</v>
@@ -64429,7 +64435,7 @@
         <v>269</v>
       </c>
       <c r="P305" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q305">
         <v>2.75</v>
@@ -64635,7 +64641,7 @@
         <v>102</v>
       </c>
       <c r="P306" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q306">
         <v>2.88</v>
@@ -64841,7 +64847,7 @@
         <v>270</v>
       </c>
       <c r="P307" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q307">
         <v>2</v>
@@ -65047,7 +65053,7 @@
         <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q308">
         <v>2.25</v>
@@ -65459,7 +65465,7 @@
         <v>200</v>
       </c>
       <c r="P310" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q310">
         <v>3.25</v>
@@ -65665,7 +65671,7 @@
         <v>273</v>
       </c>
       <c r="P311" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q311">
         <v>3.25</v>
@@ -65871,7 +65877,7 @@
         <v>141</v>
       </c>
       <c r="P312" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q312">
         <v>4.33</v>
@@ -65952,7 +65958,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ312">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR312">
         <v>1.32</v>
@@ -66283,7 +66289,7 @@
         <v>274</v>
       </c>
       <c r="P314" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q314">
         <v>2.63</v>
@@ -66489,7 +66495,7 @@
         <v>275</v>
       </c>
       <c r="P315" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q315">
         <v>2.88</v>
@@ -66901,7 +66907,7 @@
         <v>187</v>
       </c>
       <c r="P317" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q317">
         <v>2.6</v>
@@ -67313,7 +67319,7 @@
         <v>277</v>
       </c>
       <c r="P319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q319">
         <v>3.25</v>
@@ -67519,7 +67525,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q320">
         <v>3</v>
@@ -67803,7 +67809,7 @@
         <v>0.93</v>
       </c>
       <c r="AP321">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ321">
         <v>0.84</v>
@@ -67931,7 +67937,7 @@
         <v>280</v>
       </c>
       <c r="P322" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q322">
         <v>3.5</v>
@@ -68137,7 +68143,7 @@
         <v>281</v>
       </c>
       <c r="P323" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q323">
         <v>3.1</v>
@@ -68549,7 +68555,7 @@
         <v>102</v>
       </c>
       <c r="P325" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q325">
         <v>4.33</v>
@@ -69167,7 +69173,7 @@
         <v>210</v>
       </c>
       <c r="P328" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q328">
         <v>3.6</v>
@@ -69579,7 +69585,7 @@
         <v>144</v>
       </c>
       <c r="P330" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q330">
         <v>2.38</v>
@@ -69785,7 +69791,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q331">
         <v>4.33</v>
@@ -69991,7 +69997,7 @@
         <v>285</v>
       </c>
       <c r="P332" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q332">
         <v>4.33</v>
@@ -70609,7 +70615,7 @@
         <v>287</v>
       </c>
       <c r="P335" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q335">
         <v>2.75</v>
@@ -70815,7 +70821,7 @@
         <v>221</v>
       </c>
       <c r="P336" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q336">
         <v>3.25</v>
@@ -71021,7 +71027,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -71227,7 +71233,7 @@
         <v>289</v>
       </c>
       <c r="P338" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q338">
         <v>2.1</v>
@@ -71433,7 +71439,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71845,7 +71851,7 @@
         <v>228</v>
       </c>
       <c r="P341" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q341">
         <v>3.25</v>
@@ -72257,7 +72263,7 @@
         <v>292</v>
       </c>
       <c r="P343" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q343">
         <v>2.75</v>
@@ -72541,7 +72547,7 @@
         <v>0.5</v>
       </c>
       <c r="AP344">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ344">
         <v>0.58</v>
@@ -72750,7 +72756,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ345">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR345">
         <v>1.4</v>
@@ -73493,7 +73499,7 @@
         <v>276</v>
       </c>
       <c r="P349" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q349">
         <v>2.5</v>
@@ -74523,7 +74529,7 @@
         <v>299</v>
       </c>
       <c r="P354" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q354">
         <v>2.88</v>
@@ -74729,7 +74735,7 @@
         <v>164</v>
       </c>
       <c r="P355" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q355">
         <v>3.1</v>
@@ -74935,7 +74941,7 @@
         <v>300</v>
       </c>
       <c r="P356" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q356">
         <v>4</v>
@@ -75141,7 +75147,7 @@
         <v>301</v>
       </c>
       <c r="P357" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q357">
         <v>2.88</v>
@@ -75759,7 +75765,7 @@
         <v>303</v>
       </c>
       <c r="P360" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q360">
         <v>2.38</v>
@@ -76171,7 +76177,7 @@
         <v>102</v>
       </c>
       <c r="P362" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q362">
         <v>5</v>
@@ -76377,7 +76383,7 @@
         <v>115</v>
       </c>
       <c r="P363" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q363">
         <v>3</v>
@@ -77407,7 +77413,7 @@
         <v>309</v>
       </c>
       <c r="P368" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q368">
         <v>2.75</v>
@@ -77819,7 +77825,7 @@
         <v>102</v>
       </c>
       <c r="P370" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q370">
         <v>2.3</v>
@@ -78025,7 +78031,7 @@
         <v>310</v>
       </c>
       <c r="P371" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q371">
         <v>2.88</v>
@@ -78103,10 +78109,10 @@
         <v>1.71</v>
       </c>
       <c r="AP371">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ371">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR371">
         <v>1.9</v>
@@ -78312,7 +78318,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ372">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR372">
         <v>1.63</v>
@@ -78927,7 +78933,7 @@
         <v>0.67</v>
       </c>
       <c r="AP375">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ375">
         <v>0.63</v>
@@ -80085,7 +80091,7 @@
         <v>102</v>
       </c>
       <c r="P381" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q381">
         <v>3.6</v>
@@ -80703,7 +80709,7 @@
         <v>102</v>
       </c>
       <c r="P384" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q384">
         <v>3.55</v>
@@ -80784,7 +80790,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ384">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR384">
         <v>1.29</v>
@@ -80990,7 +80996,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ385">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AR385">
         <v>1.25</v>
@@ -81193,7 +81199,7 @@
         <v>1.53</v>
       </c>
       <c r="AP386">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AQ386">
         <v>1.49</v>
@@ -81399,7 +81405,7 @@
         <v>1.4</v>
       </c>
       <c r="AP387">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AQ387">
         <v>1.37</v>
@@ -81605,10 +81611,10 @@
         <v>1.8</v>
       </c>
       <c r="AP388">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AQ388">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AR388">
         <v>1.7</v>
@@ -81684,6 +81690,212 @@
       </c>
       <c r="BP388">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:68">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>7905396</v>
+      </c>
+      <c r="C389" t="s">
+        <v>68</v>
+      </c>
+      <c r="D389" t="s">
+        <v>69</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389" t="s">
+        <v>83</v>
+      </c>
+      <c r="H389" t="s">
+        <v>82</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>2</v>
+      </c>
+      <c r="M389">
+        <v>3</v>
+      </c>
+      <c r="N389">
+        <v>5</v>
+      </c>
+      <c r="O389" t="s">
+        <v>319</v>
+      </c>
+      <c r="P389" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q389">
+        <v>3.04</v>
+      </c>
+      <c r="R389">
+        <v>2.03</v>
+      </c>
+      <c r="S389">
+        <v>3.78</v>
+      </c>
+      <c r="T389">
+        <v>1.43</v>
+      </c>
+      <c r="U389">
+        <v>2.65</v>
+      </c>
+      <c r="V389">
+        <v>3.14</v>
+      </c>
+      <c r="W389">
+        <v>1.32</v>
+      </c>
+      <c r="X389">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y389">
+        <v>1.01</v>
+      </c>
+      <c r="Z389">
+        <v>2.37</v>
+      </c>
+      <c r="AA389">
+        <v>3.25</v>
+      </c>
+      <c r="AB389">
+        <v>2.95</v>
+      </c>
+      <c r="AC389">
+        <v>1</v>
+      </c>
+      <c r="AD389">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE389">
+        <v>1.32</v>
+      </c>
+      <c r="AF389">
+        <v>3.02</v>
+      </c>
+      <c r="AG389">
+        <v>2.17</v>
+      </c>
+      <c r="AH389">
+        <v>1.62</v>
+      </c>
+      <c r="AI389">
+        <v>1.83</v>
+      </c>
+      <c r="AJ389">
+        <v>1.87</v>
+      </c>
+      <c r="AK389">
+        <v>1.33</v>
+      </c>
+      <c r="AL389">
+        <v>1.28</v>
+      </c>
+      <c r="AM389">
+        <v>1.5</v>
+      </c>
+      <c r="AN389">
+        <v>1.78</v>
+      </c>
+      <c r="AO389">
+        <v>1.59</v>
+      </c>
+      <c r="AP389">
+        <v>1.74</v>
+      </c>
+      <c r="AQ389">
+        <v>1.62</v>
+      </c>
+      <c r="AR389">
+        <v>1.67</v>
+      </c>
+      <c r="AS389">
+        <v>1.69</v>
+      </c>
+      <c r="AT389">
+        <v>3.36</v>
+      </c>
+      <c r="AU389">
+        <v>5</v>
+      </c>
+      <c r="AV389">
+        <v>6</v>
+      </c>
+      <c r="AW389">
+        <v>2</v>
+      </c>
+      <c r="AX389">
+        <v>4</v>
+      </c>
+      <c r="AY389">
+        <v>7</v>
+      </c>
+      <c r="AZ389">
+        <v>12</v>
+      </c>
+      <c r="BA389">
+        <v>2</v>
+      </c>
+      <c r="BB389">
+        <v>4</v>
+      </c>
+      <c r="BC389">
+        <v>6</v>
+      </c>
+      <c r="BD389">
+        <v>1.88</v>
+      </c>
+      <c r="BE389">
+        <v>6.75</v>
+      </c>
+      <c r="BF389">
+        <v>2.1</v>
+      </c>
+      <c r="BG389">
+        <v>1.26</v>
+      </c>
+      <c r="BH389">
+        <v>3.4</v>
+      </c>
+      <c r="BI389">
+        <v>1.45</v>
+      </c>
+      <c r="BJ389">
+        <v>2.55</v>
+      </c>
+      <c r="BK389">
+        <v>1.73</v>
+      </c>
+      <c r="BL389">
+        <v>1.98</v>
+      </c>
+      <c r="BM389">
+        <v>2.12</v>
+      </c>
+      <c r="BN389">
+        <v>1.64</v>
+      </c>
+      <c r="BO389">
+        <v>2.65</v>
+      </c>
+      <c r="BP389">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
